--- a/IFTC.PPQA.RE01_Herramienta de Gestión QA_(v2.0).xlsx
+++ b/IFTC.PPQA.RE01_Herramienta de Gestión QA_(v2.0).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="12120" windowHeight="9120" tabRatio="598" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="12120" windowHeight="9120" tabRatio="598" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Historial de Revisiones" sheetId="14" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Planificación!$A$12:$Y$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Planificación!$A$12:$Y$55</definedName>
     <definedName name="Analista" localSheetId="0">#REF!</definedName>
     <definedName name="AreaProceso" localSheetId="0">#REF!</definedName>
     <definedName name="Artefacto" localSheetId="0">#REF!</definedName>
@@ -163,7 +163,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="246">
   <si>
     <t>Analista Responsable</t>
   </si>
@@ -848,9 +848,6 @@
       </rPr>
       <t>Evaluacion</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Cronograma </t>
   </si>
   <si>
     <t>Lista Maestra de Requerimientos</t>
@@ -1278,6 +1275,9 @@
   <si>
     <t>Pruebas Unitarias</t>
   </si>
+  <si>
+    <t>Cronograma Detallado</t>
+  </si>
 </sst>
 </file>
 
@@ -1288,7 +1288,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_)"/>
   </numFmts>
-  <fonts count="64">
+  <fonts count="65">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1668,8 +1668,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1831,12 +1837,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2347,7 +2347,7 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="244">
+  <cellXfs count="243">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="32" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -2450,10 +2450,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="36" applyFont="1" applyAlignment="1">
@@ -2579,19 +2575,7 @@
     <xf numFmtId="0" fontId="4" fillId="24" borderId="10" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="14" fontId="8" fillId="24" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="24" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2677,10 +2661,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="24" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2862,72 +2842,30 @@
     <xf numFmtId="0" fontId="62" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="32" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="11" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="11" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="32" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="32" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="32" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="50" fillId="32" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="32" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="10" xfId="40" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="32" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="32" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" xfId="40" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="8" fillId="32" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="11" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="11" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="33" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="33" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="33" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="32" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3146,6 +3084,62 @@
     </xf>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="10" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="64" fillId="29" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="64" fillId="30" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="15" fontId="19" fillId="0" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="50" fillId="0" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="40" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="40" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="8" fillId="0" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="53">
@@ -3379,10 +3373,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-4</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3524,6 +3518,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3735,12 +3730,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="101937152"/>
-        <c:axId val="76578112"/>
+        <c:axId val="105587712"/>
+        <c:axId val="79789376"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="101937152"/>
+        <c:axId val="105587712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3749,7 +3744,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76578112"/>
+        <c:crossAx val="79789376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3757,7 +3752,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76578112"/>
+        <c:axId val="79789376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3767,13 +3762,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101937152"/>
+        <c:crossAx val="105587712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -4048,10 +4044,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>138</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>137</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4066,11 +4062,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="101937664"/>
-        <c:axId val="98010240"/>
+        <c:axId val="105588224"/>
+        <c:axId val="97944704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="101937664"/>
+        <c:axId val="105588224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4105,7 +4101,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98010240"/>
+        <c:crossAx val="97944704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4115,7 +4111,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98010240"/>
+        <c:axId val="97944704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4160,7 +4156,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101937664"/>
+        <c:crossAx val="105588224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4600,12 +4596,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="101938688"/>
-        <c:axId val="98011968"/>
+        <c:axId val="105588736"/>
+        <c:axId val="97946432"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="101938688"/>
+        <c:axId val="105588736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4679,7 +4675,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98011968"/>
+        <c:crossAx val="97946432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4689,7 +4685,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98011968"/>
+        <c:axId val="97946432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4773,7 +4769,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101938688"/>
+        <c:crossAx val="105588736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5557,147 +5553,147 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9" style="65" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" style="65" customWidth="1"/>
-    <col min="3" max="3" width="9" style="65" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="65" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="65" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" style="65" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="65" customWidth="1"/>
-    <col min="8" max="8" width="15" style="65" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="65"/>
+    <col min="1" max="1" width="9" style="64" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" style="64" customWidth="1"/>
+    <col min="3" max="3" width="9" style="64" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="64" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="64" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" style="64" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="64" customWidth="1"/>
+    <col min="8" max="8" width="15" style="64" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="64"/>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
+      <c r="A1" s="63"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
     </row>
     <row r="2" spans="1:9" ht="15.75">
-      <c r="A2" s="64"/>
-      <c r="B2" s="181" t="s">
+      <c r="A2" s="63"/>
+      <c r="B2" s="164" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="181"/>
-      <c r="D2" s="181"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
-      <c r="I2" s="64"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="164"/>
+      <c r="I2" s="63"/>
     </row>
     <row r="3" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A3" s="64"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
+      <c r="A3" s="63"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
     </row>
     <row r="4" spans="1:9" ht="36.75" customHeight="1">
-      <c r="A4" s="64"/>
-      <c r="B4" s="125" t="s">
+      <c r="A4" s="63"/>
+      <c r="B4" s="120" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="126" t="s">
+      <c r="C4" s="121" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="126" t="s">
+      <c r="D4" s="121" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="126" t="s">
+      <c r="E4" s="121" t="s">
         <v>67</v>
       </c>
-      <c r="F4" s="126" t="s">
+      <c r="F4" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="126" t="s">
+      <c r="G4" s="121" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="127" t="s">
+      <c r="H4" s="122" t="s">
         <v>69</v>
       </c>
-      <c r="I4" s="64"/>
+      <c r="I4" s="63"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="64"/>
-      <c r="B5" s="66">
+      <c r="A5" s="63"/>
+      <c r="B5" s="65">
         <v>1</v>
       </c>
-      <c r="C5" s="114">
+      <c r="C5" s="109">
         <v>0.1</v>
       </c>
-      <c r="D5" s="67">
+      <c r="D5" s="66">
         <v>41360</v>
       </c>
-      <c r="E5" s="68" t="s">
+      <c r="E5" s="67" t="s">
         <v>174</v>
       </c>
-      <c r="F5" s="68" t="s">
+      <c r="F5" s="67" t="s">
+        <v>198</v>
+      </c>
+      <c r="G5" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="68" t="s">
+        <v>173</v>
+      </c>
+      <c r="I5" s="63"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="63"/>
+      <c r="B6" s="65">
+        <v>2</v>
+      </c>
+      <c r="C6" s="128">
+        <v>0.2</v>
+      </c>
+      <c r="D6" s="66">
+        <v>41383</v>
+      </c>
+      <c r="E6" s="67" t="s">
+        <v>174</v>
+      </c>
+      <c r="F6" s="67" t="s">
+        <v>198</v>
+      </c>
+      <c r="G6" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="68" t="s">
+        <v>173</v>
+      </c>
+      <c r="I6" s="63"/>
+    </row>
+    <row r="7" spans="1:9" ht="13.5" thickBot="1">
+      <c r="B7" s="123">
+        <v>3</v>
+      </c>
+      <c r="C7" s="124" t="s">
+        <v>229</v>
+      </c>
+      <c r="D7" s="125">
+        <v>41400</v>
+      </c>
+      <c r="E7" s="126" t="s">
+        <v>174</v>
+      </c>
+      <c r="F7" s="126" t="s">
+        <v>198</v>
+      </c>
+      <c r="G7" s="126" t="s">
         <v>199</v>
       </c>
-      <c r="G5" s="68" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" s="69" t="s">
-        <v>173</v>
-      </c>
-      <c r="I5" s="64"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="64"/>
-      <c r="B6" s="66">
-        <v>2</v>
-      </c>
-      <c r="C6" s="133">
-        <v>0.2</v>
-      </c>
-      <c r="D6" s="67">
-        <v>41383</v>
-      </c>
-      <c r="E6" s="68" t="s">
-        <v>174</v>
-      </c>
-      <c r="F6" s="68" t="s">
-        <v>199</v>
-      </c>
-      <c r="G6" s="68" t="s">
-        <v>70</v>
-      </c>
-      <c r="H6" s="69" t="s">
-        <v>173</v>
-      </c>
-      <c r="I6" s="64"/>
-    </row>
-    <row r="7" spans="1:9" ht="13.5" thickBot="1">
-      <c r="B7" s="128">
-        <v>3</v>
-      </c>
-      <c r="C7" s="129" t="s">
-        <v>230</v>
-      </c>
-      <c r="D7" s="130">
-        <v>41400</v>
-      </c>
-      <c r="E7" s="131" t="s">
-        <v>174</v>
-      </c>
-      <c r="F7" s="131" t="s">
-        <v>199</v>
-      </c>
-      <c r="G7" s="131" t="s">
-        <v>200</v>
-      </c>
-      <c r="H7" s="132" t="s">
+      <c r="H7" s="127" t="s">
         <v>176</v>
       </c>
     </row>
@@ -5723,885 +5719,885 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="3" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" style="35" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="35" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="35" customWidth="1"/>
-    <col min="5" max="5" width="60.28515625" style="35" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="35"/>
+    <col min="1" max="1" width="3" style="34" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" style="34" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="34" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="34" customWidth="1"/>
+    <col min="5" max="5" width="60.28515625" style="34" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="59" customFormat="1" ht="12" customHeight="1"/>
-    <row r="2" spans="1:8" s="59" customFormat="1" ht="48.75" customHeight="1">
-      <c r="A2" s="36"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="194" t="s">
+    <row r="1" spans="1:8" s="58" customFormat="1" ht="12" customHeight="1"/>
+    <row r="2" spans="1:8" s="58" customFormat="1" ht="48.75" customHeight="1">
+      <c r="A2" s="35"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="177" t="s">
         <v>175</v>
       </c>
-      <c r="D2" s="195"/>
-      <c r="E2" s="196"/>
-    </row>
-    <row r="3" spans="1:8" s="59" customFormat="1">
-      <c r="A3" s="36"/>
-      <c r="B3" s="61" t="s">
-        <v>231</v>
-      </c>
-      <c r="C3" s="202" t="s">
-        <v>198</v>
-      </c>
-      <c r="D3" s="203"/>
-      <c r="E3" s="204"/>
-    </row>
-    <row r="4" spans="1:8" s="59" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A4" s="36"/>
-      <c r="B4" s="62" t="s">
+      <c r="D2" s="178"/>
+      <c r="E2" s="179"/>
+    </row>
+    <row r="3" spans="1:8" s="58" customFormat="1">
+      <c r="A3" s="35"/>
+      <c r="B3" s="60" t="s">
+        <v>230</v>
+      </c>
+      <c r="C3" s="185" t="s">
+        <v>197</v>
+      </c>
+      <c r="D3" s="186"/>
+      <c r="E3" s="187"/>
+    </row>
+    <row r="4" spans="1:8" s="58" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A4" s="35"/>
+      <c r="B4" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
     </row>
     <row r="5" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A5" s="36"/>
-      <c r="B5" s="197" t="s">
+      <c r="A5" s="35"/>
+      <c r="B5" s="180" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="198"/>
-      <c r="D5" s="198"/>
-      <c r="E5" s="199"/>
+      <c r="C5" s="181"/>
+      <c r="D5" s="181"/>
+      <c r="E5" s="182"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="36"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="36"/>
-      <c r="B7" s="48" t="s">
+      <c r="A7" s="35"/>
+      <c r="B7" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="36"/>
-      <c r="B8" s="37" t="s">
+      <c r="A8" s="35"/>
+      <c r="B8" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="200" t="s">
+      <c r="C8" s="71"/>
+      <c r="D8" s="183" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="201"/>
+      <c r="E8" s="184"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="36"/>
-      <c r="B9" s="73"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
     </row>
     <row r="10" spans="1:8" ht="12" customHeight="1">
-      <c r="A10" s="36"/>
-      <c r="B10" s="75" t="s">
+      <c r="A10" s="35"/>
+      <c r="B10" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="59"/>
-      <c r="D10" s="76" t="s">
+      <c r="C10" s="58"/>
+      <c r="D10" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="76"/>
+      <c r="E10" s="75"/>
     </row>
     <row r="11" spans="1:8" ht="9.9499999999999993" customHeight="1">
-      <c r="A11" s="36"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
     </row>
     <row r="12" spans="1:8" ht="12" customHeight="1">
-      <c r="A12" s="36"/>
-      <c r="B12" s="79" t="s">
+      <c r="A12" s="35"/>
+      <c r="B12" s="78" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="59"/>
-      <c r="D12" s="76" t="s">
+      <c r="C12" s="58"/>
+      <c r="D12" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="76"/>
+      <c r="E12" s="75"/>
     </row>
     <row r="13" spans="1:8" ht="9.9499999999999993" customHeight="1">
-      <c r="A13" s="36"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
     </row>
     <row r="14" spans="1:8" ht="12" customHeight="1">
-      <c r="A14" s="34"/>
-      <c r="B14" s="80" t="s">
+      <c r="A14" s="33"/>
+      <c r="B14" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="59"/>
-      <c r="D14" s="76" t="s">
+      <c r="C14" s="58"/>
+      <c r="D14" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="76"/>
+      <c r="E14" s="75"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="34"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
     </row>
     <row r="16" spans="1:8" ht="12" customHeight="1">
-      <c r="A16" s="34"/>
-      <c r="B16" s="81" t="s">
+      <c r="A16" s="33"/>
+      <c r="B16" s="80" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="59"/>
-      <c r="D16" s="76" t="s">
+      <c r="C16" s="58"/>
+      <c r="D16" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="76"/>
-      <c r="H16" s="38"/>
-    </row>
-    <row r="17" spans="1:8" s="50" customFormat="1" ht="12" customHeight="1">
-      <c r="A17" s="39"/>
-      <c r="B17" s="40"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="H17" s="41"/>
+      <c r="E16" s="75"/>
+      <c r="H16" s="37"/>
+    </row>
+    <row r="17" spans="1:8" s="49" customFormat="1" ht="12" customHeight="1">
+      <c r="A17" s="38"/>
+      <c r="B17" s="39"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="H17" s="40"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="34"/>
-    </row>
-    <row r="19" spans="1:8" s="55" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B19" s="188" t="s">
+      <c r="A18" s="33"/>
+    </row>
+    <row r="19" spans="1:8" s="54" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B19" s="171" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="189"/>
-      <c r="D19" s="189"/>
-      <c r="E19" s="190"/>
-    </row>
-    <row r="20" spans="1:8" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B20" s="42" t="s">
+      <c r="C19" s="172"/>
+      <c r="D19" s="172"/>
+      <c r="E19" s="173"/>
+    </row>
+    <row r="20" spans="1:8" s="54" customFormat="1" ht="13.5" customHeight="1">
+      <c r="B20" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="191" t="s">
+      <c r="C20" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="192"/>
-      <c r="E20" s="193"/>
-    </row>
-    <row r="21" spans="1:8" s="55" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B21" s="56" t="s">
+      <c r="D20" s="175"/>
+      <c r="E20" s="176"/>
+    </row>
+    <row r="21" spans="1:8" s="54" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B21" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="205" t="s">
+      <c r="C21" s="188" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="206"/>
-      <c r="E21" s="207"/>
-    </row>
-    <row r="22" spans="1:8" s="55" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B22" s="56" t="s">
+      <c r="D21" s="189"/>
+      <c r="E21" s="190"/>
+    </row>
+    <row r="22" spans="1:8" s="54" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B22" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="205" t="s">
+      <c r="C22" s="188" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="206"/>
-      <c r="E22" s="207"/>
-    </row>
-    <row r="23" spans="1:8" s="55" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B23" s="56" t="s">
+      <c r="D22" s="189"/>
+      <c r="E22" s="190"/>
+    </row>
+    <row r="23" spans="1:8" s="54" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B23" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="205" t="s">
+      <c r="C23" s="188" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="206"/>
-      <c r="E23" s="207"/>
-    </row>
-    <row r="24" spans="1:8" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B24" s="56" t="s">
+      <c r="D23" s="189"/>
+      <c r="E23" s="190"/>
+    </row>
+    <row r="24" spans="1:8" s="54" customFormat="1" ht="13.5" customHeight="1">
+      <c r="B24" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="205" t="s">
+      <c r="C24" s="188" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="206"/>
-      <c r="E24" s="207"/>
-    </row>
-    <row r="25" spans="1:8" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B25" s="57"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
+      <c r="D24" s="189"/>
+      <c r="E24" s="190"/>
+    </row>
+    <row r="25" spans="1:8" s="54" customFormat="1" ht="13.5" customHeight="1">
+      <c r="B25" s="56"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="34"/>
-      <c r="B26" s="48"/>
-    </row>
-    <row r="27" spans="1:8" s="55" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B27" s="188" t="s">
+      <c r="A26" s="33"/>
+      <c r="B26" s="47"/>
+    </row>
+    <row r="27" spans="1:8" s="54" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B27" s="171" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="189"/>
-      <c r="D27" s="189"/>
-      <c r="E27" s="190"/>
-    </row>
-    <row r="28" spans="1:8" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B28" s="42" t="s">
+      <c r="C27" s="172"/>
+      <c r="D27" s="172"/>
+      <c r="E27" s="173"/>
+    </row>
+    <row r="28" spans="1:8" s="54" customFormat="1" ht="13.5" customHeight="1">
+      <c r="B28" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="191" t="s">
+      <c r="C28" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="192"/>
-      <c r="E28" s="193"/>
+      <c r="D28" s="175"/>
+      <c r="E28" s="176"/>
     </row>
     <row r="29" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A29" s="34"/>
-      <c r="B29" s="208" t="s">
+      <c r="A29" s="33"/>
+      <c r="B29" s="191" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="209"/>
-      <c r="D29" s="209"/>
-      <c r="E29" s="210"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
+      <c r="C29" s="192"/>
+      <c r="D29" s="192"/>
+      <c r="E29" s="193"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
     </row>
     <row r="30" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A30" s="34"/>
-      <c r="B30" s="45" t="s">
+      <c r="A30" s="33"/>
+      <c r="B30" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="C30" s="182" t="s">
+      <c r="C30" s="165" t="s">
         <v>114</v>
       </c>
-      <c r="D30" s="183"/>
-      <c r="E30" s="184"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
+      <c r="D30" s="166"/>
+      <c r="E30" s="167"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
     </row>
     <row r="31" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A31" s="34"/>
-      <c r="B31" s="43" t="s">
+      <c r="A31" s="33"/>
+      <c r="B31" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="C31" s="182" t="s">
+      <c r="C31" s="165" t="s">
         <v>116</v>
       </c>
-      <c r="D31" s="183"/>
-      <c r="E31" s="184"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
+      <c r="D31" s="166"/>
+      <c r="E31" s="167"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
     </row>
     <row r="32" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A32" s="34"/>
-      <c r="B32" s="43" t="s">
+      <c r="A32" s="33"/>
+      <c r="B32" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="182" t="s">
+      <c r="C32" s="165" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="183"/>
-      <c r="E32" s="184"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
+      <c r="D32" s="166"/>
+      <c r="E32" s="167"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
     </row>
     <row r="33" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A33" s="34"/>
-      <c r="B33" s="43" t="s">
+      <c r="A33" s="33"/>
+      <c r="B33" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="182" t="s">
+      <c r="C33" s="165" t="s">
         <v>73</v>
       </c>
-      <c r="D33" s="183"/>
-      <c r="E33" s="184"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
+      <c r="D33" s="166"/>
+      <c r="E33" s="167"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
     </row>
     <row r="34" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A34" s="34"/>
-      <c r="B34" s="43" t="s">
+      <c r="A34" s="33"/>
+      <c r="B34" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="182" t="s">
+      <c r="C34" s="165" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="183"/>
-      <c r="E34" s="184"/>
+      <c r="D34" s="166"/>
+      <c r="E34" s="167"/>
     </row>
     <row r="35" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A35" s="34"/>
-      <c r="B35" s="43" t="s">
+      <c r="A35" s="33"/>
+      <c r="B35" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="182" t="s">
+      <c r="C35" s="165" t="s">
         <v>75</v>
       </c>
-      <c r="D35" s="183"/>
-      <c r="E35" s="184"/>
+      <c r="D35" s="166"/>
+      <c r="E35" s="167"/>
     </row>
     <row r="36" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A36" s="34"/>
-      <c r="B36" s="208" t="s">
+      <c r="A36" s="33"/>
+      <c r="B36" s="191" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="209"/>
-      <c r="D36" s="209"/>
-      <c r="E36" s="210"/>
+      <c r="C36" s="192"/>
+      <c r="D36" s="192"/>
+      <c r="E36" s="193"/>
     </row>
     <row r="37" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A37" s="34"/>
-      <c r="B37" s="43" t="s">
+      <c r="A37" s="33"/>
+      <c r="B37" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="182" t="s">
+      <c r="C37" s="165" t="s">
         <v>76</v>
       </c>
-      <c r="D37" s="183"/>
-      <c r="E37" s="184"/>
+      <c r="D37" s="166"/>
+      <c r="E37" s="167"/>
     </row>
     <row r="38" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A38" s="34"/>
-      <c r="B38" s="43" t="s">
+      <c r="A38" s="33"/>
+      <c r="B38" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="182" t="s">
+      <c r="C38" s="165" t="s">
         <v>87</v>
       </c>
-      <c r="D38" s="183"/>
-      <c r="E38" s="184"/>
+      <c r="D38" s="166"/>
+      <c r="E38" s="167"/>
     </row>
     <row r="39" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A39" s="34"/>
-      <c r="B39" s="43" t="s">
+      <c r="A39" s="33"/>
+      <c r="B39" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="C39" s="182" t="s">
+      <c r="C39" s="165" t="s">
         <v>103</v>
       </c>
-      <c r="D39" s="183"/>
-      <c r="E39" s="184"/>
+      <c r="D39" s="166"/>
+      <c r="E39" s="167"/>
     </row>
     <row r="40" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A40" s="34"/>
-      <c r="B40" s="43" t="s">
+      <c r="A40" s="33"/>
+      <c r="B40" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="C40" s="182" t="s">
+      <c r="C40" s="165" t="s">
         <v>143</v>
       </c>
-      <c r="D40" s="183"/>
-      <c r="E40" s="184"/>
+      <c r="D40" s="166"/>
+      <c r="E40" s="167"/>
     </row>
     <row r="41" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A41" s="34"/>
-      <c r="B41" s="43" t="s">
+      <c r="A41" s="33"/>
+      <c r="B41" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="182" t="s">
+      <c r="C41" s="165" t="s">
         <v>105</v>
       </c>
-      <c r="D41" s="183"/>
-      <c r="E41" s="184"/>
+      <c r="D41" s="166"/>
+      <c r="E41" s="167"/>
     </row>
     <row r="42" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A42" s="34"/>
-      <c r="B42" s="43" t="s">
+      <c r="A42" s="33"/>
+      <c r="B42" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="182" t="s">
+      <c r="C42" s="165" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="183"/>
-      <c r="E42" s="184"/>
+      <c r="D42" s="166"/>
+      <c r="E42" s="167"/>
     </row>
     <row r="43" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A43" s="34"/>
-      <c r="B43" s="46" t="s">
+      <c r="A43" s="33"/>
+      <c r="B43" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="182" t="s">
+      <c r="C43" s="165" t="s">
         <v>79</v>
       </c>
-      <c r="D43" s="183"/>
-      <c r="E43" s="184"/>
+      <c r="D43" s="166"/>
+      <c r="E43" s="167"/>
     </row>
     <row r="44" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A44" s="34"/>
-      <c r="B44" s="46" t="s">
+      <c r="A44" s="33"/>
+      <c r="B44" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="C44" s="182" t="s">
+      <c r="C44" s="165" t="s">
         <v>80</v>
       </c>
-      <c r="D44" s="183"/>
-      <c r="E44" s="184"/>
+      <c r="D44" s="166"/>
+      <c r="E44" s="167"/>
     </row>
     <row r="45" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A45" s="34"/>
-      <c r="B45" s="43" t="s">
+      <c r="A45" s="33"/>
+      <c r="B45" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="182" t="s">
+      <c r="C45" s="165" t="s">
         <v>77</v>
       </c>
-      <c r="D45" s="183"/>
-      <c r="E45" s="184"/>
+      <c r="D45" s="166"/>
+      <c r="E45" s="167"/>
     </row>
     <row r="46" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A46" s="34"/>
-      <c r="B46" s="46" t="s">
+      <c r="A46" s="33"/>
+      <c r="B46" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="C46" s="182" t="s">
+      <c r="C46" s="165" t="s">
         <v>82</v>
       </c>
-      <c r="D46" s="183"/>
-      <c r="E46" s="184"/>
+      <c r="D46" s="166"/>
+      <c r="E46" s="167"/>
     </row>
     <row r="47" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A47" s="34"/>
-      <c r="B47" s="46" t="s">
+      <c r="A47" s="33"/>
+      <c r="B47" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="C47" s="182" t="s">
+      <c r="C47" s="165" t="s">
         <v>83</v>
       </c>
-      <c r="D47" s="183"/>
-      <c r="E47" s="184"/>
+      <c r="D47" s="166"/>
+      <c r="E47" s="167"/>
     </row>
     <row r="48" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A48" s="34"/>
-      <c r="B48" s="43" t="s">
+      <c r="A48" s="33"/>
+      <c r="B48" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="182" t="s">
+      <c r="C48" s="165" t="s">
         <v>81</v>
       </c>
-      <c r="D48" s="183"/>
-      <c r="E48" s="184"/>
+      <c r="D48" s="166"/>
+      <c r="E48" s="167"/>
     </row>
     <row r="49" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A49" s="34"/>
-      <c r="B49" s="43" t="s">
+      <c r="A49" s="33"/>
+      <c r="B49" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="C49" s="182" t="s">
+      <c r="C49" s="165" t="s">
         <v>78</v>
       </c>
-      <c r="D49" s="183"/>
-      <c r="E49" s="184"/>
+      <c r="D49" s="166"/>
+      <c r="E49" s="167"/>
     </row>
     <row r="50" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A50" s="55"/>
-      <c r="B50" s="70"/>
-      <c r="C50" s="58"/>
-      <c r="D50" s="58"/>
-      <c r="E50" s="58"/>
-      <c r="F50" s="55"/>
-      <c r="G50" s="55"/>
-      <c r="H50" s="55"/>
-      <c r="I50" s="55"/>
-      <c r="J50" s="55"/>
-      <c r="K50" s="55"/>
-      <c r="L50" s="55"/>
-      <c r="M50" s="55"/>
-    </row>
-    <row r="51" spans="1:13" s="55" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A51" s="34"/>
-      <c r="B51" s="48"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="35"/>
-      <c r="J51" s="35"/>
-      <c r="K51" s="35"/>
-      <c r="L51" s="35"/>
-      <c r="M51" s="35"/>
-    </row>
-    <row r="52" spans="1:13" s="55" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B52" s="188" t="s">
+      <c r="A50" s="54"/>
+      <c r="B50" s="69"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="54"/>
+      <c r="G50" s="54"/>
+      <c r="H50" s="54"/>
+      <c r="I50" s="54"/>
+      <c r="J50" s="54"/>
+      <c r="K50" s="54"/>
+      <c r="L50" s="54"/>
+      <c r="M50" s="54"/>
+    </row>
+    <row r="51" spans="1:13" s="54" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A51" s="33"/>
+      <c r="B51" s="47"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="34"/>
+      <c r="J51" s="34"/>
+      <c r="K51" s="34"/>
+      <c r="L51" s="34"/>
+      <c r="M51" s="34"/>
+    </row>
+    <row r="52" spans="1:13" s="54" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B52" s="171" t="s">
         <v>55</v>
       </c>
-      <c r="C52" s="189"/>
-      <c r="D52" s="189"/>
-      <c r="E52" s="190"/>
+      <c r="C52" s="172"/>
+      <c r="D52" s="172"/>
+      <c r="E52" s="173"/>
     </row>
     <row r="53" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A53" s="55"/>
-      <c r="B53" s="42" t="s">
+      <c r="A53" s="54"/>
+      <c r="B53" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="C53" s="191" t="s">
+      <c r="C53" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="D53" s="192"/>
-      <c r="E53" s="193"/>
-      <c r="F53" s="55"/>
-      <c r="G53" s="55"/>
-      <c r="H53" s="55"/>
-      <c r="I53" s="55"/>
-      <c r="J53" s="55"/>
-      <c r="K53" s="55"/>
-      <c r="L53" s="55"/>
-      <c r="M53" s="55"/>
+      <c r="D53" s="175"/>
+      <c r="E53" s="176"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="54"/>
+      <c r="H53" s="54"/>
+      <c r="I53" s="54"/>
+      <c r="J53" s="54"/>
+      <c r="K53" s="54"/>
+      <c r="L53" s="54"/>
+      <c r="M53" s="54"/>
     </row>
     <row r="54" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A54" s="34"/>
-      <c r="B54" s="43" t="s">
+      <c r="A54" s="33"/>
+      <c r="B54" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="C54" s="182" t="s">
+      <c r="C54" s="165" t="s">
         <v>76</v>
       </c>
-      <c r="D54" s="183"/>
-      <c r="E54" s="184"/>
+      <c r="D54" s="166"/>
+      <c r="E54" s="167"/>
     </row>
     <row r="55" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A55" s="34"/>
-      <c r="B55" s="43" t="s">
+      <c r="A55" s="33"/>
+      <c r="B55" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="C55" s="182" t="s">
+      <c r="C55" s="165" t="s">
         <v>88</v>
       </c>
-      <c r="D55" s="183"/>
-      <c r="E55" s="184"/>
+      <c r="D55" s="166"/>
+      <c r="E55" s="167"/>
     </row>
     <row r="56" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A56" s="34"/>
-      <c r="B56" s="43" t="s">
+      <c r="A56" s="33"/>
+      <c r="B56" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="C56" s="182" t="s">
+      <c r="C56" s="165" t="s">
         <v>89</v>
       </c>
-      <c r="D56" s="183"/>
-      <c r="E56" s="184"/>
+      <c r="D56" s="166"/>
+      <c r="E56" s="167"/>
     </row>
     <row r="57" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A57" s="34"/>
-      <c r="B57" s="43" t="s">
+      <c r="A57" s="33"/>
+      <c r="B57" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="C57" s="182" t="s">
+      <c r="C57" s="165" t="s">
         <v>106</v>
       </c>
-      <c r="D57" s="186"/>
-      <c r="E57" s="187"/>
+      <c r="D57" s="169"/>
+      <c r="E57" s="170"/>
     </row>
     <row r="58" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A58" s="34"/>
-      <c r="B58" s="43" t="s">
+      <c r="A58" s="33"/>
+      <c r="B58" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="182" t="s">
+      <c r="C58" s="165" t="s">
         <v>93</v>
       </c>
-      <c r="D58" s="186"/>
-      <c r="E58" s="187"/>
+      <c r="D58" s="169"/>
+      <c r="E58" s="170"/>
     </row>
     <row r="59" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A59" s="34"/>
-      <c r="B59" s="43" t="s">
+      <c r="A59" s="33"/>
+      <c r="B59" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="C59" s="182" t="s">
+      <c r="C59" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D59" s="186"/>
-      <c r="E59" s="187"/>
+      <c r="D59" s="169"/>
+      <c r="E59" s="170"/>
     </row>
     <row r="60" spans="1:13" ht="54" customHeight="1">
-      <c r="A60" s="34"/>
-      <c r="B60" s="43" t="s">
+      <c r="A60" s="33"/>
+      <c r="B60" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="C60" s="182" t="s">
+      <c r="C60" s="165" t="s">
         <v>107</v>
       </c>
-      <c r="D60" s="186"/>
-      <c r="E60" s="187"/>
+      <c r="D60" s="169"/>
+      <c r="E60" s="170"/>
     </row>
     <row r="61" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A61" s="34"/>
-      <c r="B61" s="43" t="s">
+      <c r="A61" s="33"/>
+      <c r="B61" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="C61" s="185" t="s">
+      <c r="C61" s="168" t="s">
         <v>92</v>
       </c>
-      <c r="D61" s="186"/>
-      <c r="E61" s="187"/>
+      <c r="D61" s="169"/>
+      <c r="E61" s="170"/>
     </row>
     <row r="62" spans="1:13" ht="30" customHeight="1">
-      <c r="A62" s="34"/>
-      <c r="B62" s="43" t="s">
+      <c r="A62" s="33"/>
+      <c r="B62" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="C62" s="182" t="s">
+      <c r="C62" s="165" t="s">
         <v>57</v>
       </c>
-      <c r="D62" s="186"/>
-      <c r="E62" s="187"/>
+      <c r="D62" s="169"/>
+      <c r="E62" s="170"/>
     </row>
     <row r="63" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A63" s="34"/>
-      <c r="B63" s="43" t="s">
+      <c r="A63" s="33"/>
+      <c r="B63" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C63" s="185" t="s">
+      <c r="C63" s="168" t="s">
         <v>62</v>
       </c>
-      <c r="D63" s="186"/>
-      <c r="E63" s="187"/>
+      <c r="D63" s="169"/>
+      <c r="E63" s="170"/>
     </row>
     <row r="64" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A64" s="34"/>
-      <c r="B64" s="43" t="s">
+      <c r="A64" s="33"/>
+      <c r="B64" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C64" s="185" t="s">
+      <c r="C64" s="168" t="s">
         <v>85</v>
       </c>
-      <c r="D64" s="186"/>
-      <c r="E64" s="187"/>
+      <c r="D64" s="169"/>
+      <c r="E64" s="170"/>
     </row>
     <row r="65" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A65" s="34"/>
-      <c r="B65" s="43" t="s">
+      <c r="A65" s="33"/>
+      <c r="B65" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="C65" s="182" t="s">
+      <c r="C65" s="165" t="s">
         <v>78</v>
       </c>
-      <c r="D65" s="183"/>
-      <c r="E65" s="184"/>
+      <c r="D65" s="166"/>
+      <c r="E65" s="167"/>
     </row>
     <row r="66" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A66" s="34"/>
-      <c r="B66" s="44"/>
-      <c r="C66" s="52"/>
-      <c r="D66" s="53"/>
-      <c r="E66" s="53"/>
+      <c r="A66" s="33"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="51"/>
+      <c r="D66" s="52"/>
+      <c r="E66" s="52"/>
     </row>
     <row r="67" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A67" s="34"/>
-      <c r="B67" s="212"/>
-      <c r="C67" s="212"/>
-      <c r="D67" s="212"/>
-      <c r="E67" s="212"/>
-      <c r="F67" s="54"/>
-      <c r="G67" s="54"/>
-      <c r="H67" s="54"/>
+      <c r="A67" s="33"/>
+      <c r="B67" s="195"/>
+      <c r="C67" s="195"/>
+      <c r="D67" s="195"/>
+      <c r="E67" s="195"/>
+      <c r="F67" s="53"/>
+      <c r="G67" s="53"/>
+      <c r="H67" s="53"/>
     </row>
     <row r="68" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A68" s="34"/>
-      <c r="B68" s="211"/>
-      <c r="C68" s="211"/>
-      <c r="D68" s="211"/>
-      <c r="E68" s="211"/>
-      <c r="F68" s="54"/>
-      <c r="G68" s="54"/>
-      <c r="H68" s="54"/>
+      <c r="A68" s="33"/>
+      <c r="B68" s="194"/>
+      <c r="C68" s="194"/>
+      <c r="D68" s="194"/>
+      <c r="E68" s="194"/>
+      <c r="F68" s="53"/>
+      <c r="G68" s="53"/>
+      <c r="H68" s="53"/>
     </row>
     <row r="69" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A69" s="34"/>
-      <c r="B69" s="211"/>
-      <c r="C69" s="211"/>
-      <c r="D69" s="211"/>
-      <c r="E69" s="211"/>
-      <c r="F69" s="54"/>
-      <c r="G69" s="54"/>
-      <c r="H69" s="54"/>
+      <c r="A69" s="33"/>
+      <c r="B69" s="194"/>
+      <c r="C69" s="194"/>
+      <c r="D69" s="194"/>
+      <c r="E69" s="194"/>
+      <c r="F69" s="53"/>
+      <c r="G69" s="53"/>
+      <c r="H69" s="53"/>
     </row>
     <row r="70" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A70" s="34"/>
-      <c r="B70" s="211"/>
-      <c r="C70" s="211"/>
-      <c r="D70" s="211"/>
-      <c r="E70" s="211"/>
-      <c r="F70" s="54"/>
-      <c r="G70" s="54"/>
-      <c r="H70" s="54"/>
+      <c r="A70" s="33"/>
+      <c r="B70" s="194"/>
+      <c r="C70" s="194"/>
+      <c r="D70" s="194"/>
+      <c r="E70" s="194"/>
+      <c r="F70" s="53"/>
+      <c r="G70" s="53"/>
+      <c r="H70" s="53"/>
     </row>
     <row r="71" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A71" s="34"/>
-      <c r="B71" s="211"/>
-      <c r="C71" s="211"/>
-      <c r="D71" s="211"/>
-      <c r="E71" s="211"/>
-      <c r="F71" s="54"/>
-      <c r="G71" s="54"/>
-      <c r="H71" s="54"/>
+      <c r="A71" s="33"/>
+      <c r="B71" s="194"/>
+      <c r="C71" s="194"/>
+      <c r="D71" s="194"/>
+      <c r="E71" s="194"/>
+      <c r="F71" s="53"/>
+      <c r="G71" s="53"/>
+      <c r="H71" s="53"/>
     </row>
     <row r="72" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A72" s="34"/>
-      <c r="B72" s="211"/>
-      <c r="C72" s="211"/>
-      <c r="D72" s="211"/>
-      <c r="E72" s="211"/>
-      <c r="F72" s="54"/>
-      <c r="G72" s="54"/>
-      <c r="H72" s="54"/>
+      <c r="A72" s="33"/>
+      <c r="B72" s="194"/>
+      <c r="C72" s="194"/>
+      <c r="D72" s="194"/>
+      <c r="E72" s="194"/>
+      <c r="F72" s="53"/>
+      <c r="G72" s="53"/>
+      <c r="H72" s="53"/>
     </row>
     <row r="73" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A73" s="39"/>
-      <c r="B73" s="211"/>
-      <c r="C73" s="211"/>
-      <c r="D73" s="211"/>
-      <c r="E73" s="211"/>
-      <c r="F73" s="54"/>
-      <c r="G73" s="54"/>
-      <c r="H73" s="54"/>
+      <c r="A73" s="38"/>
+      <c r="B73" s="194"/>
+      <c r="C73" s="194"/>
+      <c r="D73" s="194"/>
+      <c r="E73" s="194"/>
+      <c r="F73" s="53"/>
+      <c r="G73" s="53"/>
+      <c r="H73" s="53"/>
     </row>
     <row r="74" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A74" s="34"/>
-      <c r="B74" s="211"/>
-      <c r="C74" s="211"/>
-      <c r="D74" s="211"/>
-      <c r="E74" s="211"/>
-      <c r="F74" s="54"/>
-      <c r="G74" s="54"/>
-      <c r="H74" s="54"/>
+      <c r="A74" s="33"/>
+      <c r="B74" s="194"/>
+      <c r="C74" s="194"/>
+      <c r="D74" s="194"/>
+      <c r="E74" s="194"/>
+      <c r="F74" s="53"/>
+      <c r="G74" s="53"/>
+      <c r="H74" s="53"/>
     </row>
     <row r="75" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A75" s="34"/>
-      <c r="B75" s="211"/>
-      <c r="C75" s="211"/>
-      <c r="D75" s="211"/>
-      <c r="E75" s="211"/>
-      <c r="F75" s="54"/>
-      <c r="G75" s="54"/>
-      <c r="H75" s="54"/>
+      <c r="A75" s="33"/>
+      <c r="B75" s="194"/>
+      <c r="C75" s="194"/>
+      <c r="D75" s="194"/>
+      <c r="E75" s="194"/>
+      <c r="F75" s="53"/>
+      <c r="G75" s="53"/>
+      <c r="H75" s="53"/>
     </row>
     <row r="76" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A76" s="34"/>
-      <c r="B76" s="211"/>
-      <c r="C76" s="211"/>
-      <c r="D76" s="211"/>
-      <c r="E76" s="211"/>
-      <c r="F76" s="54"/>
-      <c r="G76" s="54"/>
-      <c r="H76" s="54"/>
+      <c r="A76" s="33"/>
+      <c r="B76" s="194"/>
+      <c r="C76" s="194"/>
+      <c r="D76" s="194"/>
+      <c r="E76" s="194"/>
+      <c r="F76" s="53"/>
+      <c r="G76" s="53"/>
+      <c r="H76" s="53"/>
     </row>
     <row r="77" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A77" s="34"/>
-      <c r="B77" s="211"/>
-      <c r="C77" s="211"/>
-      <c r="D77" s="211"/>
-      <c r="E77" s="211"/>
-      <c r="F77" s="54"/>
-      <c r="G77" s="54"/>
-      <c r="H77" s="54"/>
+      <c r="A77" s="33"/>
+      <c r="B77" s="194"/>
+      <c r="C77" s="194"/>
+      <c r="D77" s="194"/>
+      <c r="E77" s="194"/>
+      <c r="F77" s="53"/>
+      <c r="G77" s="53"/>
+      <c r="H77" s="53"/>
     </row>
     <row r="78" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A78" s="34"/>
-      <c r="B78" s="211"/>
-      <c r="C78" s="211"/>
-      <c r="D78" s="211"/>
-      <c r="E78" s="211"/>
-      <c r="F78" s="54"/>
-      <c r="G78" s="54"/>
-      <c r="H78" s="54"/>
+      <c r="A78" s="33"/>
+      <c r="B78" s="194"/>
+      <c r="C78" s="194"/>
+      <c r="D78" s="194"/>
+      <c r="E78" s="194"/>
+      <c r="F78" s="53"/>
+      <c r="G78" s="53"/>
+      <c r="H78" s="53"/>
     </row>
     <row r="79" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A79" s="39"/>
-      <c r="B79" s="211"/>
-      <c r="C79" s="211"/>
-      <c r="D79" s="211"/>
-      <c r="E79" s="211"/>
-      <c r="F79" s="54"/>
-      <c r="G79" s="54"/>
-      <c r="H79" s="54"/>
+      <c r="A79" s="38"/>
+      <c r="B79" s="194"/>
+      <c r="C79" s="194"/>
+      <c r="D79" s="194"/>
+      <c r="E79" s="194"/>
+      <c r="F79" s="53"/>
+      <c r="G79" s="53"/>
+      <c r="H79" s="53"/>
     </row>
     <row r="80" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A80" s="39"/>
-      <c r="B80" s="211"/>
-      <c r="C80" s="211"/>
-      <c r="D80" s="211"/>
-      <c r="E80" s="211"/>
-      <c r="F80" s="54"/>
-      <c r="G80" s="54"/>
-      <c r="H80" s="54"/>
+      <c r="A80" s="38"/>
+      <c r="B80" s="194"/>
+      <c r="C80" s="194"/>
+      <c r="D80" s="194"/>
+      <c r="E80" s="194"/>
+      <c r="F80" s="53"/>
+      <c r="G80" s="53"/>
+      <c r="H80" s="53"/>
     </row>
     <row r="81" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A81" s="39"/>
-      <c r="B81" s="211"/>
-      <c r="C81" s="211"/>
-      <c r="D81" s="211"/>
-      <c r="E81" s="211"/>
-      <c r="F81" s="54"/>
-      <c r="G81" s="54"/>
-      <c r="H81" s="54"/>
+      <c r="A81" s="38"/>
+      <c r="B81" s="194"/>
+      <c r="C81" s="194"/>
+      <c r="D81" s="194"/>
+      <c r="E81" s="194"/>
+      <c r="F81" s="53"/>
+      <c r="G81" s="53"/>
+      <c r="H81" s="53"/>
     </row>
     <row r="82" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A82" s="39"/>
-      <c r="B82" s="211"/>
-      <c r="C82" s="211"/>
-      <c r="D82" s="211"/>
-      <c r="E82" s="211"/>
-      <c r="F82" s="54"/>
-      <c r="G82" s="54"/>
-      <c r="H82" s="54"/>
+      <c r="A82" s="38"/>
+      <c r="B82" s="194"/>
+      <c r="C82" s="194"/>
+      <c r="D82" s="194"/>
+      <c r="E82" s="194"/>
+      <c r="F82" s="53"/>
+      <c r="G82" s="53"/>
+      <c r="H82" s="53"/>
     </row>
     <row r="83" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A83" s="39"/>
-      <c r="B83" s="211"/>
-      <c r="C83" s="211"/>
-      <c r="D83" s="211"/>
-      <c r="E83" s="211"/>
-      <c r="F83" s="54"/>
-      <c r="G83" s="54"/>
-      <c r="H83" s="54"/>
+      <c r="A83" s="38"/>
+      <c r="B83" s="194"/>
+      <c r="C83" s="194"/>
+      <c r="D83" s="194"/>
+      <c r="E83" s="194"/>
+      <c r="F83" s="53"/>
+      <c r="G83" s="53"/>
+      <c r="H83" s="53"/>
     </row>
     <row r="84" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A84" s="39"/>
-      <c r="B84" s="211"/>
-      <c r="C84" s="211"/>
-      <c r="D84" s="211"/>
-      <c r="E84" s="211"/>
-      <c r="F84" s="54"/>
-      <c r="G84" s="54"/>
-      <c r="H84" s="54"/>
+      <c r="A84" s="38"/>
+      <c r="B84" s="194"/>
+      <c r="C84" s="194"/>
+      <c r="D84" s="194"/>
+      <c r="E84" s="194"/>
+      <c r="F84" s="53"/>
+      <c r="G84" s="53"/>
+      <c r="H84" s="53"/>
     </row>
     <row r="85" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A85" s="39"/>
-      <c r="B85" s="211"/>
-      <c r="C85" s="211"/>
-      <c r="D85" s="211"/>
-      <c r="E85" s="211"/>
-      <c r="F85" s="54"/>
-      <c r="G85" s="54"/>
-      <c r="H85" s="54"/>
+      <c r="A85" s="38"/>
+      <c r="B85" s="194"/>
+      <c r="C85" s="194"/>
+      <c r="D85" s="194"/>
+      <c r="E85" s="194"/>
+      <c r="F85" s="53"/>
+      <c r="G85" s="53"/>
+      <c r="H85" s="53"/>
     </row>
     <row r="86" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A86" s="39"/>
-      <c r="B86" s="211"/>
-      <c r="C86" s="211"/>
-      <c r="D86" s="211"/>
-      <c r="E86" s="211"/>
-      <c r="F86" s="54"/>
-      <c r="G86" s="54"/>
-      <c r="H86" s="54"/>
+      <c r="A86" s="38"/>
+      <c r="B86" s="194"/>
+      <c r="C86" s="194"/>
+      <c r="D86" s="194"/>
+      <c r="E86" s="194"/>
+      <c r="F86" s="53"/>
+      <c r="G86" s="53"/>
+      <c r="H86" s="53"/>
     </row>
     <row r="87" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A87" s="39"/>
-      <c r="F87" s="54"/>
-      <c r="G87" s="54"/>
-      <c r="H87" s="54"/>
+      <c r="A87" s="38"/>
+      <c r="F87" s="53"/>
+      <c r="G87" s="53"/>
+      <c r="H87" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="67">
@@ -6686,10 +6682,10 @@
   <sheetPr codeName="Hoja2">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A3:Y59"/>
+  <dimension ref="A3:Y57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView showGridLines="0" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -6710,88 +6706,88 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:25" ht="18" customHeight="1">
-      <c r="B3" s="218" t="s">
+      <c r="B3" s="201" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="218"/>
-      <c r="D3" s="218"/>
-      <c r="E3" s="218"/>
-      <c r="F3" s="218"/>
-      <c r="G3" s="218"/>
-      <c r="H3" s="218"/>
-      <c r="I3" s="218"/>
-      <c r="J3" s="218"/>
-      <c r="K3" s="218"/>
-      <c r="L3" s="218"/>
-      <c r="M3" s="218"/>
-      <c r="N3" s="218"/>
+      <c r="C3" s="201"/>
+      <c r="D3" s="201"/>
+      <c r="E3" s="201"/>
+      <c r="F3" s="201"/>
+      <c r="G3" s="201"/>
+      <c r="H3" s="201"/>
+      <c r="I3" s="201"/>
+      <c r="J3" s="201"/>
+      <c r="K3" s="201"/>
+      <c r="L3" s="201"/>
+      <c r="M3" s="201"/>
+      <c r="N3" s="201"/>
     </row>
     <row r="4" spans="2:25" ht="11.25" customHeight="1">
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="2:25" ht="15" customHeight="1"/>
     <row r="6" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B6" s="213" t="s">
+      <c r="B6" s="196" t="s">
         <v>113</v>
       </c>
-      <c r="C6" s="214"/>
-      <c r="D6" s="215" t="s">
+      <c r="C6" s="197"/>
+      <c r="D6" s="198" t="s">
         <v>176</v>
       </c>
-      <c r="E6" s="216"/>
-      <c r="F6" s="217"/>
-      <c r="G6" s="219"/>
-      <c r="H6" s="219"/>
+      <c r="E6" s="199"/>
+      <c r="F6" s="200"/>
+      <c r="G6" s="202"/>
+      <c r="H6" s="202"/>
       <c r="Y6" s="3"/>
     </row>
     <row r="7" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B7" s="213" t="s">
+      <c r="B7" s="196" t="s">
         <v>177</v>
       </c>
-      <c r="C7" s="214"/>
-      <c r="D7" s="215" t="s">
+      <c r="C7" s="197"/>
+      <c r="D7" s="198" t="s">
         <v>174</v>
       </c>
-      <c r="E7" s="216"/>
-      <c r="F7" s="217"/>
+      <c r="E7" s="199"/>
+      <c r="F7" s="200"/>
       <c r="Y7" s="3"/>
     </row>
     <row r="8" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B8" s="213" t="s">
+      <c r="B8" s="196" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="214"/>
-      <c r="D8" s="215" t="s">
+      <c r="C8" s="197"/>
+      <c r="D8" s="198" t="s">
         <v>178</v>
       </c>
-      <c r="E8" s="216"/>
-      <c r="F8" s="217"/>
+      <c r="E8" s="199"/>
+      <c r="F8" s="200"/>
       <c r="Y8" s="3"/>
     </row>
     <row r="9" spans="2:25" s="5" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B9" s="213" t="s">
+      <c r="B9" s="196" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="214"/>
-      <c r="D9" s="88">
+      <c r="C9" s="197"/>
+      <c r="D9" s="84">
         <v>41360</v>
       </c>
-      <c r="E9" s="89" t="s">
+      <c r="E9" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="108">
+      <c r="F9" s="104">
         <v>41383</v>
       </c>
       <c r="Y9" s="3"/>
     </row>
     <row r="10" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B10" s="213" t="s">
+      <c r="B10" s="196" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="214"/>
-      <c r="D10" s="215"/>
-      <c r="E10" s="216"/>
-      <c r="F10" s="217"/>
+      <c r="C10" s="197"/>
+      <c r="D10" s="198"/>
+      <c r="E10" s="199"/>
+      <c r="F10" s="200"/>
       <c r="Y10" s="3"/>
     </row>
     <row r="11" spans="2:25" s="17" customFormat="1" ht="15" customHeight="1">
@@ -6802,1613 +6798,1575 @@
       <c r="Y11" s="20"/>
     </row>
     <row r="12" spans="2:25" ht="38.25">
-      <c r="B12" s="120" t="s">
+      <c r="B12" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="71" t="s">
+      <c r="C12" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="D12" s="121" t="s">
+      <c r="D12" s="116" t="s">
         <v>102</v>
       </c>
-      <c r="E12" s="122" t="s">
+      <c r="E12" s="117" t="s">
         <v>154</v>
       </c>
-      <c r="F12" s="121" t="s">
+      <c r="F12" s="116" t="s">
         <v>151</v>
       </c>
-      <c r="G12" s="121" t="s">
+      <c r="G12" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="123" t="s">
+      <c r="H12" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="123" t="s">
+      <c r="I12" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="123" t="s">
+      <c r="J12" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="123" t="s">
+      <c r="K12" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="L12" s="123" t="s">
+      <c r="L12" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="M12" s="123" t="s">
+      <c r="M12" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="N12" s="123" t="s">
+      <c r="N12" s="118" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="13" spans="2:25" ht="24">
-      <c r="B13" s="71">
+      <c r="B13" s="70">
         <v>1</v>
       </c>
-      <c r="C13" s="136" t="s">
+      <c r="C13" s="131" t="s">
         <v>150</v>
       </c>
-      <c r="D13" s="137" t="s">
+      <c r="D13" s="132" t="s">
         <v>179</v>
       </c>
-      <c r="E13" s="138" t="s">
+      <c r="E13" s="133" t="s">
         <v>156</v>
       </c>
-      <c r="F13" s="139" t="s">
+      <c r="F13" s="134" t="s">
         <v>174</v>
       </c>
-      <c r="G13" s="139" t="s">
+      <c r="G13" s="134" t="s">
         <v>176</v>
       </c>
-      <c r="H13" s="140">
+      <c r="H13" s="135">
         <v>41310</v>
       </c>
-      <c r="I13" s="140">
+      <c r="I13" s="135">
         <v>41313</v>
       </c>
-      <c r="J13" s="141">
+      <c r="J13" s="136">
         <v>5</v>
       </c>
-      <c r="K13" s="140">
+      <c r="K13" s="135">
         <v>41310</v>
       </c>
-      <c r="L13" s="142">
+      <c r="L13" s="137">
         <v>41383</v>
       </c>
-      <c r="M13" s="141">
+      <c r="M13" s="136">
         <v>5</v>
       </c>
-      <c r="N13" s="143" t="s">
+      <c r="N13" s="138" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="2:25" ht="24">
+      <c r="B14" s="70">
+        <v>2</v>
+      </c>
+      <c r="C14" s="131" t="s">
+        <v>150</v>
+      </c>
+      <c r="D14" s="132" t="s">
+        <v>179</v>
+      </c>
+      <c r="E14" s="139" t="s">
+        <v>245</v>
+      </c>
+      <c r="F14" s="134" t="s">
+        <v>174</v>
+      </c>
+      <c r="G14" s="134" t="s">
+        <v>176</v>
+      </c>
+      <c r="H14" s="135">
+        <v>41313</v>
+      </c>
+      <c r="I14" s="135">
+        <v>41314</v>
+      </c>
+      <c r="J14" s="136">
+        <v>6</v>
+      </c>
+      <c r="K14" s="135">
+        <v>41313</v>
+      </c>
+      <c r="L14" s="137">
+        <v>41383</v>
+      </c>
+      <c r="M14" s="136">
+        <v>6</v>
+      </c>
+      <c r="N14" s="138" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="14" spans="2:25" ht="24">
-      <c r="B14" s="71">
+    <row r="15" spans="2:25" ht="24">
+      <c r="B15" s="70">
+        <v>3</v>
+      </c>
+      <c r="C15" s="131" t="s">
+        <v>150</v>
+      </c>
+      <c r="D15" s="132" t="s">
+        <v>179</v>
+      </c>
+      <c r="E15" s="133" t="s">
+        <v>201</v>
+      </c>
+      <c r="F15" s="134" t="s">
+        <v>174</v>
+      </c>
+      <c r="G15" s="134" t="s">
+        <v>176</v>
+      </c>
+      <c r="H15" s="227">
+        <v>41310</v>
+      </c>
+      <c r="I15" s="227">
+        <v>41310</v>
+      </c>
+      <c r="J15" s="136">
         <v>2</v>
       </c>
-      <c r="C14" s="136" t="s">
+      <c r="K15" s="135"/>
+      <c r="L15" s="135"/>
+      <c r="M15" s="136">
+        <v>2</v>
+      </c>
+      <c r="N15" s="138"/>
+    </row>
+    <row r="16" spans="2:25" ht="24">
+      <c r="B16" s="70">
+        <v>4</v>
+      </c>
+      <c r="C16" s="131" t="s">
         <v>150</v>
       </c>
-      <c r="D14" s="137" t="s">
+      <c r="D16" s="132" t="s">
         <v>179</v>
       </c>
-      <c r="E14" s="144" t="s">
+      <c r="E16" s="133" t="s">
+        <v>201</v>
+      </c>
+      <c r="F16" s="134" t="s">
+        <v>174</v>
+      </c>
+      <c r="G16" s="134" t="s">
+        <v>176</v>
+      </c>
+      <c r="H16" s="227">
+        <v>41331</v>
+      </c>
+      <c r="I16" s="227">
+        <v>41331</v>
+      </c>
+      <c r="J16" s="136">
+        <v>2</v>
+      </c>
+      <c r="K16" s="135"/>
+      <c r="L16" s="135"/>
+      <c r="M16" s="136">
+        <v>2</v>
+      </c>
+      <c r="N16" s="138"/>
+    </row>
+    <row r="17" spans="2:14" ht="30.75" customHeight="1">
+      <c r="B17" s="70">
+        <v>5</v>
+      </c>
+      <c r="C17" s="131" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" s="132" t="s">
+        <v>179</v>
+      </c>
+      <c r="E17" s="147" t="s">
+        <v>202</v>
+      </c>
+      <c r="F17" s="134" t="s">
+        <v>174</v>
+      </c>
+      <c r="G17" s="134" t="s">
+        <v>176</v>
+      </c>
+      <c r="H17" s="135">
+        <v>41310</v>
+      </c>
+      <c r="I17" s="135">
+        <v>41310</v>
+      </c>
+      <c r="J17" s="136">
+        <v>2</v>
+      </c>
+      <c r="K17" s="135"/>
+      <c r="L17" s="135"/>
+      <c r="M17" s="136">
+        <v>2</v>
+      </c>
+      <c r="N17" s="138"/>
+    </row>
+    <row r="18" spans="2:14" ht="24">
+      <c r="B18" s="70">
+        <v>6</v>
+      </c>
+      <c r="C18" s="131" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" s="132" t="s">
+        <v>200</v>
+      </c>
+      <c r="E18" s="133" t="s">
+        <v>157</v>
+      </c>
+      <c r="F18" s="134" t="s">
+        <v>174</v>
+      </c>
+      <c r="G18" s="134" t="s">
+        <v>176</v>
+      </c>
+      <c r="H18" s="135">
+        <v>41314</v>
+      </c>
+      <c r="I18" s="135">
+        <v>41314</v>
+      </c>
+      <c r="J18" s="136">
+        <v>3</v>
+      </c>
+      <c r="K18" s="135"/>
+      <c r="L18" s="135"/>
+      <c r="M18" s="136">
+        <v>3</v>
+      </c>
+      <c r="N18" s="138"/>
+    </row>
+    <row r="19" spans="2:14" ht="24">
+      <c r="B19" s="70">
+        <v>7</v>
+      </c>
+      <c r="C19" s="131" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19" s="132" t="s">
+        <v>183</v>
+      </c>
+      <c r="E19" s="139" t="s">
+        <v>158</v>
+      </c>
+      <c r="F19" s="134" t="s">
+        <v>174</v>
+      </c>
+      <c r="G19" s="134" t="s">
+        <v>176</v>
+      </c>
+      <c r="H19" s="135">
+        <v>41316</v>
+      </c>
+      <c r="I19" s="135">
+        <v>41321</v>
+      </c>
+      <c r="J19" s="136">
+        <v>2</v>
+      </c>
+      <c r="K19" s="135"/>
+      <c r="L19" s="135"/>
+      <c r="M19" s="136">
+        <v>2</v>
+      </c>
+      <c r="N19" s="138"/>
+    </row>
+    <row r="20" spans="2:14" ht="24">
+      <c r="B20" s="70">
+        <v>8</v>
+      </c>
+      <c r="C20" s="131" t="s">
+        <v>150</v>
+      </c>
+      <c r="D20" s="132" t="s">
+        <v>183</v>
+      </c>
+      <c r="E20" s="139" t="s">
+        <v>203</v>
+      </c>
+      <c r="F20" s="134" t="s">
+        <v>174</v>
+      </c>
+      <c r="G20" s="134" t="s">
+        <v>176</v>
+      </c>
+      <c r="H20" s="135">
+        <v>41320</v>
+      </c>
+      <c r="I20" s="135">
+        <v>41338</v>
+      </c>
+      <c r="J20" s="136">
+        <v>2</v>
+      </c>
+      <c r="K20" s="135"/>
+      <c r="L20" s="135"/>
+      <c r="M20" s="136">
+        <v>2</v>
+      </c>
+      <c r="N20" s="138"/>
+    </row>
+    <row r="21" spans="2:14" ht="24">
+      <c r="B21" s="70">
+        <v>9</v>
+      </c>
+      <c r="C21" s="131" t="s">
+        <v>150</v>
+      </c>
+      <c r="D21" s="132" t="s">
+        <v>180</v>
+      </c>
+      <c r="E21" s="139" t="s">
+        <v>161</v>
+      </c>
+      <c r="F21" s="134" t="s">
+        <v>174</v>
+      </c>
+      <c r="G21" s="134" t="s">
+        <v>176</v>
+      </c>
+      <c r="H21" s="135">
+        <v>41338</v>
+      </c>
+      <c r="I21" s="135">
+        <v>41338</v>
+      </c>
+      <c r="J21" s="136">
+        <v>2</v>
+      </c>
+      <c r="K21" s="135"/>
+      <c r="L21" s="135"/>
+      <c r="M21" s="136">
+        <v>2</v>
+      </c>
+      <c r="N21" s="138"/>
+    </row>
+    <row r="22" spans="2:14" ht="24">
+      <c r="B22" s="70">
+        <v>10</v>
+      </c>
+      <c r="C22" s="140" t="s">
+        <v>150</v>
+      </c>
+      <c r="D22" s="141" t="s">
+        <v>181</v>
+      </c>
+      <c r="E22" s="142" t="s">
         <v>189</v>
       </c>
-      <c r="F14" s="139" t="s">
+      <c r="F22" s="143" t="s">
         <v>174</v>
       </c>
-      <c r="G14" s="139" t="s">
+      <c r="G22" s="143" t="s">
         <v>176</v>
       </c>
-      <c r="H14" s="140">
-        <v>41313</v>
-      </c>
-      <c r="I14" s="140">
-        <v>41314</v>
-      </c>
-      <c r="J14" s="141">
+      <c r="H22" s="144">
+        <v>41339</v>
+      </c>
+      <c r="I22" s="144">
+        <v>41342</v>
+      </c>
+      <c r="J22" s="145">
+        <v>3</v>
+      </c>
+      <c r="K22" s="144"/>
+      <c r="L22" s="144"/>
+      <c r="M22" s="145">
+        <v>3</v>
+      </c>
+      <c r="N22" s="146"/>
+    </row>
+    <row r="23" spans="2:14" ht="24">
+      <c r="B23" s="70">
+        <v>11</v>
+      </c>
+      <c r="C23" s="140" t="s">
+        <v>150</v>
+      </c>
+      <c r="D23" s="141" t="s">
+        <v>181</v>
+      </c>
+      <c r="E23" s="148" t="s">
+        <v>190</v>
+      </c>
+      <c r="F23" s="143" t="s">
+        <v>174</v>
+      </c>
+      <c r="G23" s="143" t="s">
+        <v>176</v>
+      </c>
+      <c r="H23" s="144">
+        <v>41344</v>
+      </c>
+      <c r="I23" s="144">
+        <v>41344</v>
+      </c>
+      <c r="J23" s="145">
+        <v>3</v>
+      </c>
+      <c r="K23" s="144"/>
+      <c r="L23" s="144"/>
+      <c r="M23" s="145">
+        <v>3</v>
+      </c>
+      <c r="N23" s="146"/>
+    </row>
+    <row r="24" spans="2:14" ht="24">
+      <c r="B24" s="70">
+        <v>12</v>
+      </c>
+      <c r="C24" s="140" t="s">
+        <v>150</v>
+      </c>
+      <c r="D24" s="141" t="s">
+        <v>181</v>
+      </c>
+      <c r="E24" s="148" t="s">
+        <v>204</v>
+      </c>
+      <c r="F24" s="143" t="s">
+        <v>174</v>
+      </c>
+      <c r="G24" s="143" t="s">
+        <v>176</v>
+      </c>
+      <c r="H24" s="144">
+        <v>41345</v>
+      </c>
+      <c r="I24" s="144">
+        <v>41345</v>
+      </c>
+      <c r="J24" s="145">
+        <v>3</v>
+      </c>
+      <c r="K24" s="144"/>
+      <c r="L24" s="144"/>
+      <c r="M24" s="145">
+        <v>3</v>
+      </c>
+      <c r="N24" s="146"/>
+    </row>
+    <row r="25" spans="2:14" ht="24">
+      <c r="B25" s="70">
+        <v>13</v>
+      </c>
+      <c r="C25" s="140" t="s">
+        <v>150</v>
+      </c>
+      <c r="D25" s="141" t="s">
+        <v>181</v>
+      </c>
+      <c r="E25" s="148" t="s">
+        <v>205</v>
+      </c>
+      <c r="F25" s="143" t="s">
+        <v>174</v>
+      </c>
+      <c r="G25" s="143" t="s">
+        <v>176</v>
+      </c>
+      <c r="H25" s="144">
+        <v>41346</v>
+      </c>
+      <c r="I25" s="144">
+        <v>41346</v>
+      </c>
+      <c r="J25" s="145">
+        <v>3</v>
+      </c>
+      <c r="K25" s="144"/>
+      <c r="L25" s="144"/>
+      <c r="M25" s="145">
+        <v>3</v>
+      </c>
+      <c r="N25" s="146"/>
+    </row>
+    <row r="26" spans="2:14" ht="24">
+      <c r="B26" s="70">
+        <v>14</v>
+      </c>
+      <c r="C26" s="140" t="s">
+        <v>150</v>
+      </c>
+      <c r="D26" s="141" t="s">
+        <v>181</v>
+      </c>
+      <c r="E26" s="148" t="s">
+        <v>206</v>
+      </c>
+      <c r="F26" s="143" t="s">
+        <v>174</v>
+      </c>
+      <c r="G26" s="143" t="s">
+        <v>176</v>
+      </c>
+      <c r="H26" s="144">
+        <v>41347</v>
+      </c>
+      <c r="I26" s="144">
+        <v>41347</v>
+      </c>
+      <c r="J26" s="145">
+        <v>3</v>
+      </c>
+      <c r="K26" s="144"/>
+      <c r="L26" s="144"/>
+      <c r="M26" s="145">
+        <v>3</v>
+      </c>
+      <c r="N26" s="146"/>
+    </row>
+    <row r="27" spans="2:14" ht="24">
+      <c r="B27" s="70">
+        <v>15</v>
+      </c>
+      <c r="C27" s="140" t="s">
+        <v>150</v>
+      </c>
+      <c r="D27" s="141" t="s">
+        <v>181</v>
+      </c>
+      <c r="E27" s="148" t="s">
+        <v>201</v>
+      </c>
+      <c r="F27" s="143" t="s">
+        <v>174</v>
+      </c>
+      <c r="G27" s="143" t="s">
+        <v>176</v>
+      </c>
+      <c r="H27" s="228">
+        <v>41344</v>
+      </c>
+      <c r="I27" s="228">
+        <v>41344</v>
+      </c>
+      <c r="J27" s="145">
+        <v>3</v>
+      </c>
+      <c r="K27" s="144"/>
+      <c r="L27" s="144"/>
+      <c r="M27" s="145">
+        <v>3</v>
+      </c>
+      <c r="N27" s="146"/>
+    </row>
+    <row r="28" spans="2:14" ht="24">
+      <c r="B28" s="70">
+        <v>16</v>
+      </c>
+      <c r="C28" s="140" t="s">
+        <v>150</v>
+      </c>
+      <c r="D28" s="141" t="s">
+        <v>181</v>
+      </c>
+      <c r="E28" s="148" t="s">
+        <v>201</v>
+      </c>
+      <c r="F28" s="143" t="s">
+        <v>174</v>
+      </c>
+      <c r="G28" s="143" t="s">
+        <v>176</v>
+      </c>
+      <c r="H28" s="228">
+        <v>41344</v>
+      </c>
+      <c r="I28" s="228">
+        <v>41344</v>
+      </c>
+      <c r="J28" s="145">
+        <v>3</v>
+      </c>
+      <c r="K28" s="144"/>
+      <c r="L28" s="144"/>
+      <c r="M28" s="145">
+        <v>3</v>
+      </c>
+      <c r="N28" s="146"/>
+    </row>
+    <row r="29" spans="2:14" ht="24">
+      <c r="B29" s="70">
+        <v>17</v>
+      </c>
+      <c r="C29" s="140" t="s">
+        <v>150</v>
+      </c>
+      <c r="D29" s="141" t="s">
+        <v>182</v>
+      </c>
+      <c r="E29" s="142" t="s">
+        <v>159</v>
+      </c>
+      <c r="F29" s="143" t="s">
+        <v>174</v>
+      </c>
+      <c r="G29" s="143" t="s">
+        <v>176</v>
+      </c>
+      <c r="H29" s="144">
+        <v>41347</v>
+      </c>
+      <c r="I29" s="144">
+        <v>41347</v>
+      </c>
+      <c r="J29" s="145">
+        <v>2</v>
+      </c>
+      <c r="K29" s="144"/>
+      <c r="L29" s="144"/>
+      <c r="M29" s="145">
+        <v>2</v>
+      </c>
+      <c r="N29" s="146"/>
+    </row>
+    <row r="30" spans="2:14" ht="27" customHeight="1">
+      <c r="B30" s="70">
+        <v>18</v>
+      </c>
+      <c r="C30" s="140" t="s">
+        <v>150</v>
+      </c>
+      <c r="D30" s="141" t="s">
+        <v>183</v>
+      </c>
+      <c r="E30" s="142" t="s">
+        <v>160</v>
+      </c>
+      <c r="F30" s="143" t="s">
+        <v>174</v>
+      </c>
+      <c r="G30" s="143" t="s">
+        <v>176</v>
+      </c>
+      <c r="H30" s="144">
+        <v>41351</v>
+      </c>
+      <c r="I30" s="144">
+        <v>41382</v>
+      </c>
+      <c r="J30" s="145">
         <v>6</v>
       </c>
-      <c r="K14" s="140">
-        <v>41313</v>
-      </c>
-      <c r="L14" s="142">
+      <c r="K30" s="144"/>
+      <c r="L30" s="144"/>
+      <c r="M30" s="145">
+        <v>5</v>
+      </c>
+      <c r="N30" s="146" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" ht="24">
+      <c r="B31" s="70">
+        <v>19</v>
+      </c>
+      <c r="C31" s="140" t="s">
+        <v>150</v>
+      </c>
+      <c r="D31" s="141" t="s">
+        <v>184</v>
+      </c>
+      <c r="E31" s="142" t="s">
+        <v>161</v>
+      </c>
+      <c r="F31" s="143" t="s">
+        <v>174</v>
+      </c>
+      <c r="G31" s="143" t="s">
+        <v>176</v>
+      </c>
+      <c r="H31" s="144">
+        <v>41359</v>
+      </c>
+      <c r="I31" s="144">
+        <v>41359</v>
+      </c>
+      <c r="J31" s="145">
+        <v>2</v>
+      </c>
+      <c r="K31" s="144"/>
+      <c r="L31" s="144"/>
+      <c r="M31" s="145">
+        <v>2</v>
+      </c>
+      <c r="N31" s="146"/>
+    </row>
+    <row r="32" spans="2:14" ht="24">
+      <c r="B32" s="70">
+        <v>20</v>
+      </c>
+      <c r="C32" s="149" t="s">
+        <v>150</v>
+      </c>
+      <c r="D32" s="150" t="s">
+        <v>185</v>
+      </c>
+      <c r="E32" s="151" t="s">
+        <v>223</v>
+      </c>
+      <c r="F32" s="152" t="s">
+        <v>174</v>
+      </c>
+      <c r="G32" s="152" t="s">
+        <v>176</v>
+      </c>
+      <c r="H32" s="153">
+        <v>41360</v>
+      </c>
+      <c r="I32" s="153">
+        <v>41362</v>
+      </c>
+      <c r="J32" s="154">
+        <v>5</v>
+      </c>
+      <c r="K32" s="153"/>
+      <c r="L32" s="153"/>
+      <c r="M32" s="154">
+        <v>5</v>
+      </c>
+      <c r="N32" s="155"/>
+    </row>
+    <row r="33" spans="1:14" ht="24">
+      <c r="B33" s="70">
+        <v>21</v>
+      </c>
+      <c r="C33" s="149" t="s">
+        <v>150</v>
+      </c>
+      <c r="D33" s="150" t="s">
+        <v>185</v>
+      </c>
+      <c r="E33" s="151" t="s">
+        <v>224</v>
+      </c>
+      <c r="F33" s="152" t="s">
+        <v>174</v>
+      </c>
+      <c r="G33" s="152" t="s">
+        <v>176</v>
+      </c>
+      <c r="H33" s="153">
+        <v>41363</v>
+      </c>
+      <c r="I33" s="153">
+        <v>41363</v>
+      </c>
+      <c r="J33" s="154">
+        <v>5</v>
+      </c>
+      <c r="K33" s="153"/>
+      <c r="L33" s="153"/>
+      <c r="M33" s="154">
+        <v>5</v>
+      </c>
+      <c r="N33" s="155"/>
+    </row>
+    <row r="34" spans="1:14" ht="24">
+      <c r="B34" s="70">
+        <v>22</v>
+      </c>
+      <c r="C34" s="149" t="s">
+        <v>150</v>
+      </c>
+      <c r="D34" s="150" t="s">
+        <v>185</v>
+      </c>
+      <c r="E34" s="151" t="s">
+        <v>225</v>
+      </c>
+      <c r="F34" s="152" t="s">
+        <v>174</v>
+      </c>
+      <c r="G34" s="152" t="s">
+        <v>176</v>
+      </c>
+      <c r="H34" s="153">
+        <v>41365</v>
+      </c>
+      <c r="I34" s="153">
+        <v>41365</v>
+      </c>
+      <c r="J34" s="154">
+        <v>5</v>
+      </c>
+      <c r="K34" s="153"/>
+      <c r="L34" s="153"/>
+      <c r="M34" s="154">
+        <v>5</v>
+      </c>
+      <c r="N34" s="155"/>
+    </row>
+    <row r="35" spans="1:14" ht="24">
+      <c r="B35" s="70">
+        <v>23</v>
+      </c>
+      <c r="C35" s="149" t="s">
+        <v>150</v>
+      </c>
+      <c r="D35" s="150" t="s">
+        <v>185</v>
+      </c>
+      <c r="E35" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="F35" s="152" t="s">
+        <v>174</v>
+      </c>
+      <c r="G35" s="152" t="s">
+        <v>176</v>
+      </c>
+      <c r="H35" s="153">
+        <v>41366</v>
+      </c>
+      <c r="I35" s="153">
+        <v>41366</v>
+      </c>
+      <c r="J35" s="154">
+        <v>5</v>
+      </c>
+      <c r="K35" s="153">
+        <v>41366</v>
+      </c>
+      <c r="L35" s="153">
+        <v>41366</v>
+      </c>
+      <c r="M35" s="154">
+        <v>5</v>
+      </c>
+      <c r="N35" s="155"/>
+    </row>
+    <row r="36" spans="1:14" ht="24">
+      <c r="B36" s="70">
+        <v>24</v>
+      </c>
+      <c r="C36" s="149" t="s">
+        <v>150</v>
+      </c>
+      <c r="D36" s="150" t="s">
+        <v>185</v>
+      </c>
+      <c r="E36" s="156" t="s">
+        <v>226</v>
+      </c>
+      <c r="F36" s="152" t="s">
+        <v>174</v>
+      </c>
+      <c r="G36" s="152" t="s">
+        <v>176</v>
+      </c>
+      <c r="H36" s="153">
+        <v>41361</v>
+      </c>
+      <c r="I36" s="153">
+        <v>41361</v>
+      </c>
+      <c r="J36" s="154">
+        <v>5</v>
+      </c>
+      <c r="K36" s="153"/>
+      <c r="L36" s="153"/>
+      <c r="M36" s="154">
+        <v>5</v>
+      </c>
+      <c r="N36" s="155"/>
+    </row>
+    <row r="37" spans="1:14" ht="24">
+      <c r="B37" s="70">
+        <v>25</v>
+      </c>
+      <c r="C37" s="149" t="s">
+        <v>150</v>
+      </c>
+      <c r="D37" s="150" t="s">
+        <v>185</v>
+      </c>
+      <c r="E37" s="151" t="s">
+        <v>201</v>
+      </c>
+      <c r="F37" s="152" t="s">
+        <v>174</v>
+      </c>
+      <c r="G37" s="152" t="s">
+        <v>176</v>
+      </c>
+      <c r="H37" s="153"/>
+      <c r="I37" s="153"/>
+      <c r="J37" s="154">
+        <v>5</v>
+      </c>
+      <c r="K37" s="153"/>
+      <c r="L37" s="153"/>
+      <c r="M37" s="154">
+        <v>5</v>
+      </c>
+      <c r="N37" s="155"/>
+    </row>
+    <row r="38" spans="1:14" ht="24">
+      <c r="B38" s="70">
+        <v>26</v>
+      </c>
+      <c r="C38" s="149" t="s">
+        <v>150</v>
+      </c>
+      <c r="D38" s="150" t="s">
+        <v>185</v>
+      </c>
+      <c r="E38" s="151" t="s">
+        <v>201</v>
+      </c>
+      <c r="F38" s="152" t="s">
+        <v>174</v>
+      </c>
+      <c r="G38" s="152" t="s">
+        <v>176</v>
+      </c>
+      <c r="H38" s="153"/>
+      <c r="I38" s="153"/>
+      <c r="J38" s="154">
+        <v>5</v>
+      </c>
+      <c r="K38" s="153"/>
+      <c r="L38" s="153"/>
+      <c r="M38" s="154">
+        <v>5</v>
+      </c>
+      <c r="N38" s="155"/>
+    </row>
+    <row r="39" spans="1:14" ht="24">
+      <c r="B39" s="70">
+        <v>27</v>
+      </c>
+      <c r="C39" s="149" t="s">
+        <v>150</v>
+      </c>
+      <c r="D39" s="150" t="s">
+        <v>186</v>
+      </c>
+      <c r="E39" s="151" t="s">
+        <v>159</v>
+      </c>
+      <c r="F39" s="152" t="s">
+        <v>174</v>
+      </c>
+      <c r="G39" s="152" t="s">
+        <v>176</v>
+      </c>
+      <c r="H39" s="153">
+        <v>41367</v>
+      </c>
+      <c r="I39" s="153">
+        <v>41367</v>
+      </c>
+      <c r="J39" s="154">
+        <v>5</v>
+      </c>
+      <c r="K39" s="153"/>
+      <c r="L39" s="153"/>
+      <c r="M39" s="154">
+        <v>5</v>
+      </c>
+      <c r="N39" s="155"/>
+    </row>
+    <row r="40" spans="1:14" ht="24">
+      <c r="B40" s="70">
+        <v>28</v>
+      </c>
+      <c r="C40" s="149" t="s">
+        <v>150</v>
+      </c>
+      <c r="D40" s="150" t="s">
+        <v>186</v>
+      </c>
+      <c r="E40" s="151" t="s">
+        <v>162</v>
+      </c>
+      <c r="F40" s="152" t="s">
+        <v>174</v>
+      </c>
+      <c r="G40" s="152" t="s">
+        <v>176</v>
+      </c>
+      <c r="H40" s="153">
+        <v>41368</v>
+      </c>
+      <c r="I40" s="153">
+        <v>41369</v>
+      </c>
+      <c r="J40" s="154">
+        <v>5</v>
+      </c>
+      <c r="K40" s="153"/>
+      <c r="L40" s="153"/>
+      <c r="M40" s="154">
+        <v>5</v>
+      </c>
+      <c r="N40" s="155"/>
+    </row>
+    <row r="41" spans="1:14" ht="24">
+      <c r="B41" s="70">
+        <v>29</v>
+      </c>
+      <c r="C41" s="149" t="s">
+        <v>150</v>
+      </c>
+      <c r="D41" s="150" t="s">
+        <v>187</v>
+      </c>
+      <c r="E41" s="151" t="s">
+        <v>227</v>
+      </c>
+      <c r="F41" s="152" t="s">
+        <v>174</v>
+      </c>
+      <c r="G41" s="152" t="s">
+        <v>176</v>
+      </c>
+      <c r="H41" s="153">
         <v>41383</v>
       </c>
-      <c r="M14" s="141">
-        <v>6</v>
-      </c>
-      <c r="N14" s="143" t="s">
+      <c r="I41" s="153">
+        <v>41417</v>
+      </c>
+      <c r="J41" s="154">
+        <v>4</v>
+      </c>
+      <c r="K41" s="153"/>
+      <c r="L41" s="153"/>
+      <c r="M41" s="154">
+        <v>4</v>
+      </c>
+      <c r="N41" s="155"/>
+    </row>
+    <row r="42" spans="1:14" ht="24">
+      <c r="B42" s="70">
+        <v>30</v>
+      </c>
+      <c r="C42" s="149" t="s">
+        <v>150</v>
+      </c>
+      <c r="D42" s="150" t="s">
+        <v>187</v>
+      </c>
+      <c r="E42" s="151" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="15" spans="2:25" ht="24">
-      <c r="B15" s="71">
-        <v>3</v>
-      </c>
-      <c r="C15" s="136" t="s">
+      <c r="F42" s="152" t="s">
+        <v>174</v>
+      </c>
+      <c r="G42" s="152" t="s">
+        <v>176</v>
+      </c>
+      <c r="H42" s="153">
+        <v>41369</v>
+      </c>
+      <c r="I42" s="153">
+        <v>41373</v>
+      </c>
+      <c r="J42" s="154">
+        <v>4</v>
+      </c>
+      <c r="K42" s="153"/>
+      <c r="L42" s="153"/>
+      <c r="M42" s="154">
+        <v>4</v>
+      </c>
+      <c r="N42" s="155"/>
+    </row>
+    <row r="43" spans="1:14" ht="24">
+      <c r="B43" s="70">
+        <v>31</v>
+      </c>
+      <c r="C43" s="149" t="s">
         <v>150</v>
       </c>
-      <c r="D15" s="137" t="s">
-        <v>179</v>
-      </c>
-      <c r="E15" s="138" t="s">
-        <v>202</v>
-      </c>
-      <c r="F15" s="139" t="s">
+      <c r="D43" s="150" t="s">
+        <v>188</v>
+      </c>
+      <c r="E43" s="151" t="s">
+        <v>161</v>
+      </c>
+      <c r="F43" s="152" t="s">
         <v>174</v>
       </c>
-      <c r="G15" s="139" t="s">
+      <c r="G43" s="152" t="s">
         <v>176</v>
       </c>
-      <c r="H15" s="140">
-        <v>41310</v>
-      </c>
-      <c r="I15" s="140">
-        <v>41310</v>
-      </c>
-      <c r="J15" s="141">
+      <c r="H43" s="153">
+        <v>41375</v>
+      </c>
+      <c r="I43" s="153">
+        <v>41375</v>
+      </c>
+      <c r="J43" s="154">
         <v>2</v>
       </c>
-      <c r="K15" s="140">
-        <v>41310</v>
-      </c>
-      <c r="L15" s="140">
-        <v>41310</v>
-      </c>
-      <c r="M15" s="141">
+      <c r="K43" s="153"/>
+      <c r="L43" s="153"/>
+      <c r="M43" s="154">
         <v>2</v>
       </c>
-      <c r="N15" s="143"/>
-    </row>
-    <row r="16" spans="2:25" ht="24">
-      <c r="B16" s="71">
-        <v>4</v>
-      </c>
-      <c r="C16" s="136" t="s">
+      <c r="N43" s="155"/>
+    </row>
+    <row r="44" spans="1:14" ht="24">
+      <c r="B44" s="70">
+        <v>32</v>
+      </c>
+      <c r="C44" s="149" t="s">
         <v>150</v>
       </c>
-      <c r="D16" s="137" t="s">
-        <v>179</v>
-      </c>
-      <c r="E16" s="138" t="s">
-        <v>202</v>
-      </c>
-      <c r="F16" s="139" t="s">
+      <c r="D44" s="150" t="s">
+        <v>188</v>
+      </c>
+      <c r="E44" s="151" t="s">
+        <v>228</v>
+      </c>
+      <c r="F44" s="152" t="s">
         <v>174</v>
       </c>
-      <c r="G16" s="139" t="s">
+      <c r="G44" s="152" t="s">
         <v>176</v>
       </c>
-      <c r="H16" s="140">
-        <v>41331</v>
-      </c>
-      <c r="I16" s="140">
-        <v>41331</v>
-      </c>
-      <c r="J16" s="141">
+      <c r="H44" s="153">
+        <v>41375</v>
+      </c>
+      <c r="I44" s="153">
+        <v>41375</v>
+      </c>
+      <c r="J44" s="154">
         <v>2</v>
       </c>
-      <c r="K16" s="140">
-        <v>41310</v>
-      </c>
-      <c r="L16" s="140">
-        <v>41310</v>
-      </c>
-      <c r="M16" s="141">
+      <c r="K44" s="153"/>
+      <c r="L44" s="153"/>
+      <c r="M44" s="154">
         <v>2</v>
       </c>
-      <c r="N16" s="143"/>
-    </row>
-    <row r="17" spans="2:14" ht="30.75" customHeight="1">
-      <c r="B17" s="71">
-        <v>5</v>
-      </c>
-      <c r="C17" s="136" t="s">
+      <c r="N44" s="155"/>
+    </row>
+    <row r="45" spans="1:14" ht="24">
+      <c r="B45" s="70">
+        <v>33</v>
+      </c>
+      <c r="C45" s="157" t="s">
         <v>150</v>
       </c>
-      <c r="D17" s="137" t="s">
-        <v>179</v>
-      </c>
-      <c r="E17" s="152" t="s">
-        <v>203</v>
-      </c>
-      <c r="F17" s="139" t="s">
+      <c r="D45" s="158" t="s">
+        <v>231</v>
+      </c>
+      <c r="E45" s="159" t="s">
+        <v>234</v>
+      </c>
+      <c r="F45" s="160" t="s">
         <v>174</v>
       </c>
-      <c r="G17" s="139" t="s">
+      <c r="G45" s="160" t="s">
         <v>176</v>
       </c>
-      <c r="H17" s="140">
-        <v>41310</v>
-      </c>
-      <c r="I17" s="140">
-        <v>41310</v>
-      </c>
-      <c r="J17" s="141">
+      <c r="H45" s="161">
+        <v>41418</v>
+      </c>
+      <c r="I45" s="161">
+        <v>41418</v>
+      </c>
+      <c r="J45" s="162">
         <v>2</v>
       </c>
-      <c r="K17" s="140">
-        <v>41310</v>
-      </c>
-      <c r="L17" s="140">
-        <v>41310</v>
-      </c>
-      <c r="M17" s="141">
+      <c r="K45" s="161"/>
+      <c r="L45" s="161"/>
+      <c r="M45" s="162">
         <v>2</v>
       </c>
-      <c r="N17" s="143"/>
-    </row>
-    <row r="18" spans="2:14" ht="24">
-      <c r="B18" s="71">
-        <v>6</v>
-      </c>
-      <c r="C18" s="136" t="s">
+      <c r="N45" s="163"/>
+    </row>
+    <row r="46" spans="1:14" ht="24">
+      <c r="B46" s="70">
+        <v>34</v>
+      </c>
+      <c r="C46" s="157" t="s">
         <v>150</v>
       </c>
-      <c r="D18" s="137" t="s">
-        <v>201</v>
-      </c>
-      <c r="E18" s="138" t="s">
-        <v>157</v>
-      </c>
-      <c r="F18" s="139" t="s">
+      <c r="D46" s="158" t="s">
+        <v>231</v>
+      </c>
+      <c r="E46" s="159" t="s">
+        <v>235</v>
+      </c>
+      <c r="F46" s="160" t="s">
         <v>174</v>
       </c>
-      <c r="G18" s="139" t="s">
+      <c r="G46" s="160" t="s">
         <v>176</v>
       </c>
-      <c r="H18" s="140">
-        <v>41314</v>
-      </c>
-      <c r="I18" s="140">
-        <v>41314</v>
-      </c>
-      <c r="J18" s="141">
-        <v>3</v>
-      </c>
-      <c r="K18" s="140">
-        <v>41314</v>
-      </c>
-      <c r="L18" s="140">
-        <v>41314</v>
-      </c>
-      <c r="M18" s="141">
-        <v>3</v>
-      </c>
-      <c r="N18" s="143"/>
-    </row>
-    <row r="19" spans="2:14" ht="24">
-      <c r="B19" s="71">
-        <v>7</v>
-      </c>
-      <c r="C19" s="136" t="s">
-        <v>150</v>
-      </c>
-      <c r="D19" s="137" t="s">
-        <v>183</v>
-      </c>
-      <c r="E19" s="144" t="s">
-        <v>158</v>
-      </c>
-      <c r="F19" s="139" t="s">
-        <v>174</v>
-      </c>
-      <c r="G19" s="139" t="s">
-        <v>176</v>
-      </c>
-      <c r="H19" s="140">
-        <v>41338</v>
-      </c>
-      <c r="I19" s="140">
-        <v>41338</v>
-      </c>
-      <c r="J19" s="141">
+      <c r="H46" s="161">
+        <v>41421</v>
+      </c>
+      <c r="I46" s="161">
+        <v>41421</v>
+      </c>
+      <c r="J46" s="162">
         <v>2</v>
       </c>
-      <c r="K19" s="140">
-        <v>41338</v>
-      </c>
-      <c r="L19" s="140">
-        <v>41338</v>
-      </c>
-      <c r="M19" s="141">
+      <c r="K46" s="161"/>
+      <c r="L46" s="161"/>
+      <c r="M46" s="162">
         <v>2</v>
       </c>
-      <c r="N19" s="143"/>
-    </row>
-    <row r="20" spans="2:14" ht="24">
-      <c r="B20" s="71">
-        <v>8</v>
-      </c>
-      <c r="C20" s="136" t="s">
-        <v>150</v>
-      </c>
-      <c r="D20" s="137" t="s">
-        <v>183</v>
-      </c>
-      <c r="E20" s="144" t="s">
-        <v>204</v>
-      </c>
-      <c r="F20" s="139" t="s">
-        <v>174</v>
-      </c>
-      <c r="G20" s="139" t="s">
-        <v>176</v>
-      </c>
-      <c r="H20" s="140">
-        <v>41338</v>
-      </c>
-      <c r="I20" s="140">
-        <v>41338</v>
-      </c>
-      <c r="J20" s="141">
-        <v>2</v>
-      </c>
-      <c r="K20" s="140">
-        <v>41338</v>
-      </c>
-      <c r="L20" s="140">
-        <v>41338</v>
-      </c>
-      <c r="M20" s="141">
-        <v>2</v>
-      </c>
-      <c r="N20" s="143"/>
-    </row>
-    <row r="21" spans="2:14" ht="24">
-      <c r="B21" s="71">
-        <v>9</v>
-      </c>
-      <c r="C21" s="136" t="s">
-        <v>150</v>
-      </c>
-      <c r="D21" s="137" t="s">
-        <v>180</v>
-      </c>
-      <c r="E21" s="144" t="s">
-        <v>161</v>
-      </c>
-      <c r="F21" s="139" t="s">
-        <v>174</v>
-      </c>
-      <c r="G21" s="139" t="s">
-        <v>176</v>
-      </c>
-      <c r="H21" s="140">
-        <v>41338</v>
-      </c>
-      <c r="I21" s="140">
-        <v>41338</v>
-      </c>
-      <c r="J21" s="141">
-        <v>2</v>
-      </c>
-      <c r="K21" s="140">
-        <v>41338</v>
-      </c>
-      <c r="L21" s="140">
-        <v>41338</v>
-      </c>
-      <c r="M21" s="141">
-        <v>2</v>
-      </c>
-      <c r="N21" s="143"/>
-    </row>
-    <row r="22" spans="2:14" ht="24">
-      <c r="B22" s="71">
-        <v>10</v>
-      </c>
-      <c r="C22" s="145" t="s">
-        <v>150</v>
-      </c>
-      <c r="D22" s="146" t="s">
-        <v>181</v>
-      </c>
-      <c r="E22" s="147" t="s">
-        <v>190</v>
-      </c>
-      <c r="F22" s="148" t="s">
-        <v>174</v>
-      </c>
-      <c r="G22" s="148" t="s">
-        <v>176</v>
-      </c>
-      <c r="H22" s="149">
-        <v>41339</v>
-      </c>
-      <c r="I22" s="149">
-        <v>41342</v>
-      </c>
-      <c r="J22" s="150">
-        <v>3</v>
-      </c>
-      <c r="K22" s="149">
-        <v>41339</v>
-      </c>
-      <c r="L22" s="149">
-        <v>41342</v>
-      </c>
-      <c r="M22" s="150">
-        <v>3</v>
-      </c>
-      <c r="N22" s="151"/>
-    </row>
-    <row r="23" spans="2:14" ht="24">
-      <c r="B23" s="71">
-        <v>11</v>
-      </c>
-      <c r="C23" s="145" t="s">
-        <v>150</v>
-      </c>
-      <c r="D23" s="146" t="s">
-        <v>181</v>
-      </c>
-      <c r="E23" s="153" t="s">
-        <v>191</v>
-      </c>
-      <c r="F23" s="148" t="s">
-        <v>174</v>
-      </c>
-      <c r="G23" s="148" t="s">
-        <v>176</v>
-      </c>
-      <c r="H23" s="149">
-        <v>41344</v>
-      </c>
-      <c r="I23" s="149">
-        <v>41344</v>
-      </c>
-      <c r="J23" s="150">
-        <v>3</v>
-      </c>
-      <c r="K23" s="149">
-        <v>41344</v>
-      </c>
-      <c r="L23" s="149">
-        <v>41344</v>
-      </c>
-      <c r="M23" s="150">
-        <v>3</v>
-      </c>
-      <c r="N23" s="151"/>
-    </row>
-    <row r="24" spans="2:14" ht="24">
-      <c r="B24" s="71">
-        <v>12</v>
-      </c>
-      <c r="C24" s="145" t="s">
-        <v>150</v>
-      </c>
-      <c r="D24" s="146" t="s">
-        <v>181</v>
-      </c>
-      <c r="E24" s="153" t="s">
-        <v>205</v>
-      </c>
-      <c r="F24" s="148" t="s">
-        <v>174</v>
-      </c>
-      <c r="G24" s="148" t="s">
-        <v>176</v>
-      </c>
-      <c r="H24" s="149">
-        <v>41344</v>
-      </c>
-      <c r="I24" s="149">
-        <v>41344</v>
-      </c>
-      <c r="J24" s="150">
-        <v>3</v>
-      </c>
-      <c r="K24" s="149">
-        <v>41344</v>
-      </c>
-      <c r="L24" s="149">
-        <v>41344</v>
-      </c>
-      <c r="M24" s="150">
-        <v>3</v>
-      </c>
-      <c r="N24" s="151"/>
-    </row>
-    <row r="25" spans="2:14" ht="24">
-      <c r="B25" s="71">
-        <v>13</v>
-      </c>
-      <c r="C25" s="145" t="s">
-        <v>150</v>
-      </c>
-      <c r="D25" s="146" t="s">
-        <v>181</v>
-      </c>
-      <c r="E25" s="153" t="s">
-        <v>206</v>
-      </c>
-      <c r="F25" s="148" t="s">
-        <v>174</v>
-      </c>
-      <c r="G25" s="148" t="s">
-        <v>176</v>
-      </c>
-      <c r="H25" s="149">
-        <v>41344</v>
-      </c>
-      <c r="I25" s="149">
-        <v>41344</v>
-      </c>
-      <c r="J25" s="150">
-        <v>3</v>
-      </c>
-      <c r="K25" s="149">
-        <v>41344</v>
-      </c>
-      <c r="L25" s="149">
-        <v>41344</v>
-      </c>
-      <c r="M25" s="150">
-        <v>3</v>
-      </c>
-      <c r="N25" s="151"/>
-    </row>
-    <row r="26" spans="2:14" ht="24">
-      <c r="B26" s="71">
-        <v>14</v>
-      </c>
-      <c r="C26" s="145" t="s">
-        <v>150</v>
-      </c>
-      <c r="D26" s="146" t="s">
-        <v>181</v>
-      </c>
-      <c r="E26" s="153" t="s">
-        <v>207</v>
-      </c>
-      <c r="F26" s="148" t="s">
-        <v>174</v>
-      </c>
-      <c r="G26" s="148" t="s">
-        <v>176</v>
-      </c>
-      <c r="H26" s="149">
-        <v>41344</v>
-      </c>
-      <c r="I26" s="149">
-        <v>41344</v>
-      </c>
-      <c r="J26" s="150">
-        <v>3</v>
-      </c>
-      <c r="K26" s="149">
-        <v>41344</v>
-      </c>
-      <c r="L26" s="149">
-        <v>41344</v>
-      </c>
-      <c r="M26" s="150">
-        <v>3</v>
-      </c>
-      <c r="N26" s="151"/>
-    </row>
-    <row r="27" spans="2:14" ht="24">
-      <c r="B27" s="71">
-        <v>15</v>
-      </c>
-      <c r="C27" s="145" t="s">
-        <v>150</v>
-      </c>
-      <c r="D27" s="146" t="s">
-        <v>181</v>
-      </c>
-      <c r="E27" s="153" t="s">
-        <v>202</v>
-      </c>
-      <c r="F27" s="148" t="s">
-        <v>174</v>
-      </c>
-      <c r="G27" s="148" t="s">
-        <v>176</v>
-      </c>
-      <c r="H27" s="149">
-        <v>41344</v>
-      </c>
-      <c r="I27" s="149">
-        <v>41344</v>
-      </c>
-      <c r="J27" s="150">
-        <v>3</v>
-      </c>
-      <c r="K27" s="149">
-        <v>41344</v>
-      </c>
-      <c r="L27" s="149">
-        <v>41344</v>
-      </c>
-      <c r="M27" s="150">
-        <v>3</v>
-      </c>
-      <c r="N27" s="151"/>
-    </row>
-    <row r="28" spans="2:14" ht="24">
-      <c r="B28" s="71">
-        <v>16</v>
-      </c>
-      <c r="C28" s="145" t="s">
-        <v>150</v>
-      </c>
-      <c r="D28" s="146" t="s">
-        <v>181</v>
-      </c>
-      <c r="E28" s="153" t="s">
-        <v>202</v>
-      </c>
-      <c r="F28" s="148" t="s">
-        <v>174</v>
-      </c>
-      <c r="G28" s="148" t="s">
-        <v>176</v>
-      </c>
-      <c r="H28" s="149">
-        <v>41344</v>
-      </c>
-      <c r="I28" s="149">
-        <v>41344</v>
-      </c>
-      <c r="J28" s="150">
-        <v>3</v>
-      </c>
-      <c r="K28" s="149">
-        <v>41344</v>
-      </c>
-      <c r="L28" s="149">
-        <v>41344</v>
-      </c>
-      <c r="M28" s="150">
-        <v>3</v>
-      </c>
-      <c r="N28" s="151"/>
-    </row>
-    <row r="29" spans="2:14" ht="24">
-      <c r="B29" s="71">
-        <v>17</v>
-      </c>
-      <c r="C29" s="145" t="s">
-        <v>150</v>
-      </c>
-      <c r="D29" s="146" t="s">
-        <v>182</v>
-      </c>
-      <c r="E29" s="147" t="s">
-        <v>159</v>
-      </c>
-      <c r="F29" s="148" t="s">
-        <v>174</v>
-      </c>
-      <c r="G29" s="148" t="s">
-        <v>176</v>
-      </c>
-      <c r="H29" s="149">
-        <v>41347</v>
-      </c>
-      <c r="I29" s="149">
-        <v>41347</v>
-      </c>
-      <c r="J29" s="150">
-        <v>2</v>
-      </c>
-      <c r="K29" s="149">
-        <v>41347</v>
-      </c>
-      <c r="L29" s="149">
-        <v>41347</v>
-      </c>
-      <c r="M29" s="150">
-        <v>2</v>
-      </c>
-      <c r="N29" s="151"/>
-    </row>
-    <row r="30" spans="2:14" ht="27" customHeight="1">
-      <c r="B30" s="71">
-        <v>18</v>
-      </c>
-      <c r="C30" s="145" t="s">
-        <v>150</v>
-      </c>
-      <c r="D30" s="146" t="s">
-        <v>183</v>
-      </c>
-      <c r="E30" s="147" t="s">
-        <v>160</v>
-      </c>
-      <c r="F30" s="148" t="s">
-        <v>174</v>
-      </c>
-      <c r="G30" s="148" t="s">
-        <v>176</v>
-      </c>
-      <c r="H30" s="149">
-        <v>41351</v>
-      </c>
-      <c r="I30" s="149">
-        <v>41356</v>
-      </c>
-      <c r="J30" s="150">
-        <v>6</v>
-      </c>
-      <c r="K30" s="149">
-        <v>41351</v>
-      </c>
-      <c r="L30" s="149">
-        <v>41356</v>
-      </c>
-      <c r="M30" s="150">
-        <v>5</v>
-      </c>
-      <c r="N30" s="151" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" ht="24">
-      <c r="B31" s="71">
-        <v>19</v>
-      </c>
-      <c r="C31" s="145" t="s">
-        <v>150</v>
-      </c>
-      <c r="D31" s="146" t="s">
-        <v>184</v>
-      </c>
-      <c r="E31" s="147" t="s">
-        <v>161</v>
-      </c>
-      <c r="F31" s="148" t="s">
-        <v>174</v>
-      </c>
-      <c r="G31" s="148" t="s">
-        <v>176</v>
-      </c>
-      <c r="H31" s="149">
-        <v>41359</v>
-      </c>
-      <c r="I31" s="149">
-        <v>41359</v>
-      </c>
-      <c r="J31" s="150">
-        <v>2</v>
-      </c>
-      <c r="K31" s="149">
-        <v>41359</v>
-      </c>
-      <c r="L31" s="149">
-        <v>41359</v>
-      </c>
-      <c r="M31" s="150">
-        <v>2</v>
-      </c>
-      <c r="N31" s="151"/>
-    </row>
-    <row r="32" spans="2:14" ht="24">
-      <c r="B32" s="71">
-        <v>20</v>
-      </c>
-      <c r="C32" s="154" t="s">
-        <v>150</v>
-      </c>
-      <c r="D32" s="155" t="s">
-        <v>185</v>
-      </c>
-      <c r="E32" s="156" t="s">
-        <v>224</v>
-      </c>
-      <c r="F32" s="157" t="s">
-        <v>174</v>
-      </c>
-      <c r="G32" s="157" t="s">
-        <v>176</v>
-      </c>
-      <c r="H32" s="158"/>
-      <c r="I32" s="158"/>
-      <c r="J32" s="159">
-        <v>5</v>
-      </c>
-      <c r="K32" s="158"/>
-      <c r="L32" s="158"/>
-      <c r="M32" s="159">
-        <v>5</v>
-      </c>
-      <c r="N32" s="160"/>
-    </row>
-    <row r="33" spans="1:14" ht="24">
-      <c r="B33" s="71">
-        <v>21</v>
-      </c>
-      <c r="C33" s="154" t="s">
-        <v>150</v>
-      </c>
-      <c r="D33" s="155" t="s">
-        <v>185</v>
-      </c>
-      <c r="E33" s="156" t="s">
-        <v>225</v>
-      </c>
-      <c r="F33" s="157" t="s">
-        <v>174</v>
-      </c>
-      <c r="G33" s="157" t="s">
-        <v>176</v>
-      </c>
-      <c r="H33" s="158"/>
-      <c r="I33" s="158"/>
-      <c r="J33" s="159">
-        <v>5</v>
-      </c>
-      <c r="K33" s="158"/>
-      <c r="L33" s="158"/>
-      <c r="M33" s="159">
-        <v>5</v>
-      </c>
-      <c r="N33" s="160"/>
-    </row>
-    <row r="34" spans="1:14" ht="24">
-      <c r="B34" s="71">
-        <v>22</v>
-      </c>
-      <c r="C34" s="154" t="s">
-        <v>150</v>
-      </c>
-      <c r="D34" s="155" t="s">
-        <v>185</v>
-      </c>
-      <c r="E34" s="156" t="s">
-        <v>226</v>
-      </c>
-      <c r="F34" s="157" t="s">
-        <v>174</v>
-      </c>
-      <c r="G34" s="157" t="s">
-        <v>176</v>
-      </c>
-      <c r="H34" s="158"/>
-      <c r="I34" s="158"/>
-      <c r="J34" s="159">
-        <v>5</v>
-      </c>
-      <c r="K34" s="158"/>
-      <c r="L34" s="158"/>
-      <c r="M34" s="159">
-        <v>5</v>
-      </c>
-      <c r="N34" s="160"/>
-    </row>
-    <row r="35" spans="1:14" ht="24">
-      <c r="B35" s="71">
-        <v>23</v>
-      </c>
-      <c r="C35" s="154" t="s">
-        <v>150</v>
-      </c>
-      <c r="D35" s="155" t="s">
-        <v>185</v>
-      </c>
-      <c r="E35" s="156" t="s">
-        <v>192</v>
-      </c>
-      <c r="F35" s="157" t="s">
-        <v>174</v>
-      </c>
-      <c r="G35" s="157" t="s">
-        <v>176</v>
-      </c>
-      <c r="H35" s="158">
-        <v>41366</v>
-      </c>
-      <c r="I35" s="158">
-        <v>41366</v>
-      </c>
-      <c r="J35" s="159">
-        <v>5</v>
-      </c>
-      <c r="K35" s="158">
-        <v>41366</v>
-      </c>
-      <c r="L35" s="158">
-        <v>41366</v>
-      </c>
-      <c r="M35" s="159">
-        <v>5</v>
-      </c>
-      <c r="N35" s="160"/>
-    </row>
-    <row r="36" spans="1:14" ht="24">
-      <c r="B36" s="71">
-        <v>24</v>
-      </c>
-      <c r="C36" s="154" t="s">
-        <v>150</v>
-      </c>
-      <c r="D36" s="155" t="s">
-        <v>185</v>
-      </c>
-      <c r="E36" s="161" t="s">
-        <v>227</v>
-      </c>
-      <c r="F36" s="157" t="s">
-        <v>174</v>
-      </c>
-      <c r="G36" s="157" t="s">
-        <v>176</v>
-      </c>
-      <c r="H36" s="158"/>
-      <c r="I36" s="158"/>
-      <c r="J36" s="159">
-        <v>5</v>
-      </c>
-      <c r="K36" s="158"/>
-      <c r="L36" s="158"/>
-      <c r="M36" s="159">
-        <v>5</v>
-      </c>
-      <c r="N36" s="160"/>
-    </row>
-    <row r="37" spans="1:14" ht="24">
-      <c r="B37" s="71">
-        <v>25</v>
-      </c>
-      <c r="C37" s="154" t="s">
-        <v>150</v>
-      </c>
-      <c r="D37" s="155" t="s">
-        <v>185</v>
-      </c>
-      <c r="E37" s="156" t="s">
-        <v>202</v>
-      </c>
-      <c r="F37" s="157" t="s">
-        <v>174</v>
-      </c>
-      <c r="G37" s="157" t="s">
-        <v>176</v>
-      </c>
-      <c r="H37" s="158"/>
-      <c r="I37" s="158"/>
-      <c r="J37" s="159">
-        <v>5</v>
-      </c>
-      <c r="K37" s="158"/>
-      <c r="L37" s="158"/>
-      <c r="M37" s="159">
-        <v>5</v>
-      </c>
-      <c r="N37" s="160"/>
-    </row>
-    <row r="38" spans="1:14" ht="24">
-      <c r="B38" s="71">
-        <v>26</v>
-      </c>
-      <c r="C38" s="154" t="s">
-        <v>150</v>
-      </c>
-      <c r="D38" s="155" t="s">
-        <v>185</v>
-      </c>
-      <c r="E38" s="156" t="s">
-        <v>202</v>
-      </c>
-      <c r="F38" s="157" t="s">
-        <v>174</v>
-      </c>
-      <c r="G38" s="157" t="s">
-        <v>176</v>
-      </c>
-      <c r="H38" s="158"/>
-      <c r="I38" s="158"/>
-      <c r="J38" s="159">
-        <v>5</v>
-      </c>
-      <c r="K38" s="158"/>
-      <c r="L38" s="158"/>
-      <c r="M38" s="159">
-        <v>5</v>
-      </c>
-      <c r="N38" s="160"/>
-    </row>
-    <row r="39" spans="1:14" ht="24">
-      <c r="B39" s="71">
-        <v>27</v>
-      </c>
-      <c r="C39" s="154" t="s">
-        <v>150</v>
-      </c>
-      <c r="D39" s="155" t="s">
-        <v>186</v>
-      </c>
-      <c r="E39" s="156" t="s">
-        <v>159</v>
-      </c>
-      <c r="F39" s="157" t="s">
-        <v>174</v>
-      </c>
-      <c r="G39" s="157" t="s">
-        <v>176</v>
-      </c>
-      <c r="H39" s="158"/>
-      <c r="I39" s="158"/>
-      <c r="J39" s="159">
-        <v>5</v>
-      </c>
-      <c r="K39" s="158"/>
-      <c r="L39" s="158"/>
-      <c r="M39" s="159">
-        <v>5</v>
-      </c>
-      <c r="N39" s="160"/>
-    </row>
-    <row r="40" spans="1:14" ht="24">
-      <c r="B40" s="71">
-        <v>28</v>
-      </c>
-      <c r="C40" s="154" t="s">
-        <v>150</v>
-      </c>
-      <c r="D40" s="155" t="s">
-        <v>186</v>
-      </c>
-      <c r="E40" s="156" t="s">
-        <v>162</v>
-      </c>
-      <c r="F40" s="157" t="s">
-        <v>174</v>
-      </c>
-      <c r="G40" s="157" t="s">
-        <v>176</v>
-      </c>
-      <c r="H40" s="158"/>
-      <c r="I40" s="158"/>
-      <c r="J40" s="159">
-        <v>5</v>
-      </c>
-      <c r="K40" s="158"/>
-      <c r="L40" s="158"/>
-      <c r="M40" s="159">
-        <v>5</v>
-      </c>
-      <c r="N40" s="160"/>
-    </row>
-    <row r="41" spans="1:14" ht="24">
-      <c r="B41" s="71">
-        <v>29</v>
-      </c>
-      <c r="C41" s="154" t="s">
-        <v>150</v>
-      </c>
-      <c r="D41" s="155" t="s">
-        <v>187</v>
-      </c>
-      <c r="E41" s="156" t="s">
-        <v>228</v>
-      </c>
-      <c r="F41" s="157" t="s">
-        <v>174</v>
-      </c>
-      <c r="G41" s="157" t="s">
-        <v>176</v>
-      </c>
-      <c r="H41" s="158"/>
-      <c r="I41" s="158"/>
-      <c r="J41" s="159">
-        <v>4</v>
-      </c>
-      <c r="K41" s="158"/>
-      <c r="L41" s="158"/>
-      <c r="M41" s="159">
-        <v>4</v>
-      </c>
-      <c r="N41" s="160"/>
-    </row>
-    <row r="42" spans="1:14" ht="24">
-      <c r="B42" s="71">
-        <v>30</v>
-      </c>
-      <c r="C42" s="154" t="s">
-        <v>150</v>
-      </c>
-      <c r="D42" s="155" t="s">
-        <v>187</v>
-      </c>
-      <c r="E42" s="156" t="s">
-        <v>195</v>
-      </c>
-      <c r="F42" s="157" t="s">
-        <v>174</v>
-      </c>
-      <c r="G42" s="157" t="s">
-        <v>176</v>
-      </c>
-      <c r="H42" s="158"/>
-      <c r="I42" s="158"/>
-      <c r="J42" s="159">
-        <v>4</v>
-      </c>
-      <c r="K42" s="158"/>
-      <c r="L42" s="158"/>
-      <c r="M42" s="159">
-        <v>4</v>
-      </c>
-      <c r="N42" s="160"/>
-    </row>
-    <row r="43" spans="1:14" ht="24">
-      <c r="B43" s="71">
-        <v>31</v>
-      </c>
-      <c r="C43" s="154" t="s">
-        <v>150</v>
-      </c>
-      <c r="D43" s="155" t="s">
-        <v>188</v>
-      </c>
-      <c r="E43" s="156" t="s">
-        <v>161</v>
-      </c>
-      <c r="F43" s="157" t="s">
-        <v>174</v>
-      </c>
-      <c r="G43" s="157" t="s">
-        <v>176</v>
-      </c>
-      <c r="H43" s="158"/>
-      <c r="I43" s="158"/>
-      <c r="J43" s="159">
-        <v>2</v>
-      </c>
-      <c r="K43" s="158"/>
-      <c r="L43" s="158"/>
-      <c r="M43" s="159">
-        <v>2</v>
-      </c>
-      <c r="N43" s="160"/>
-    </row>
-    <row r="44" spans="1:14" ht="24">
-      <c r="B44" s="71">
-        <v>32</v>
-      </c>
-      <c r="C44" s="154" t="s">
-        <v>150</v>
-      </c>
-      <c r="D44" s="155" t="s">
-        <v>188</v>
-      </c>
-      <c r="E44" s="156" t="s">
-        <v>229</v>
-      </c>
-      <c r="F44" s="157" t="s">
-        <v>174</v>
-      </c>
-      <c r="G44" s="157" t="s">
-        <v>176</v>
-      </c>
-      <c r="H44" s="158"/>
-      <c r="I44" s="158"/>
-      <c r="J44" s="159">
-        <v>2</v>
-      </c>
-      <c r="K44" s="158"/>
-      <c r="L44" s="158"/>
-      <c r="M44" s="159">
-        <v>2</v>
-      </c>
-      <c r="N44" s="160"/>
-    </row>
-    <row r="45" spans="1:14" ht="24">
-      <c r="B45" s="71">
-        <v>32</v>
-      </c>
-      <c r="C45" s="174" t="s">
-        <v>150</v>
-      </c>
-      <c r="D45" s="175" t="s">
-        <v>232</v>
-      </c>
-      <c r="E45" s="176" t="s">
-        <v>235</v>
-      </c>
-      <c r="F45" s="177" t="s">
-        <v>174</v>
-      </c>
-      <c r="G45" s="177" t="s">
-        <v>176</v>
-      </c>
-      <c r="H45" s="178"/>
-      <c r="I45" s="178"/>
-      <c r="J45" s="179">
-        <v>2</v>
-      </c>
-      <c r="K45" s="178"/>
-      <c r="L45" s="178"/>
-      <c r="M45" s="179">
-        <v>2</v>
-      </c>
-      <c r="N45" s="180"/>
-    </row>
-    <row r="46" spans="1:14" ht="24">
-      <c r="B46" s="33">
-        <v>21</v>
-      </c>
-      <c r="C46" s="174" t="s">
-        <v>150</v>
-      </c>
-      <c r="D46" s="175" t="s">
-        <v>232</v>
-      </c>
-      <c r="E46" s="176" t="s">
-        <v>236</v>
-      </c>
-      <c r="F46" s="177" t="s">
-        <v>174</v>
-      </c>
-      <c r="G46" s="177" t="s">
-        <v>176</v>
-      </c>
-      <c r="H46" s="178"/>
-      <c r="I46" s="178"/>
-      <c r="J46" s="179">
-        <v>2</v>
-      </c>
-      <c r="K46" s="178"/>
-      <c r="L46" s="178"/>
-      <c r="M46" s="179">
-        <v>2</v>
-      </c>
-      <c r="N46" s="180"/>
+      <c r="N46" s="163"/>
     </row>
     <row r="47" spans="1:14" ht="24">
       <c r="A47" s="8"/>
-      <c r="B47" s="33">
-        <v>33</v>
-      </c>
-      <c r="C47" s="174" t="s">
+      <c r="B47" s="70">
+        <v>35</v>
+      </c>
+      <c r="C47" s="157" t="s">
         <v>150</v>
       </c>
-      <c r="D47" s="175" t="s">
+      <c r="D47" s="158" t="s">
+        <v>231</v>
+      </c>
+      <c r="E47" s="159" t="s">
+        <v>201</v>
+      </c>
+      <c r="F47" s="160" t="s">
+        <v>174</v>
+      </c>
+      <c r="G47" s="160" t="s">
+        <v>176</v>
+      </c>
+      <c r="H47" s="161"/>
+      <c r="I47" s="161"/>
+      <c r="J47" s="162">
+        <v>2</v>
+      </c>
+      <c r="K47" s="161"/>
+      <c r="L47" s="161"/>
+      <c r="M47" s="162">
+        <v>2</v>
+      </c>
+      <c r="N47" s="163"/>
+    </row>
+    <row r="48" spans="1:14" ht="24">
+      <c r="B48" s="70">
+        <v>36</v>
+      </c>
+      <c r="C48" s="157" t="s">
+        <v>150</v>
+      </c>
+      <c r="D48" s="158" t="s">
         <v>232</v>
       </c>
-      <c r="E47" s="176" t="s">
-        <v>202</v>
-      </c>
-      <c r="F47" s="177" t="s">
+      <c r="E48" s="159" t="s">
+        <v>157</v>
+      </c>
+      <c r="F48" s="160" t="s">
         <v>174</v>
       </c>
-      <c r="G47" s="177" t="s">
+      <c r="G48" s="160" t="s">
         <v>176</v>
       </c>
-      <c r="H47" s="178"/>
-      <c r="I47" s="178"/>
-      <c r="J47" s="179">
+      <c r="H48" s="161">
+        <v>41419</v>
+      </c>
+      <c r="I48" s="161">
+        <v>41419</v>
+      </c>
+      <c r="J48" s="162">
         <v>2</v>
       </c>
-      <c r="K47" s="178"/>
-      <c r="L47" s="178"/>
-      <c r="M47" s="179">
+      <c r="K48" s="161"/>
+      <c r="L48" s="161"/>
+      <c r="M48" s="162">
         <v>2</v>
       </c>
-      <c r="N47" s="180"/>
-    </row>
-    <row r="48" spans="1:14" ht="24">
-      <c r="A48" s="8"/>
-      <c r="B48" s="33">
-        <v>34</v>
-      </c>
-      <c r="C48" s="174" t="s">
+      <c r="N48" s="163"/>
+    </row>
+    <row r="49" spans="2:14" ht="24">
+      <c r="B49" s="70">
+        <v>37</v>
+      </c>
+      <c r="C49" s="157" t="s">
         <v>150</v>
       </c>
-      <c r="D48" s="175" t="s">
-        <v>232</v>
-      </c>
-      <c r="E48" s="176" t="s">
-        <v>229</v>
-      </c>
-      <c r="F48" s="177" t="s">
+      <c r="D49" s="158" t="s">
+        <v>233</v>
+      </c>
+      <c r="E49" s="159" t="s">
+        <v>236</v>
+      </c>
+      <c r="F49" s="160" t="s">
         <v>174</v>
       </c>
-      <c r="G48" s="177" t="s">
+      <c r="G49" s="160" t="s">
         <v>176</v>
       </c>
-      <c r="H48" s="178"/>
-      <c r="I48" s="178"/>
-      <c r="J48" s="179">
+      <c r="H49" s="161">
+        <v>41421</v>
+      </c>
+      <c r="I49" s="161">
+        <v>41422</v>
+      </c>
+      <c r="J49" s="162">
         <v>2</v>
       </c>
-      <c r="K48" s="178"/>
-      <c r="L48" s="178"/>
-      <c r="M48" s="179">
+      <c r="K49" s="161"/>
+      <c r="L49" s="161"/>
+      <c r="M49" s="162">
         <v>2</v>
       </c>
-      <c r="N48" s="180"/>
-    </row>
-    <row r="49" spans="1:14" ht="24">
-      <c r="B49" s="33">
-        <v>22</v>
-      </c>
-      <c r="C49" s="174" t="s">
+      <c r="N49" s="163"/>
+    </row>
+    <row r="50" spans="2:14" ht="24">
+      <c r="B50" s="70">
+        <v>38</v>
+      </c>
+      <c r="C50" s="157" t="s">
         <v>150</v>
       </c>
-      <c r="D49" s="175" t="s">
-        <v>233</v>
-      </c>
-      <c r="E49" s="176" t="s">
-        <v>157</v>
-      </c>
-      <c r="F49" s="177" t="s">
+      <c r="D50" s="158" t="s">
+        <v>237</v>
+      </c>
+      <c r="E50" s="159" t="s">
+        <v>244</v>
+      </c>
+      <c r="F50" s="160" t="s">
         <v>174</v>
       </c>
-      <c r="G49" s="177" t="s">
+      <c r="G50" s="160" t="s">
         <v>176</v>
       </c>
-      <c r="H49" s="178"/>
-      <c r="I49" s="178"/>
-      <c r="J49" s="179">
+      <c r="H50" s="161">
+        <v>41424</v>
+      </c>
+      <c r="I50" s="161">
+        <v>41424</v>
+      </c>
+      <c r="J50" s="162">
         <v>2</v>
       </c>
-      <c r="K49" s="178"/>
-      <c r="L49" s="178"/>
-      <c r="M49" s="179">
+      <c r="K50" s="161"/>
+      <c r="L50" s="161"/>
+      <c r="M50" s="162">
         <v>2</v>
       </c>
-      <c r="N49" s="180"/>
-    </row>
-    <row r="50" spans="1:14" ht="24">
-      <c r="B50" s="33">
-        <v>23</v>
-      </c>
-      <c r="C50" s="174" t="s">
+      <c r="N50" s="163"/>
+    </row>
+    <row r="51" spans="2:14" ht="24">
+      <c r="B51" s="70">
+        <v>39</v>
+      </c>
+      <c r="C51" s="157" t="s">
         <v>150</v>
       </c>
-      <c r="D50" s="175" t="s">
-        <v>234</v>
-      </c>
-      <c r="E50" s="176" t="s">
+      <c r="D51" s="158" t="s">
         <v>237</v>
       </c>
-      <c r="F50" s="177" t="s">
+      <c r="E51" s="159" t="s">
+        <v>243</v>
+      </c>
+      <c r="F51" s="160" t="s">
         <v>174</v>
       </c>
-      <c r="G50" s="177" t="s">
+      <c r="G51" s="160" t="s">
         <v>176</v>
       </c>
-      <c r="H50" s="178"/>
-      <c r="I50" s="178"/>
-      <c r="J50" s="179">
+      <c r="H51" s="161">
+        <v>41425</v>
+      </c>
+      <c r="I51" s="161">
+        <v>41425</v>
+      </c>
+      <c r="J51" s="162">
         <v>2</v>
       </c>
-      <c r="K50" s="178"/>
-      <c r="L50" s="178"/>
-      <c r="M50" s="179">
+      <c r="K51" s="161"/>
+      <c r="L51" s="161"/>
+      <c r="M51" s="162">
         <v>2</v>
       </c>
-      <c r="N50" s="180"/>
-    </row>
-    <row r="51" spans="1:14" ht="24">
-      <c r="B51" s="33">
-        <v>24</v>
-      </c>
-      <c r="C51" s="174" t="s">
+      <c r="N51" s="163"/>
+    </row>
+    <row r="52" spans="2:14" ht="24">
+      <c r="B52" s="70">
+        <v>40</v>
+      </c>
+      <c r="C52" s="157" t="s">
         <v>150</v>
       </c>
-      <c r="D51" s="175" t="s">
+      <c r="D52" s="158" t="s">
+        <v>237</v>
+      </c>
+      <c r="E52" s="159" t="s">
+        <v>242</v>
+      </c>
+      <c r="F52" s="160" t="s">
+        <v>174</v>
+      </c>
+      <c r="G52" s="160" t="s">
+        <v>176</v>
+      </c>
+      <c r="H52" s="161">
+        <v>41426</v>
+      </c>
+      <c r="I52" s="161">
+        <v>41428</v>
+      </c>
+      <c r="J52" s="162">
+        <v>2</v>
+      </c>
+      <c r="K52" s="161"/>
+      <c r="L52" s="161"/>
+      <c r="M52" s="162">
+        <v>2</v>
+      </c>
+      <c r="N52" s="163"/>
+    </row>
+    <row r="53" spans="2:14" ht="24">
+      <c r="B53" s="70">
+        <v>41</v>
+      </c>
+      <c r="C53" s="157" t="s">
+        <v>150</v>
+      </c>
+      <c r="D53" s="158" t="s">
+        <v>237</v>
+      </c>
+      <c r="E53" s="159" t="s">
+        <v>241</v>
+      </c>
+      <c r="F53" s="160" t="s">
+        <v>174</v>
+      </c>
+      <c r="G53" s="160" t="s">
+        <v>176</v>
+      </c>
+      <c r="H53" s="161">
+        <v>41429</v>
+      </c>
+      <c r="I53" s="161">
+        <v>41430</v>
+      </c>
+      <c r="J53" s="162">
+        <v>2</v>
+      </c>
+      <c r="K53" s="161"/>
+      <c r="L53" s="161"/>
+      <c r="M53" s="162">
+        <v>2</v>
+      </c>
+      <c r="N53" s="163"/>
+    </row>
+    <row r="54" spans="2:14" ht="24">
+      <c r="B54" s="70">
+        <v>42</v>
+      </c>
+      <c r="C54" s="157" t="s">
+        <v>150</v>
+      </c>
+      <c r="D54" s="158" t="s">
         <v>238</v>
       </c>
-      <c r="E51" s="176" t="s">
-        <v>245</v>
-      </c>
-      <c r="F51" s="177" t="s">
+      <c r="E54" s="159" t="s">
+        <v>239</v>
+      </c>
+      <c r="F54" s="160" t="s">
         <v>174</v>
       </c>
-      <c r="G51" s="177" t="s">
+      <c r="G54" s="160" t="s">
         <v>176</v>
       </c>
-      <c r="H51" s="178"/>
-      <c r="I51" s="178"/>
-      <c r="J51" s="179">
+      <c r="H54" s="161">
+        <v>41431</v>
+      </c>
+      <c r="I54" s="161">
+        <v>41431</v>
+      </c>
+      <c r="J54" s="162">
         <v>2</v>
       </c>
-      <c r="K51" s="178"/>
-      <c r="L51" s="178"/>
-      <c r="M51" s="179">
+      <c r="K54" s="161"/>
+      <c r="L54" s="161"/>
+      <c r="M54" s="162">
         <v>2</v>
       </c>
-      <c r="N51" s="180"/>
-    </row>
-    <row r="52" spans="1:14" ht="24">
-      <c r="B52" s="33">
-        <v>25</v>
-      </c>
-      <c r="C52" s="174" t="s">
+      <c r="N54" s="163"/>
+    </row>
+    <row r="55" spans="2:14" ht="33" customHeight="1">
+      <c r="B55" s="70">
+        <v>43</v>
+      </c>
+      <c r="C55" s="157" t="s">
         <v>150</v>
       </c>
-      <c r="D52" s="175" t="s">
+      <c r="D55" s="158" t="s">
         <v>238</v>
       </c>
-      <c r="E52" s="176" t="s">
-        <v>244</v>
-      </c>
-      <c r="F52" s="177" t="s">
+      <c r="E55" s="159" t="s">
+        <v>240</v>
+      </c>
+      <c r="F55" s="160" t="s">
         <v>174</v>
       </c>
-      <c r="G52" s="177" t="s">
+      <c r="G55" s="160" t="s">
         <v>176</v>
       </c>
-      <c r="H52" s="178"/>
-      <c r="I52" s="178"/>
-      <c r="J52" s="179">
+      <c r="H55" s="161">
+        <v>41431</v>
+      </c>
+      <c r="I55" s="161">
+        <v>41431</v>
+      </c>
+      <c r="J55" s="162">
         <v>2</v>
       </c>
-      <c r="K52" s="178"/>
-      <c r="L52" s="178"/>
-      <c r="M52" s="179">
+      <c r="K55" s="161"/>
+      <c r="L55" s="161"/>
+      <c r="M55" s="162">
         <v>2</v>
       </c>
-      <c r="N52" s="180"/>
-    </row>
-    <row r="53" spans="1:14" ht="24">
-      <c r="B53" s="33">
-        <v>26</v>
-      </c>
-      <c r="C53" s="174" t="s">
-        <v>150</v>
-      </c>
-      <c r="D53" s="175" t="s">
-        <v>238</v>
-      </c>
-      <c r="E53" s="176" t="s">
-        <v>243</v>
-      </c>
-      <c r="F53" s="177" t="s">
-        <v>174</v>
-      </c>
-      <c r="G53" s="177" t="s">
-        <v>176</v>
-      </c>
-      <c r="H53" s="178"/>
-      <c r="I53" s="178"/>
-      <c r="J53" s="179">
-        <v>2</v>
-      </c>
-      <c r="K53" s="178"/>
-      <c r="L53" s="178"/>
-      <c r="M53" s="179">
-        <v>2</v>
-      </c>
-      <c r="N53" s="180"/>
-    </row>
-    <row r="54" spans="1:14" ht="24">
-      <c r="B54" s="33">
-        <v>27</v>
-      </c>
-      <c r="C54" s="174" t="s">
-        <v>150</v>
-      </c>
-      <c r="D54" s="175" t="s">
-        <v>238</v>
-      </c>
-      <c r="E54" s="176" t="s">
-        <v>242</v>
-      </c>
-      <c r="F54" s="177" t="s">
-        <v>174</v>
-      </c>
-      <c r="G54" s="177" t="s">
-        <v>176</v>
-      </c>
-      <c r="H54" s="178"/>
-      <c r="I54" s="178"/>
-      <c r="J54" s="179">
-        <v>2</v>
-      </c>
-      <c r="K54" s="178"/>
-      <c r="L54" s="178"/>
-      <c r="M54" s="179">
-        <v>2</v>
-      </c>
-      <c r="N54" s="180"/>
-    </row>
-    <row r="55" spans="1:14" ht="24">
-      <c r="B55" s="33">
-        <v>28</v>
-      </c>
-      <c r="C55" s="174" t="s">
-        <v>150</v>
-      </c>
-      <c r="D55" s="175" t="s">
-        <v>239</v>
-      </c>
-      <c r="E55" s="176" t="s">
-        <v>240</v>
-      </c>
-      <c r="F55" s="177" t="s">
-        <v>174</v>
-      </c>
-      <c r="G55" s="177" t="s">
-        <v>176</v>
-      </c>
-      <c r="H55" s="178"/>
-      <c r="I55" s="178"/>
-      <c r="J55" s="179">
-        <v>2</v>
-      </c>
-      <c r="K55" s="178"/>
-      <c r="L55" s="178"/>
-      <c r="M55" s="179">
-        <v>2</v>
-      </c>
-      <c r="N55" s="180"/>
-    </row>
-    <row r="56" spans="1:14" ht="12.75" customHeight="1">
-      <c r="B56" s="33">
-        <v>29</v>
-      </c>
-      <c r="C56" s="174" t="s">
-        <v>150</v>
-      </c>
-      <c r="D56" s="175" t="s">
-        <v>239</v>
-      </c>
-      <c r="E56" s="176" t="s">
-        <v>241</v>
-      </c>
-      <c r="F56" s="177" t="s">
-        <v>174</v>
-      </c>
-      <c r="G56" s="177" t="s">
-        <v>176</v>
-      </c>
-      <c r="H56" s="178"/>
-      <c r="I56" s="178"/>
-      <c r="J56" s="179">
-        <v>2</v>
-      </c>
-      <c r="K56" s="178"/>
-      <c r="L56" s="178"/>
-      <c r="M56" s="179">
-        <v>2</v>
-      </c>
-      <c r="N56" s="180"/>
-    </row>
-    <row r="57" spans="1:14">
-      <c r="A57" s="8"/>
-      <c r="B57" s="33">
-        <v>30</v>
-      </c>
-      <c r="C57" s="82"/>
-      <c r="D57" s="82"/>
-      <c r="E57" s="83"/>
-      <c r="F57" s="83"/>
-      <c r="G57" s="83"/>
-      <c r="H57" s="84"/>
-      <c r="I57" s="84"/>
-      <c r="J57" s="110"/>
-      <c r="K57" s="84"/>
-      <c r="L57" s="84"/>
-      <c r="M57" s="85"/>
-      <c r="N57" s="85"/>
-    </row>
-    <row r="58" spans="1:14" ht="12.75" customHeight="1">
-      <c r="B58" s="6"/>
-      <c r="J58" s="86">
-        <f>SUM(J13:J57)</f>
-        <v>138</v>
-      </c>
-      <c r="L58" s="87" t="s">
+      <c r="N55" s="163"/>
+    </row>
+    <row r="56" spans="2:14" ht="12.75" customHeight="1">
+      <c r="B56" s="6"/>
+      <c r="J56" s="82">
+        <f>SUM(J13:J55)</f>
+        <v>136</v>
+      </c>
+      <c r="L56" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="M58" s="86">
-        <f>SUM(M13:M57)</f>
-        <v>137</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
-      <c r="B59" s="6"/>
-      <c r="E59" s="7"/>
+      <c r="M56" s="82">
+        <f>SUM(M13:M55)</f>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14">
+      <c r="B57" s="6"/>
+      <c r="E57" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -8425,17 +8383,11 @@
     <mergeCell ref="D10:F10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D57">
-      <formula1>IF(C57="Fast Track",f_fast,IF(C57="Configuraciones Tipo o Nuevas",f_tipo,IF(C57="Desarrollos Departamentales",f_depar,IF(C57="Desarrollos Adicionales ATIS",f_atis,IF(C57="Definición de Requerimientos",f_req,f_inci)))))</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E57">
-      <formula1>IF(C57="Fast Track",e_fast,IF(C57="Configuraciones Tipo o Nuevas",e_tipo,IF(C57="Desarrollos Departamentales",e_depar,IF(C57="Desarrollos Adicionales ATIS",e_atis,IF(C57="Definición de Requerimientos",e_req,e_inci)))))</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:C57">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:C55">
       <formula1>TipoProy</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13:D56">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13:D55">
       <formula1>f_depar</formula1>
     </dataValidation>
   </dataValidations>
@@ -8452,13 +8404,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja4"/>
-  <dimension ref="A1:O40"/>
+  <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25"/>
@@ -8479,22 +8431,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="26" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A1" s="220" t="s">
+      <c r="A1" s="203" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="221"/>
-      <c r="C1" s="221"/>
-      <c r="D1" s="221"/>
-      <c r="E1" s="221"/>
-      <c r="F1" s="221"/>
-      <c r="G1" s="221"/>
-      <c r="H1" s="221"/>
-      <c r="I1" s="221"/>
-      <c r="J1" s="221"/>
-      <c r="K1" s="221"/>
-      <c r="L1" s="221"/>
-      <c r="M1" s="221"/>
-      <c r="N1" s="222"/>
+      <c r="B1" s="204"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="204"/>
+      <c r="F1" s="204"/>
+      <c r="G1" s="204"/>
+      <c r="H1" s="204"/>
+      <c r="I1" s="204"/>
+      <c r="J1" s="204"/>
+      <c r="K1" s="204"/>
+      <c r="L1" s="204"/>
+      <c r="M1" s="204"/>
+      <c r="N1" s="205"/>
     </row>
     <row r="2" spans="1:15" s="26" customFormat="1" ht="11.45" customHeight="1">
       <c r="A2" s="27"/>
@@ -8524,10 +8476,10 @@
       <c r="B4" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="71" t="s">
+      <c r="D4" s="70" t="s">
         <v>153</v>
       </c>
       <c r="E4" s="24" t="s">
@@ -8539,7 +8491,7 @@
       <c r="G4" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="71" t="s">
+      <c r="H4" s="70" t="s">
         <v>35</v>
       </c>
       <c r="I4" s="24" t="s">
@@ -8565,1267 +8517,1601 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="21.75" customHeight="1">
-      <c r="A5" s="90">
+      <c r="A5" s="86">
         <v>1</v>
       </c>
-      <c r="B5" s="91">
+      <c r="B5" s="87">
         <v>1</v>
       </c>
-      <c r="C5" s="92" t="str">
-        <f>VLOOKUP(B5,Planificación!$B$13:$E$104,2,FALSE)</f>
+      <c r="C5" s="88" t="str">
+        <f>VLOOKUP(B5,Planificación!$B$13:$E$102,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D5" s="93" t="str">
-        <f>VLOOKUP(B5,Planificación!$B$13:$E$104,4,FALSE)</f>
+      <c r="D5" s="89" t="str">
+        <f>VLOOKUP(B5,Planificación!$B$13:$E$102,4,FALSE)</f>
         <v>Plan de Proyecto</v>
       </c>
-      <c r="E5" s="92" t="str">
-        <f>VLOOKUP(B5,Planificación!$B$13:$G$104,5,FALSE)</f>
+      <c r="E5" s="88" t="str">
+        <f>VLOOKUP(B5,Planificación!$B$13:$G$102,5,FALSE)</f>
         <v>Michel Aguilar</v>
       </c>
-      <c r="F5" s="92" t="str">
-        <f>VLOOKUP(B5,Planificación!$B$13:$G$104,6,FALSE)</f>
+      <c r="F5" s="88" t="str">
+        <f>VLOOKUP(B5,Planificación!$B$13:$G$102,6,FALSE)</f>
         <v>Amira Lanao</v>
       </c>
-      <c r="G5" s="119" t="s">
-        <v>196</v>
-      </c>
-      <c r="H5" s="94" t="s">
+      <c r="G5" s="114" t="s">
+        <v>195</v>
+      </c>
+      <c r="H5" s="90" t="s">
         <v>147</v>
       </c>
-      <c r="I5" s="94" t="s">
+      <c r="I5" s="90" t="s">
         <v>97</v>
       </c>
-      <c r="J5" s="94" t="s">
+      <c r="J5" s="90" t="s">
         <v>173</v>
       </c>
-      <c r="K5" s="96"/>
-      <c r="L5" s="124">
+      <c r="K5" s="92"/>
+      <c r="L5" s="119">
         <v>41313</v>
       </c>
-      <c r="M5" s="124">
+      <c r="M5" s="119">
         <v>41383</v>
       </c>
-      <c r="N5" s="98">
+      <c r="N5" s="94">
         <f>IF(M5&gt;0,1,0)</f>
         <v>1</v>
       </c>
-      <c r="O5" s="111"/>
+      <c r="O5" s="106"/>
     </row>
     <row r="6" spans="1:15" ht="12">
-      <c r="A6" s="90">
+      <c r="A6" s="86">
         <v>2</v>
       </c>
-      <c r="B6" s="91">
+      <c r="B6" s="87">
         <v>2</v>
       </c>
-      <c r="C6" s="92" t="str">
-        <f>VLOOKUP(B6,Planificación!$B$13:$E$104,2,FALSE)</f>
+      <c r="C6" s="88" t="str">
+        <f>VLOOKUP(B6,Planificación!$B$13:$E$102,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D6" s="93" t="str">
-        <f>VLOOKUP(B6,Planificación!$B$13:$E$104,4,FALSE)</f>
-        <v xml:space="preserve">Cronograma </v>
-      </c>
-      <c r="E6" s="92" t="str">
-        <f>VLOOKUP(B6,Planificación!$B$13:$G$104,5,FALSE)</f>
+      <c r="D6" s="89" t="str">
+        <f>VLOOKUP(B6,Planificación!$B$13:$E$102,4,FALSE)</f>
+        <v>Cronograma Detallado</v>
+      </c>
+      <c r="E6" s="88" t="str">
+        <f>VLOOKUP(B6,Planificación!$B$13:$G$102,5,FALSE)</f>
         <v>Michel Aguilar</v>
       </c>
-      <c r="F6" s="92" t="str">
-        <f>VLOOKUP(B6,Planificación!$B$13:$G$104,6,FALSE)</f>
+      <c r="F6" s="88" t="str">
+        <f>VLOOKUP(B6,Planificación!$B$13:$G$102,6,FALSE)</f>
         <v>Amira Lanao</v>
       </c>
-      <c r="G6" s="119" t="s">
-        <v>197</v>
-      </c>
-      <c r="H6" s="94" t="s">
+      <c r="G6" s="114" t="s">
+        <v>196</v>
+      </c>
+      <c r="H6" s="90" t="s">
         <v>147</v>
       </c>
-      <c r="I6" s="94" t="s">
+      <c r="I6" s="90" t="s">
         <v>97</v>
       </c>
-      <c r="J6" s="94" t="s">
+      <c r="J6" s="90" t="s">
         <v>173</v>
       </c>
-      <c r="K6" s="96"/>
-      <c r="L6" s="124">
+      <c r="K6" s="92"/>
+      <c r="L6" s="119">
         <v>41314</v>
       </c>
-      <c r="M6" s="124">
+      <c r="M6" s="119">
         <v>41383</v>
       </c>
-      <c r="N6" s="98">
+      <c r="N6" s="94">
         <f>IF(M6&gt;0,1,0)</f>
         <v>1</v>
       </c>
-      <c r="O6" s="111"/>
+      <c r="O6" s="106"/>
     </row>
     <row r="7" spans="1:15" ht="12">
-      <c r="A7" s="90">
+      <c r="A7" s="86">
         <v>3</v>
       </c>
-      <c r="B7" s="91">
+      <c r="B7" s="87">
         <v>3</v>
       </c>
-      <c r="C7" s="92" t="str">
-        <f>VLOOKUP(B7,Planificación!$B$13:$E$104,2,FALSE)</f>
+      <c r="C7" s="88" t="str">
+        <f>VLOOKUP(B7,Planificación!$B$13:$E$102,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D7" s="93" t="str">
-        <f>VLOOKUP(B7,Planificación!$B$13:$E$104,4,FALSE)</f>
+      <c r="D7" s="89" t="str">
+        <f>VLOOKUP(B7,Planificación!$B$13:$E$102,4,FALSE)</f>
         <v>Informe Quincenal</v>
       </c>
-      <c r="E7" s="92" t="str">
-        <f>VLOOKUP(B7,Planificación!$B$13:$G$104,5,FALSE)</f>
+      <c r="E7" s="88" t="str">
+        <f>VLOOKUP(B7,Planificación!$B$13:$G$102,5,FALSE)</f>
         <v>Michel Aguilar</v>
       </c>
-      <c r="F7" s="92" t="str">
-        <f>VLOOKUP(B7,Planificación!$B$13:$G$104,6,FALSE)</f>
+      <c r="F7" s="88" t="str">
+        <f>VLOOKUP(B7,Planificación!$B$13:$G$102,6,FALSE)</f>
         <v>Amira Lanao</v>
       </c>
-      <c r="G7" s="119" t="s">
+      <c r="G7" s="114" t="s">
         <v>164</v>
       </c>
-      <c r="H7" s="94"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="94"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="84"/>
-      <c r="N7" s="98">
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90" t="s">
+        <v>173</v>
+      </c>
+      <c r="K7" s="92"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="94">
         <f>IF(M7&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="O7" s="111"/>
+      <c r="O7" s="106"/>
     </row>
     <row r="8" spans="1:15" ht="24">
-      <c r="A8" s="90">
+      <c r="A8" s="86">
         <v>4</v>
       </c>
-      <c r="B8" s="91">
+      <c r="B8" s="87">
         <v>4</v>
       </c>
-      <c r="C8" s="92" t="str">
-        <f>VLOOKUP(B8,Planificación!$B$13:$E$104,2,FALSE)</f>
+      <c r="C8" s="88" t="str">
+        <f>VLOOKUP(B8,Planificación!$B$13:$E$102,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D8" s="93" t="str">
-        <f>VLOOKUP(B8,Planificación!$B$13:$E$104,4,FALSE)</f>
+      <c r="D8" s="89" t="str">
+        <f>VLOOKUP(B8,Planificación!$B$13:$E$102,4,FALSE)</f>
         <v>Informe Quincenal</v>
       </c>
-      <c r="E8" s="92" t="str">
-        <f>VLOOKUP(B8,Planificación!$B$13:$G$104,5,FALSE)</f>
+      <c r="E8" s="88" t="str">
+        <f>VLOOKUP(B8,Planificación!$B$13:$G$102,5,FALSE)</f>
         <v>Michel Aguilar</v>
       </c>
-      <c r="F8" s="92" t="str">
-        <f>VLOOKUP(B8,Planificación!$B$13:$G$104,6,FALSE)</f>
+      <c r="F8" s="88" t="str">
+        <f>VLOOKUP(B8,Planificación!$B$13:$G$102,6,FALSE)</f>
         <v>Amira Lanao</v>
       </c>
-      <c r="G8" s="119" t="s">
+      <c r="G8" s="114" t="s">
         <v>171</v>
       </c>
-      <c r="H8" s="94" t="s">
+      <c r="H8" s="90" t="s">
         <v>149</v>
       </c>
-      <c r="I8" s="94" t="s">
+      <c r="I8" s="90" t="s">
         <v>97</v>
       </c>
-      <c r="J8" s="94" t="s">
+      <c r="J8" s="90" t="s">
         <v>173</v>
       </c>
-      <c r="K8" s="96"/>
-      <c r="L8" s="124">
+      <c r="K8" s="92"/>
+      <c r="L8" s="119">
         <v>41319</v>
       </c>
-      <c r="M8" s="124">
+      <c r="M8" s="119">
         <v>41321</v>
       </c>
-      <c r="N8" s="98">
+      <c r="N8" s="94">
         <f>IF(M8&gt;0,1,0)</f>
         <v>1</v>
       </c>
-      <c r="O8" s="111"/>
+      <c r="O8" s="106"/>
     </row>
     <row r="9" spans="1:15" ht="24">
-      <c r="A9" s="90">
+      <c r="A9" s="86">
         <v>5</v>
       </c>
-      <c r="B9" s="91">
+      <c r="B9" s="87">
         <v>5</v>
       </c>
-      <c r="C9" s="92" t="str">
-        <f>VLOOKUP(B9,Planificación!$B$13:$E$104,2,FALSE)</f>
+      <c r="C9" s="88" t="str">
+        <f>VLOOKUP(B9,Planificación!$B$13:$E$102,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D9" s="93" t="str">
-        <f>VLOOKUP(B9,Planificación!$B$13:$E$104,4,FALSE)</f>
+      <c r="D9" s="89" t="str">
+        <f>VLOOKUP(B9,Planificación!$B$13:$E$102,4,FALSE)</f>
         <v xml:space="preserve">Metrica de Procentaje de Cumplimiento de Entregables </v>
       </c>
-      <c r="E9" s="92" t="str">
-        <f>VLOOKUP(B9,Planificación!$B$13:$G$104,5,FALSE)</f>
+      <c r="E9" s="88" t="str">
+        <f>VLOOKUP(B9,Planificación!$B$13:$G$102,5,FALSE)</f>
         <v>Michel Aguilar</v>
       </c>
-      <c r="F9" s="92" t="str">
-        <f>VLOOKUP(B9,Planificación!$B$13:$G$104,6,FALSE)</f>
+      <c r="F9" s="88" t="str">
+        <f>VLOOKUP(B9,Planificación!$B$13:$G$102,6,FALSE)</f>
         <v>Amira Lanao</v>
       </c>
-      <c r="G9" s="119" t="s">
+      <c r="G9" s="114" t="s">
         <v>164</v>
       </c>
-      <c r="H9" s="94"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="96"/>
-      <c r="L9" s="84"/>
-      <c r="M9" s="84"/>
-      <c r="N9" s="98">
+      <c r="H9" s="90"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="90" t="s">
+        <v>173</v>
+      </c>
+      <c r="K9" s="92"/>
+      <c r="L9" s="81"/>
+      <c r="M9" s="81"/>
+      <c r="N9" s="94">
         <f>IF(M9&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="O9" s="111"/>
+      <c r="O9" s="106"/>
     </row>
     <row r="10" spans="1:15" ht="12">
-      <c r="A10" s="90">
+      <c r="A10" s="86">
         <v>6</v>
       </c>
-      <c r="B10" s="91">
+      <c r="B10" s="87">
         <v>6</v>
       </c>
-      <c r="C10" s="92" t="str">
-        <f>VLOOKUP(B10,Planificación!$B$13:$E$104,2,FALSE)</f>
+      <c r="C10" s="88" t="str">
+        <f>VLOOKUP(B10,Planificación!$B$13:$E$102,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D10" s="93" t="str">
-        <f>VLOOKUP(B10,Planificación!$B$13:$E$104,4,FALSE)</f>
+      <c r="D10" s="89" t="str">
+        <f>VLOOKUP(B10,Planificación!$B$13:$E$102,4,FALSE)</f>
         <v>Registro de Riesgos</v>
       </c>
-      <c r="E10" s="92" t="str">
-        <f>VLOOKUP(B10,Planificación!$B$13:$G$104,5,FALSE)</f>
+      <c r="E10" s="88" t="str">
+        <f>VLOOKUP(B10,Planificación!$B$13:$G$102,5,FALSE)</f>
         <v>Michel Aguilar</v>
       </c>
-      <c r="F10" s="92" t="str">
-        <f>VLOOKUP(B10,Planificación!$B$13:$G$104,6,FALSE)</f>
+      <c r="F10" s="88" t="str">
+        <f>VLOOKUP(B10,Planificación!$B$13:$G$102,6,FALSE)</f>
         <v>Amira Lanao</v>
       </c>
-      <c r="G10" s="119" t="s">
+      <c r="G10" s="114" t="s">
         <v>164</v>
       </c>
-      <c r="H10" s="94"/>
-      <c r="I10" s="94"/>
-      <c r="J10" s="94"/>
-      <c r="K10" s="96"/>
-      <c r="L10" s="97"/>
-      <c r="M10" s="97"/>
-      <c r="N10" s="98">
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="90" t="s">
+        <v>173</v>
+      </c>
+      <c r="K10" s="92"/>
+      <c r="L10" s="93"/>
+      <c r="M10" s="93"/>
+      <c r="N10" s="94">
         <f t="shared" ref="N10:N15" si="0">IF(M10&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="O10" s="111"/>
+      <c r="O10" s="106"/>
     </row>
     <row r="11" spans="1:15" ht="12">
-      <c r="A11" s="90">
+      <c r="A11" s="86">
         <v>7</v>
       </c>
-      <c r="B11" s="91">
+      <c r="B11" s="87">
         <v>7</v>
       </c>
-      <c r="C11" s="92" t="str">
-        <f>VLOOKUP(B11,Planificación!$B$13:$E$104,2,FALSE)</f>
+      <c r="C11" s="88" t="str">
+        <f>VLOOKUP(B11,Planificación!$B$13:$E$102,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D11" s="93" t="str">
-        <f>VLOOKUP(B11,Planificación!$B$13:$E$104,4,FALSE)</f>
+      <c r="D11" s="89" t="str">
+        <f>VLOOKUP(B11,Planificación!$B$13:$E$102,4,FALSE)</f>
         <v>Modelaje Base de Datos</v>
       </c>
-      <c r="E11" s="92" t="str">
-        <f>VLOOKUP(B11,Planificación!$B$13:$G$104,5,FALSE)</f>
+      <c r="E11" s="88" t="str">
+        <f>VLOOKUP(B11,Planificación!$B$13:$G$102,5,FALSE)</f>
         <v>Michel Aguilar</v>
       </c>
-      <c r="F11" s="92" t="str">
-        <f>VLOOKUP(B11,Planificación!$B$13:$G$104,6,FALSE)</f>
+      <c r="F11" s="88" t="str">
+        <f>VLOOKUP(B11,Planificación!$B$13:$G$102,6,FALSE)</f>
         <v>Amira Lanao</v>
       </c>
-      <c r="G11" s="119" t="s">
+      <c r="G11" s="114" t="s">
         <v>164</v>
       </c>
-      <c r="H11" s="94"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="94"/>
-      <c r="K11" s="96"/>
-      <c r="L11" s="84"/>
-      <c r="M11" s="84"/>
-      <c r="N11" s="98">
+      <c r="H11" s="90"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="90" t="s">
+        <v>173</v>
+      </c>
+      <c r="K11" s="92"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O11" s="111"/>
+      <c r="O11" s="106"/>
     </row>
     <row r="12" spans="1:15" ht="24">
-      <c r="A12" s="90">
+      <c r="A12" s="86">
         <v>8</v>
       </c>
-      <c r="B12" s="91">
+      <c r="B12" s="87">
         <v>8</v>
       </c>
-      <c r="C12" s="92" t="str">
-        <f>VLOOKUP(B12,Planificación!$B$13:$E$104,2,FALSE)</f>
+      <c r="C12" s="88" t="str">
+        <f>VLOOKUP(B12,Planificación!$B$13:$E$102,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D12" s="93" t="str">
-        <f>VLOOKUP(B12,Planificación!$B$13:$E$104,4,FALSE)</f>
+      <c r="D12" s="89" t="str">
+        <f>VLOOKUP(B12,Planificación!$B$13:$E$102,4,FALSE)</f>
         <v>Desarrollo de Prototipos de Interfaces</v>
       </c>
-      <c r="E12" s="92" t="str">
-        <f>VLOOKUP(B12,Planificación!$B$13:$G$104,5,FALSE)</f>
+      <c r="E12" s="88" t="str">
+        <f>VLOOKUP(B12,Planificación!$B$13:$G$102,5,FALSE)</f>
         <v>Michel Aguilar</v>
       </c>
-      <c r="F12" s="92" t="str">
-        <f>VLOOKUP(B12,Planificación!$B$13:$G$104,6,FALSE)</f>
+      <c r="F12" s="88" t="str">
+        <f>VLOOKUP(B12,Planificación!$B$13:$G$102,6,FALSE)</f>
         <v>Amira Lanao</v>
       </c>
-      <c r="G12" s="119" t="s">
+      <c r="G12" s="114" t="s">
         <v>164</v>
       </c>
-      <c r="H12" s="94"/>
-      <c r="I12" s="94"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="97"/>
-      <c r="M12" s="97"/>
-      <c r="N12" s="98">
+      <c r="H12" s="90"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="90" t="s">
+        <v>173</v>
+      </c>
+      <c r="K12" s="92"/>
+      <c r="L12" s="93"/>
+      <c r="M12" s="93"/>
+      <c r="N12" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O12" s="111"/>
+      <c r="O12" s="106"/>
     </row>
     <row r="13" spans="1:15" ht="24">
-      <c r="A13" s="90">
+      <c r="A13" s="86">
         <v>9</v>
       </c>
-      <c r="B13" s="91">
+      <c r="B13" s="87">
         <v>9</v>
       </c>
-      <c r="C13" s="92" t="str">
-        <f>VLOOKUP(B13,Planificación!$B$13:$E$104,2,FALSE)</f>
+      <c r="C13" s="88" t="str">
+        <f>VLOOKUP(B13,Planificación!$B$13:$E$102,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D13" s="93" t="str">
-        <f>VLOOKUP(B13,Planificación!$B$13:$E$104,4,FALSE)</f>
+      <c r="D13" s="89" t="str">
+        <f>VLOOKUP(B13,Planificación!$B$13:$E$102,4,FALSE)</f>
         <v>Acta de Aceptacion de Entregables</v>
       </c>
-      <c r="E13" s="92" t="str">
-        <f>VLOOKUP(B13,Planificación!$B$13:$G$104,5,FALSE)</f>
+      <c r="E13" s="88" t="str">
+        <f>VLOOKUP(B13,Planificación!$B$13:$G$102,5,FALSE)</f>
         <v>Michel Aguilar</v>
       </c>
-      <c r="F13" s="92" t="str">
-        <f>VLOOKUP(B13,Planificación!$B$13:$G$104,6,FALSE)</f>
+      <c r="F13" s="88" t="str">
+        <f>VLOOKUP(B13,Planificación!$B$13:$G$102,6,FALSE)</f>
         <v>Amira Lanao</v>
       </c>
-      <c r="G13" s="95" t="s">
+      <c r="G13" s="91" t="s">
         <v>172</v>
       </c>
-      <c r="H13" s="94" t="s">
+      <c r="H13" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="94" t="s">
+      <c r="I13" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="J13" s="94" t="s">
+      <c r="J13" s="90" t="s">
         <v>173</v>
       </c>
-      <c r="K13" s="96"/>
-      <c r="L13" s="124">
+      <c r="K13" s="92"/>
+      <c r="L13" s="119">
         <v>41356</v>
       </c>
-      <c r="M13" s="124">
+      <c r="M13" s="119">
         <v>41356</v>
       </c>
-      <c r="N13" s="98">
+      <c r="N13" s="94">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O13" s="111"/>
+      <c r="O13" s="106"/>
     </row>
     <row r="14" spans="1:15" ht="22.5" customHeight="1">
-      <c r="A14" s="90">
+      <c r="A14" s="86">
         <v>10</v>
       </c>
-      <c r="B14" s="91">
+      <c r="B14" s="87">
         <v>10</v>
       </c>
-      <c r="C14" s="92" t="str">
-        <f>VLOOKUP(B14,Planificación!$B$13:$E$104,2,FALSE)</f>
+      <c r="C14" s="88" t="str">
+        <f>VLOOKUP(B14,Planificación!$B$13:$E$102,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D14" s="93" t="str">
-        <f>VLOOKUP(B14,Planificación!$B$13:$E$104,4,FALSE)</f>
+      <c r="D14" s="89" t="str">
+        <f>VLOOKUP(B14,Planificación!$B$13:$E$102,4,FALSE)</f>
         <v>Lista Maestra de Requerimientos</v>
       </c>
-      <c r="E14" s="92" t="str">
-        <f>VLOOKUP(B14,Planificación!$B$13:$G$104,5,FALSE)</f>
+      <c r="E14" s="88" t="str">
+        <f>VLOOKUP(B14,Planificación!$B$13:$G$102,5,FALSE)</f>
         <v>Michel Aguilar</v>
       </c>
-      <c r="F14" s="92" t="str">
-        <f>VLOOKUP(B14,Planificación!$B$13:$G$104,6,FALSE)</f>
+      <c r="F14" s="88" t="str">
+        <f>VLOOKUP(B14,Planificación!$B$13:$G$102,6,FALSE)</f>
         <v>Amira Lanao</v>
       </c>
-      <c r="G14" s="119" t="s">
+      <c r="G14" s="114" t="s">
         <v>164</v>
       </c>
-      <c r="H14" s="94"/>
-      <c r="I14" s="94"/>
-      <c r="J14" s="94"/>
-      <c r="K14" s="96"/>
-      <c r="L14" s="97"/>
-      <c r="M14" s="97"/>
-      <c r="N14" s="98">
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="90" t="s">
+        <v>173</v>
+      </c>
+      <c r="K14" s="92"/>
+      <c r="L14" s="93"/>
+      <c r="M14" s="93"/>
+      <c r="N14" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O14" s="111"/>
+      <c r="O14" s="106"/>
     </row>
     <row r="15" spans="1:15" ht="12">
-      <c r="A15" s="90">
+      <c r="A15" s="86">
         <v>11</v>
       </c>
-      <c r="B15" s="91">
+      <c r="B15" s="87">
         <v>11</v>
       </c>
-      <c r="C15" s="92" t="str">
-        <f>VLOOKUP(B15,Planificación!$B$13:$E$104,2,FALSE)</f>
+      <c r="C15" s="88" t="str">
+        <f>VLOOKUP(B15,Planificación!$B$13:$E$102,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D15" s="93" t="str">
-        <f>VLOOKUP(B15,Planificación!$B$13:$E$104,4,FALSE)</f>
+      <c r="D15" s="89" t="str">
+        <f>VLOOKUP(B15,Planificación!$B$13:$E$102,4,FALSE)</f>
         <v>Matriz de Trazabilidad</v>
       </c>
-      <c r="E15" s="92" t="str">
-        <f>VLOOKUP(B15,Planificación!$B$13:$G$104,5,FALSE)</f>
+      <c r="E15" s="88" t="str">
+        <f>VLOOKUP(B15,Planificación!$B$13:$G$102,5,FALSE)</f>
         <v>Michel Aguilar</v>
       </c>
-      <c r="F15" s="92" t="str">
-        <f>VLOOKUP(B15,Planificación!$B$13:$G$104,6,FALSE)</f>
+      <c r="F15" s="88" t="str">
+        <f>VLOOKUP(B15,Planificación!$B$13:$G$102,6,FALSE)</f>
         <v>Amira Lanao</v>
       </c>
-      <c r="G15" s="119" t="s">
+      <c r="G15" s="114" t="s">
         <v>164</v>
       </c>
-      <c r="H15" s="94"/>
-      <c r="I15" s="94"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="96"/>
-      <c r="L15" s="97"/>
-      <c r="M15" s="97"/>
-      <c r="N15" s="98">
+      <c r="H15" s="90"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="90" t="s">
+        <v>173</v>
+      </c>
+      <c r="K15" s="92"/>
+      <c r="L15" s="93"/>
+      <c r="M15" s="93"/>
+      <c r="N15" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O15" s="111"/>
+      <c r="O15" s="106"/>
     </row>
     <row r="16" spans="1:15" ht="12">
-      <c r="A16" s="90">
+      <c r="A16" s="86">
         <v>12</v>
       </c>
-      <c r="B16" s="91">
+      <c r="B16" s="87">
         <v>12</v>
       </c>
-      <c r="C16" s="92" t="str">
-        <f>VLOOKUP(B16,Planificación!$B$13:$E$104,2,FALSE)</f>
+      <c r="C16" s="88" t="str">
+        <f>VLOOKUP(B16,Planificación!$B$13:$E$102,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D16" s="93" t="str">
-        <f>VLOOKUP(B16,Planificación!$B$13:$E$104,4,FALSE)</f>
+      <c r="D16" s="89" t="str">
+        <f>VLOOKUP(B16,Planificación!$B$13:$E$102,4,FALSE)</f>
         <v>Casos de Uso</v>
       </c>
-      <c r="E16" s="92" t="str">
-        <f>VLOOKUP(B16,Planificación!$B$13:$G$104,5,FALSE)</f>
+      <c r="E16" s="88" t="str">
+        <f>VLOOKUP(B16,Planificación!$B$13:$G$102,5,FALSE)</f>
         <v>Michel Aguilar</v>
       </c>
-      <c r="F16" s="92" t="str">
-        <f>VLOOKUP(B16,Planificación!$B$13:$G$104,6,FALSE)</f>
+      <c r="F16" s="88" t="str">
+        <f>VLOOKUP(B16,Planificación!$B$13:$G$102,6,FALSE)</f>
         <v>Amira Lanao</v>
       </c>
-      <c r="G16" s="119" t="s">
+      <c r="G16" s="114" t="s">
         <v>164</v>
       </c>
-      <c r="H16" s="94"/>
-      <c r="I16" s="94"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="96"/>
-      <c r="L16" s="97"/>
-      <c r="M16" s="97"/>
-      <c r="N16" s="98">
+      <c r="H16" s="90"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="90" t="s">
+        <v>173</v>
+      </c>
+      <c r="K16" s="92"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="93"/>
+      <c r="N16" s="94">
         <f t="shared" ref="N16" si="1">IF(M16&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="O16" s="111"/>
+      <c r="O16" s="106"/>
     </row>
     <row r="17" spans="1:15" ht="12">
-      <c r="A17" s="90">
+      <c r="A17" s="86">
         <v>13</v>
       </c>
-      <c r="B17" s="91">
+      <c r="B17" s="87">
         <v>13</v>
       </c>
-      <c r="C17" s="92" t="str">
-        <f>VLOOKUP(B17,Planificación!$B$13:$E$104,2,FALSE)</f>
+      <c r="C17" s="88" t="str">
+        <f>VLOOKUP(B17,Planificación!$B$13:$E$102,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D17" s="93" t="str">
-        <f>VLOOKUP(B17,Planificación!$B$13:$E$104,4,FALSE)</f>
+      <c r="D17" s="89" t="str">
+        <f>VLOOKUP(B17,Planificación!$B$13:$E$102,4,FALSE)</f>
         <v>Diagrama de Casos de Uso</v>
       </c>
-      <c r="E17" s="92" t="str">
-        <f>VLOOKUP(B17,Planificación!$B$13:$G$104,5,FALSE)</f>
+      <c r="E17" s="88" t="str">
+        <f>VLOOKUP(B17,Planificación!$B$13:$G$102,5,FALSE)</f>
         <v>Michel Aguilar</v>
       </c>
-      <c r="F17" s="92" t="str">
-        <f>VLOOKUP(B17,Planificación!$B$13:$G$104,6,FALSE)</f>
+      <c r="F17" s="88" t="str">
+        <f>VLOOKUP(B17,Planificación!$B$13:$G$102,6,FALSE)</f>
         <v>Amira Lanao</v>
       </c>
-      <c r="G17" s="119"/>
-      <c r="H17" s="94"/>
-      <c r="I17" s="94"/>
-      <c r="J17" s="94"/>
-      <c r="K17" s="96"/>
-      <c r="L17" s="97"/>
-      <c r="M17" s="97"/>
-      <c r="N17" s="98"/>
-      <c r="O17" s="111"/>
+      <c r="G17" s="114"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="90" t="s">
+        <v>173</v>
+      </c>
+      <c r="K17" s="92"/>
+      <c r="L17" s="93"/>
+      <c r="M17" s="93"/>
+      <c r="N17" s="94"/>
+      <c r="O17" s="106"/>
     </row>
     <row r="18" spans="1:15" ht="24">
-      <c r="A18" s="90">
+      <c r="A18" s="86">
         <v>14</v>
       </c>
-      <c r="B18" s="91">
+      <c r="B18" s="87">
         <v>14</v>
       </c>
-      <c r="C18" s="92" t="str">
-        <f>VLOOKUP(B18,Planificación!$B$13:$E$104,2,FALSE)</f>
+      <c r="C18" s="88" t="str">
+        <f>VLOOKUP(B18,Planificación!$B$13:$E$102,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D18" s="93" t="str">
-        <f>VLOOKUP(B18,Planificación!$B$13:$E$104,4,FALSE)</f>
+      <c r="D18" s="89" t="str">
+        <f>VLOOKUP(B18,Planificación!$B$13:$E$102,4,FALSE)</f>
         <v>Metrica de Volatibilidad de Requerimientos</v>
       </c>
-      <c r="E18" s="92" t="str">
-        <f>VLOOKUP(B18,Planificación!$B$13:$G$104,5,FALSE)</f>
+      <c r="E18" s="88" t="str">
+        <f>VLOOKUP(B18,Planificación!$B$13:$G$102,5,FALSE)</f>
         <v>Michel Aguilar</v>
       </c>
-      <c r="F18" s="92" t="str">
-        <f>VLOOKUP(B18,Planificación!$B$13:$G$104,6,FALSE)</f>
+      <c r="F18" s="88" t="str">
+        <f>VLOOKUP(B18,Planificación!$B$13:$G$102,6,FALSE)</f>
         <v>Amira Lanao</v>
       </c>
-      <c r="G18" s="119"/>
-      <c r="H18" s="94"/>
-      <c r="I18" s="94"/>
-      <c r="J18" s="94"/>
-      <c r="K18" s="96"/>
-      <c r="L18" s="97"/>
-      <c r="M18" s="97"/>
-      <c r="N18" s="98"/>
-      <c r="O18" s="111"/>
+      <c r="G18" s="114"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="90" t="s">
+        <v>173</v>
+      </c>
+      <c r="K18" s="92"/>
+      <c r="L18" s="93"/>
+      <c r="M18" s="93"/>
+      <c r="N18" s="94"/>
+      <c r="O18" s="106"/>
     </row>
     <row r="19" spans="1:15" ht="12">
-      <c r="A19" s="90">
+      <c r="A19" s="86">
         <v>15</v>
       </c>
-      <c r="B19" s="91">
+      <c r="B19" s="87">
         <v>15</v>
       </c>
-      <c r="C19" s="92" t="str">
-        <f>VLOOKUP(B19,Planificación!$B$13:$E$104,2,FALSE)</f>
+      <c r="C19" s="88" t="str">
+        <f>VLOOKUP(B19,Planificación!$B$13:$E$102,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D19" s="93" t="str">
-        <f>VLOOKUP(B19,Planificación!$B$13:$E$104,4,FALSE)</f>
+      <c r="D19" s="89" t="str">
+        <f>VLOOKUP(B19,Planificación!$B$13:$E$102,4,FALSE)</f>
         <v>Informe Quincenal</v>
       </c>
-      <c r="E19" s="92" t="str">
-        <f>VLOOKUP(B19,Planificación!$B$13:$G$104,5,FALSE)</f>
+      <c r="E19" s="88" t="str">
+        <f>VLOOKUP(B19,Planificación!$B$13:$G$102,5,FALSE)</f>
         <v>Michel Aguilar</v>
       </c>
-      <c r="F19" s="92" t="str">
-        <f>VLOOKUP(B19,Planificación!$B$13:$G$104,6,FALSE)</f>
+      <c r="F19" s="88" t="str">
+        <f>VLOOKUP(B19,Planificación!$B$13:$G$102,6,FALSE)</f>
         <v>Amira Lanao</v>
       </c>
-      <c r="G19" s="119"/>
-      <c r="H19" s="94"/>
-      <c r="I19" s="94"/>
-      <c r="J19" s="94"/>
-      <c r="K19" s="96"/>
-      <c r="L19" s="97"/>
-      <c r="M19" s="97"/>
-      <c r="N19" s="98"/>
-      <c r="O19" s="111"/>
+      <c r="G19" s="114"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="90"/>
+      <c r="J19" s="90" t="s">
+        <v>173</v>
+      </c>
+      <c r="K19" s="92"/>
+      <c r="L19" s="93"/>
+      <c r="M19" s="93"/>
+      <c r="N19" s="94"/>
+      <c r="O19" s="106"/>
     </row>
     <row r="20" spans="1:15" ht="12">
-      <c r="A20" s="90">
+      <c r="A20" s="86">
         <v>16</v>
       </c>
-      <c r="B20" s="91">
+      <c r="B20" s="87">
         <v>16</v>
       </c>
-      <c r="C20" s="92" t="str">
-        <f>VLOOKUP(B20,Planificación!$B$13:$E$104,2,FALSE)</f>
+      <c r="C20" s="88" t="str">
+        <f>VLOOKUP(B20,Planificación!$B$13:$E$102,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D20" s="93" t="str">
-        <f>VLOOKUP(B20,Planificación!$B$13:$E$104,4,FALSE)</f>
+      <c r="D20" s="89" t="str">
+        <f>VLOOKUP(B20,Planificación!$B$13:$E$102,4,FALSE)</f>
         <v>Informe Quincenal</v>
       </c>
-      <c r="E20" s="92" t="str">
-        <f>VLOOKUP(B20,Planificación!$B$13:$G$104,5,FALSE)</f>
+      <c r="E20" s="88" t="str">
+        <f>VLOOKUP(B20,Planificación!$B$13:$G$102,5,FALSE)</f>
         <v>Michel Aguilar</v>
       </c>
-      <c r="F20" s="92" t="str">
-        <f>VLOOKUP(B20,Planificación!$B$13:$G$104,6,FALSE)</f>
+      <c r="F20" s="88" t="str">
+        <f>VLOOKUP(B20,Planificación!$B$13:$G$102,6,FALSE)</f>
         <v>Amira Lanao</v>
       </c>
-      <c r="G20" s="119"/>
-      <c r="H20" s="94"/>
-      <c r="I20" s="94"/>
-      <c r="J20" s="94"/>
-      <c r="K20" s="96"/>
-      <c r="L20" s="97"/>
-      <c r="M20" s="97"/>
-      <c r="N20" s="98"/>
-      <c r="O20" s="111"/>
+      <c r="G20" s="114"/>
+      <c r="H20" s="90"/>
+      <c r="I20" s="90"/>
+      <c r="J20" s="90" t="s">
+        <v>173</v>
+      </c>
+      <c r="K20" s="92"/>
+      <c r="L20" s="93"/>
+      <c r="M20" s="93"/>
+      <c r="N20" s="94"/>
+      <c r="O20" s="106"/>
     </row>
     <row r="21" spans="1:15" ht="12">
-      <c r="A21" s="90">
+      <c r="A21" s="86">
         <v>17</v>
       </c>
-      <c r="B21" s="91">
+      <c r="B21" s="87">
         <v>17</v>
       </c>
-      <c r="C21" s="92" t="str">
-        <f>VLOOKUP(B21,Planificación!$B$13:$E$104,2,FALSE)</f>
+      <c r="C21" s="88" t="str">
+        <f>VLOOKUP(B21,Planificación!$B$13:$E$102,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D21" s="93" t="str">
-        <f>VLOOKUP(B21,Planificación!$B$13:$E$104,4,FALSE)</f>
+      <c r="D21" s="89" t="str">
+        <f>VLOOKUP(B21,Planificación!$B$13:$E$102,4,FALSE)</f>
         <v>Registros de Riesgos</v>
       </c>
-      <c r="E21" s="92" t="str">
-        <f>VLOOKUP(B21,Planificación!$B$13:$G$104,5,FALSE)</f>
+      <c r="E21" s="88" t="str">
+        <f>VLOOKUP(B21,Planificación!$B$13:$G$102,5,FALSE)</f>
         <v>Michel Aguilar</v>
       </c>
-      <c r="F21" s="92" t="str">
-        <f>VLOOKUP(B21,Planificación!$B$13:$G$104,6,FALSE)</f>
+      <c r="F21" s="88" t="str">
+        <f>VLOOKUP(B21,Planificación!$B$13:$G$102,6,FALSE)</f>
         <v>Amira Lanao</v>
       </c>
-      <c r="G21" s="119"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="96"/>
-      <c r="L21" s="97"/>
-      <c r="M21" s="97"/>
-      <c r="N21" s="98"/>
-      <c r="O21" s="111"/>
+      <c r="G21" s="114"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="90" t="s">
+        <v>173</v>
+      </c>
+      <c r="K21" s="92"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
+      <c r="N21" s="94"/>
+      <c r="O21" s="106"/>
     </row>
     <row r="22" spans="1:15" ht="12">
-      <c r="A22" s="90">
+      <c r="A22" s="86">
         <v>18</v>
       </c>
-      <c r="B22" s="91">
+      <c r="B22" s="87">
         <v>18</v>
       </c>
-      <c r="C22" s="92" t="str">
-        <f>VLOOKUP(B22,Planificación!$B$13:$E$104,2,FALSE)</f>
+      <c r="C22" s="88" t="str">
+        <f>VLOOKUP(B22,Planificación!$B$13:$E$102,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D22" s="93" t="str">
-        <f>VLOOKUP(B22,Planificación!$B$13:$E$104,4,FALSE)</f>
+      <c r="D22" s="89" t="str">
+        <f>VLOOKUP(B22,Planificación!$B$13:$E$102,4,FALSE)</f>
         <v>Desarrollo de Logica de Negocio</v>
       </c>
-      <c r="E22" s="92" t="str">
-        <f>VLOOKUP(B22,Planificación!$B$13:$G$104,5,FALSE)</f>
+      <c r="E22" s="88" t="str">
+        <f>VLOOKUP(B22,Planificación!$B$13:$G$102,5,FALSE)</f>
         <v>Michel Aguilar</v>
       </c>
-      <c r="F22" s="92" t="str">
-        <f>VLOOKUP(B22,Planificación!$B$13:$G$104,6,FALSE)</f>
+      <c r="F22" s="88" t="str">
+        <f>VLOOKUP(B22,Planificación!$B$13:$G$102,6,FALSE)</f>
         <v>Amira Lanao</v>
       </c>
-      <c r="G22" s="119"/>
-      <c r="H22" s="94"/>
-      <c r="I22" s="94"/>
-      <c r="J22" s="94"/>
-      <c r="K22" s="96"/>
-      <c r="L22" s="97"/>
-      <c r="M22" s="97"/>
-      <c r="N22" s="98"/>
-      <c r="O22" s="111"/>
+      <c r="G22" s="114"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="90" t="s">
+        <v>173</v>
+      </c>
+      <c r="K22" s="92"/>
+      <c r="L22" s="93"/>
+      <c r="M22" s="93"/>
+      <c r="N22" s="94"/>
+      <c r="O22" s="106"/>
     </row>
     <row r="23" spans="1:15" ht="24">
-      <c r="A23" s="90">
+      <c r="A23" s="86">
         <v>19</v>
       </c>
-      <c r="B23" s="91">
+      <c r="B23" s="87">
         <v>19</v>
       </c>
-      <c r="C23" s="92" t="str">
-        <f>VLOOKUP(B23,Planificación!$B$13:$E$104,2,FALSE)</f>
+      <c r="C23" s="88" t="str">
+        <f>VLOOKUP(B23,Planificación!$B$13:$E$102,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D23" s="93" t="str">
-        <f>VLOOKUP(B23,Planificación!$B$13:$E$104,4,FALSE)</f>
+      <c r="D23" s="89" t="str">
+        <f>VLOOKUP(B23,Planificación!$B$13:$E$102,4,FALSE)</f>
         <v>Acta de Aceptacion de Entregables</v>
       </c>
-      <c r="E23" s="92" t="str">
-        <f>VLOOKUP(B23,Planificación!$B$13:$G$104,5,FALSE)</f>
+      <c r="E23" s="88" t="str">
+        <f>VLOOKUP(B23,Planificación!$B$13:$G$102,5,FALSE)</f>
         <v>Michel Aguilar</v>
       </c>
-      <c r="F23" s="92" t="str">
-        <f>VLOOKUP(B23,Planificación!$B$13:$G$104,6,FALSE)</f>
+      <c r="F23" s="88" t="str">
+        <f>VLOOKUP(B23,Planificación!$B$13:$G$102,6,FALSE)</f>
         <v>Amira Lanao</v>
       </c>
-      <c r="G23" s="119"/>
-      <c r="H23" s="94"/>
-      <c r="I23" s="94"/>
-      <c r="J23" s="94"/>
-      <c r="K23" s="96"/>
-      <c r="L23" s="97"/>
-      <c r="M23" s="97"/>
-      <c r="N23" s="98"/>
-      <c r="O23" s="111"/>
+      <c r="G23" s="114"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="90"/>
+      <c r="J23" s="90" t="s">
+        <v>173</v>
+      </c>
+      <c r="K23" s="92"/>
+      <c r="L23" s="93"/>
+      <c r="M23" s="93"/>
+      <c r="N23" s="94"/>
+      <c r="O23" s="106"/>
     </row>
     <row r="24" spans="1:15" ht="12">
-      <c r="A24" s="90">
+      <c r="A24" s="86">
         <v>20</v>
       </c>
-      <c r="B24" s="91">
+      <c r="B24" s="87">
         <v>20</v>
       </c>
-      <c r="C24" s="92" t="str">
-        <f>VLOOKUP(B24,Planificación!$B$13:$E$104,2,FALSE)</f>
+      <c r="C24" s="88" t="str">
+        <f>VLOOKUP(B24,Planificación!$B$13:$E$102,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D24" s="93" t="str">
-        <f>VLOOKUP(B24,Planificación!$B$13:$E$104,4,FALSE)</f>
+      <c r="D24" s="89" t="str">
+        <f>VLOOKUP(B24,Planificación!$B$13:$E$102,4,FALSE)</f>
         <v>Herramienta de Gestión</v>
       </c>
-      <c r="E24" s="92" t="str">
-        <f>VLOOKUP(B24,Planificación!$B$13:$G$104,5,FALSE)</f>
+      <c r="E24" s="88" t="str">
+        <f>VLOOKUP(B24,Planificación!$B$13:$G$102,5,FALSE)</f>
         <v>Michel Aguilar</v>
       </c>
-      <c r="F24" s="92" t="str">
-        <f>VLOOKUP(B24,Planificación!$B$13:$G$104,6,FALSE)</f>
+      <c r="F24" s="88" t="str">
+        <f>VLOOKUP(B24,Planificación!$B$13:$G$102,6,FALSE)</f>
         <v>Amira Lanao</v>
       </c>
-      <c r="G24" s="119"/>
-      <c r="H24" s="94"/>
-      <c r="I24" s="94"/>
-      <c r="J24" s="94"/>
-      <c r="K24" s="96"/>
-      <c r="L24" s="97"/>
-      <c r="M24" s="97"/>
-      <c r="N24" s="98"/>
-      <c r="O24" s="111"/>
+      <c r="G24" s="114"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="90"/>
+      <c r="J24" s="90" t="s">
+        <v>173</v>
+      </c>
+      <c r="K24" s="92"/>
+      <c r="L24" s="93"/>
+      <c r="M24" s="93"/>
+      <c r="N24" s="94"/>
+      <c r="O24" s="106"/>
     </row>
     <row r="25" spans="1:15" ht="24">
-      <c r="A25" s="90">
+      <c r="A25" s="86">
         <v>21</v>
       </c>
-      <c r="B25" s="91">
+      <c r="B25" s="87">
         <v>21</v>
       </c>
-      <c r="C25" s="92" t="str">
-        <f>VLOOKUP(B25,Planificación!$B$13:$E$104,2,FALSE)</f>
+      <c r="C25" s="88" t="str">
+        <f>VLOOKUP(B25,Planificación!$B$13:$E$102,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D25" s="93" t="str">
-        <f>VLOOKUP(B25,Planificación!$B$13:$E$104,4,FALSE)</f>
+      <c r="D25" s="89" t="str">
+        <f>VLOOKUP(B25,Planificación!$B$13:$E$102,4,FALSE)</f>
         <v>Numero de no Conformidades (Metrica)</v>
       </c>
-      <c r="E25" s="92" t="str">
-        <f>VLOOKUP(B25,Planificación!$B$13:$G$104,5,FALSE)</f>
+      <c r="E25" s="88" t="str">
+        <f>VLOOKUP(B25,Planificación!$B$13:$G$102,5,FALSE)</f>
         <v>Michel Aguilar</v>
       </c>
-      <c r="F25" s="92" t="str">
-        <f>VLOOKUP(B25,Planificación!$B$13:$G$104,6,FALSE)</f>
+      <c r="F25" s="88" t="str">
+        <f>VLOOKUP(B25,Planificación!$B$13:$G$102,6,FALSE)</f>
         <v>Amira Lanao</v>
       </c>
-      <c r="G25" s="119"/>
-      <c r="H25" s="94"/>
-      <c r="I25" s="94"/>
-      <c r="J25" s="94"/>
-      <c r="K25" s="96"/>
-      <c r="L25" s="97"/>
-      <c r="M25" s="97"/>
-      <c r="N25" s="98"/>
-      <c r="O25" s="111"/>
+      <c r="G25" s="114"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="90" t="s">
+        <v>173</v>
+      </c>
+      <c r="K25" s="92"/>
+      <c r="L25" s="93"/>
+      <c r="M25" s="93"/>
+      <c r="N25" s="94"/>
+      <c r="O25" s="106"/>
     </row>
     <row r="26" spans="1:15" ht="24">
-      <c r="A26" s="90">
+      <c r="A26" s="86">
         <v>22</v>
       </c>
-      <c r="B26" s="91">
+      <c r="B26" s="87">
         <v>22</v>
       </c>
-      <c r="C26" s="92" t="str">
-        <f>VLOOKUP(B26,Planificación!$B$13:$E$104,2,FALSE)</f>
+      <c r="C26" s="88" t="str">
+        <f>VLOOKUP(B26,Planificación!$B$13:$E$102,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D26" s="93" t="str">
-        <f>VLOOKUP(B26,Planificación!$B$13:$E$104,4,FALSE)</f>
+      <c r="D26" s="89" t="str">
+        <f>VLOOKUP(B26,Planificación!$B$13:$E$102,4,FALSE)</f>
         <v xml:space="preserve">Checklist de Aseguramiento de Calidad </v>
       </c>
-      <c r="E26" s="92" t="str">
-        <f>VLOOKUP(B26,Planificación!$B$13:$G$104,5,FALSE)</f>
+      <c r="E26" s="88" t="str">
+        <f>VLOOKUP(B26,Planificación!$B$13:$G$102,5,FALSE)</f>
         <v>Michel Aguilar</v>
       </c>
-      <c r="F26" s="92" t="str">
-        <f>VLOOKUP(B26,Planificación!$B$13:$G$104,6,FALSE)</f>
+      <c r="F26" s="88" t="str">
+        <f>VLOOKUP(B26,Planificación!$B$13:$G$102,6,FALSE)</f>
         <v>Amira Lanao</v>
       </c>
-      <c r="G26" s="119"/>
-      <c r="H26" s="94"/>
-      <c r="I26" s="94"/>
-      <c r="J26" s="94"/>
-      <c r="K26" s="96"/>
-      <c r="L26" s="97"/>
-      <c r="M26" s="97"/>
-      <c r="N26" s="98"/>
-      <c r="O26" s="111"/>
+      <c r="G26" s="114"/>
+      <c r="H26" s="90"/>
+      <c r="I26" s="90"/>
+      <c r="J26" s="90" t="s">
+        <v>173</v>
+      </c>
+      <c r="K26" s="92"/>
+      <c r="L26" s="93"/>
+      <c r="M26" s="93"/>
+      <c r="N26" s="94"/>
+      <c r="O26" s="106"/>
     </row>
     <row r="27" spans="1:15" ht="12">
-      <c r="A27" s="90">
+      <c r="A27" s="86">
         <v>23</v>
       </c>
-      <c r="B27" s="91">
+      <c r="B27" s="87">
         <v>23</v>
       </c>
-      <c r="C27" s="92" t="str">
-        <f>VLOOKUP(B27,Planificación!$B$13:$E$104,2,FALSE)</f>
+      <c r="C27" s="88" t="str">
+        <f>VLOOKUP(B27,Planificación!$B$13:$E$102,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D27" s="93" t="str">
-        <f>VLOOKUP(B27,Planificación!$B$13:$E$104,4,FALSE)</f>
+      <c r="D27" s="89" t="str">
+        <f>VLOOKUP(B27,Planificación!$B$13:$E$102,4,FALSE)</f>
         <v>Matriz de Seguimiento</v>
       </c>
-      <c r="E27" s="92" t="str">
-        <f>VLOOKUP(B27,Planificación!$B$13:$G$104,5,FALSE)</f>
+      <c r="E27" s="88" t="str">
+        <f>VLOOKUP(B27,Planificación!$B$13:$G$102,5,FALSE)</f>
         <v>Michel Aguilar</v>
       </c>
-      <c r="F27" s="92" t="str">
-        <f>VLOOKUP(B27,Planificación!$B$13:$G$104,6,FALSE)</f>
+      <c r="F27" s="88" t="str">
+        <f>VLOOKUP(B27,Planificación!$B$13:$G$102,6,FALSE)</f>
         <v>Amira Lanao</v>
       </c>
-      <c r="G27" s="119"/>
-      <c r="H27" s="94"/>
-      <c r="I27" s="94"/>
-      <c r="J27" s="94"/>
-      <c r="K27" s="96"/>
-      <c r="L27" s="97"/>
-      <c r="M27" s="97"/>
-      <c r="N27" s="98"/>
-      <c r="O27" s="111"/>
+      <c r="G27" s="114"/>
+      <c r="H27" s="90"/>
+      <c r="I27" s="90"/>
+      <c r="J27" s="90" t="s">
+        <v>173</v>
+      </c>
+      <c r="K27" s="92"/>
+      <c r="L27" s="93"/>
+      <c r="M27" s="93"/>
+      <c r="N27" s="94"/>
+      <c r="O27" s="106"/>
     </row>
     <row r="28" spans="1:15" ht="24">
-      <c r="A28" s="90">
+      <c r="A28" s="86">
         <v>24</v>
       </c>
-      <c r="B28" s="91">
+      <c r="B28" s="87">
         <v>24</v>
       </c>
-      <c r="C28" s="92" t="str">
-        <f>VLOOKUP(B28,Planificación!$B$13:$E$104,2,FALSE)</f>
+      <c r="C28" s="88" t="str">
+        <f>VLOOKUP(B28,Planificación!$B$13:$E$102,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D28" s="93" t="str">
-        <f>VLOOKUP(B28,Planificación!$B$13:$E$104,4,FALSE)</f>
+      <c r="D28" s="89" t="str">
+        <f>VLOOKUP(B28,Planificación!$B$13:$E$102,4,FALSE)</f>
         <v>Lista Maestra de Requerimientos Actualizada</v>
       </c>
-      <c r="E28" s="92" t="str">
-        <f>VLOOKUP(B28,Planificación!$B$13:$G$104,5,FALSE)</f>
+      <c r="E28" s="88" t="str">
+        <f>VLOOKUP(B28,Planificación!$B$13:$G$102,5,FALSE)</f>
         <v>Michel Aguilar</v>
       </c>
-      <c r="F28" s="92" t="str">
-        <f>VLOOKUP(B28,Planificación!$B$13:$G$104,6,FALSE)</f>
+      <c r="F28" s="88" t="str">
+        <f>VLOOKUP(B28,Planificación!$B$13:$G$102,6,FALSE)</f>
         <v>Amira Lanao</v>
       </c>
-      <c r="G28" s="119"/>
-      <c r="H28" s="94"/>
-      <c r="I28" s="94"/>
-      <c r="J28" s="94"/>
-      <c r="K28" s="96"/>
-      <c r="L28" s="97"/>
-      <c r="M28" s="97"/>
-      <c r="N28" s="98"/>
-      <c r="O28" s="111"/>
+      <c r="G28" s="114"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="90"/>
+      <c r="J28" s="90" t="s">
+        <v>173</v>
+      </c>
+      <c r="K28" s="92"/>
+      <c r="L28" s="93"/>
+      <c r="M28" s="93"/>
+      <c r="N28" s="94"/>
+      <c r="O28" s="106"/>
     </row>
     <row r="29" spans="1:15" ht="12">
-      <c r="A29" s="90">
+      <c r="A29" s="86">
         <v>25</v>
       </c>
-      <c r="B29" s="91">
+      <c r="B29" s="87">
         <v>25</v>
       </c>
-      <c r="C29" s="92" t="str">
-        <f>VLOOKUP(B29,Planificación!$B$13:$E$104,2,FALSE)</f>
+      <c r="C29" s="88" t="str">
+        <f>VLOOKUP(B29,Planificación!$B$13:$E$102,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D29" s="93" t="str">
-        <f>VLOOKUP(B29,Planificación!$B$13:$E$104,4,FALSE)</f>
+      <c r="D29" s="89" t="str">
+        <f>VLOOKUP(B29,Planificación!$B$13:$E$102,4,FALSE)</f>
         <v>Informe Quincenal</v>
       </c>
-      <c r="E29" s="92" t="str">
-        <f>VLOOKUP(B29,Planificación!$B$13:$G$104,5,FALSE)</f>
+      <c r="E29" s="88" t="str">
+        <f>VLOOKUP(B29,Planificación!$B$13:$G$102,5,FALSE)</f>
         <v>Michel Aguilar</v>
       </c>
-      <c r="F29" s="92" t="str">
-        <f>VLOOKUP(B29,Planificación!$B$13:$G$104,6,FALSE)</f>
+      <c r="F29" s="88" t="str">
+        <f>VLOOKUP(B29,Planificación!$B$13:$G$102,6,FALSE)</f>
         <v>Amira Lanao</v>
       </c>
-      <c r="G29" s="119"/>
-      <c r="H29" s="94"/>
-      <c r="I29" s="94"/>
-      <c r="J29" s="94"/>
-      <c r="K29" s="96"/>
-      <c r="L29" s="97"/>
-      <c r="M29" s="97"/>
-      <c r="N29" s="98"/>
-      <c r="O29" s="111"/>
+      <c r="G29" s="114"/>
+      <c r="H29" s="90"/>
+      <c r="I29" s="90"/>
+      <c r="J29" s="90" t="s">
+        <v>173</v>
+      </c>
+      <c r="K29" s="92"/>
+      <c r="L29" s="93"/>
+      <c r="M29" s="93"/>
+      <c r="N29" s="94"/>
+      <c r="O29" s="106"/>
     </row>
     <row r="30" spans="1:15" ht="12">
-      <c r="A30" s="90">
+      <c r="A30" s="86">
         <v>26</v>
       </c>
-      <c r="B30" s="91">
+      <c r="B30" s="87">
         <v>26</v>
       </c>
-      <c r="C30" s="92" t="str">
-        <f>VLOOKUP(B30,Planificación!$B$13:$E$104,2,FALSE)</f>
+      <c r="C30" s="88" t="str">
+        <f>VLOOKUP(B30,Planificación!$B$13:$E$102,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D30" s="93" t="str">
-        <f>VLOOKUP(B30,Planificación!$B$13:$E$104,4,FALSE)</f>
+      <c r="D30" s="89" t="str">
+        <f>VLOOKUP(B30,Planificación!$B$13:$E$102,4,FALSE)</f>
         <v>Informe Quincenal</v>
       </c>
-      <c r="E30" s="92" t="str">
-        <f>VLOOKUP(B30,Planificación!$B$13:$G$104,5,FALSE)</f>
+      <c r="E30" s="88" t="str">
+        <f>VLOOKUP(B30,Planificación!$B$13:$G$102,5,FALSE)</f>
         <v>Michel Aguilar</v>
       </c>
-      <c r="F30" s="92" t="str">
-        <f>VLOOKUP(B30,Planificación!$B$13:$G$104,6,FALSE)</f>
+      <c r="F30" s="88" t="str">
+        <f>VLOOKUP(B30,Planificación!$B$13:$G$102,6,FALSE)</f>
         <v>Amira Lanao</v>
       </c>
-      <c r="G30" s="119"/>
-      <c r="H30" s="94"/>
-      <c r="I30" s="94"/>
-      <c r="J30" s="94"/>
-      <c r="K30" s="96"/>
-      <c r="L30" s="97"/>
-      <c r="M30" s="97"/>
-      <c r="N30" s="98"/>
-      <c r="O30" s="111"/>
+      <c r="G30" s="114"/>
+      <c r="H30" s="90"/>
+      <c r="I30" s="90"/>
+      <c r="J30" s="90" t="s">
+        <v>173</v>
+      </c>
+      <c r="K30" s="92"/>
+      <c r="L30" s="93"/>
+      <c r="M30" s="93"/>
+      <c r="N30" s="94"/>
+      <c r="O30" s="106"/>
     </row>
     <row r="31" spans="1:15" ht="12">
-      <c r="A31" s="90">
+      <c r="A31" s="86">
         <v>27</v>
       </c>
-      <c r="B31" s="91">
+      <c r="B31" s="87">
         <v>27</v>
       </c>
-      <c r="C31" s="92" t="str">
-        <f>VLOOKUP(B31,Planificación!$B$13:$E$104,2,FALSE)</f>
+      <c r="C31" s="88" t="str">
+        <f>VLOOKUP(B31,Planificación!$B$13:$E$102,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D31" s="93" t="str">
-        <f>VLOOKUP(B31,Planificación!$B$13:$E$104,4,FALSE)</f>
+      <c r="D31" s="89" t="str">
+        <f>VLOOKUP(B31,Planificación!$B$13:$E$102,4,FALSE)</f>
         <v>Registros de Riesgos</v>
       </c>
-      <c r="E31" s="92" t="str">
-        <f>VLOOKUP(B31,Planificación!$B$13:$G$104,5,FALSE)</f>
+      <c r="E31" s="88" t="str">
+        <f>VLOOKUP(B31,Planificación!$B$13:$G$102,5,FALSE)</f>
         <v>Michel Aguilar</v>
       </c>
-      <c r="F31" s="92" t="str">
-        <f>VLOOKUP(B31,Planificación!$B$13:$G$104,6,FALSE)</f>
+      <c r="F31" s="88" t="str">
+        <f>VLOOKUP(B31,Planificación!$B$13:$G$102,6,FALSE)</f>
         <v>Amira Lanao</v>
       </c>
-      <c r="G31" s="119"/>
-      <c r="H31" s="94"/>
-      <c r="I31" s="94"/>
-      <c r="J31" s="94"/>
-      <c r="K31" s="96"/>
-      <c r="L31" s="97"/>
-      <c r="M31" s="97"/>
-      <c r="N31" s="98"/>
-      <c r="O31" s="111"/>
+      <c r="G31" s="114"/>
+      <c r="H31" s="90"/>
+      <c r="I31" s="90"/>
+      <c r="J31" s="90" t="s">
+        <v>173</v>
+      </c>
+      <c r="K31" s="92"/>
+      <c r="L31" s="93"/>
+      <c r="M31" s="93"/>
+      <c r="N31" s="94"/>
+      <c r="O31" s="106"/>
     </row>
     <row r="32" spans="1:15" ht="12">
-      <c r="A32" s="90">
+      <c r="A32" s="86">
         <v>28</v>
       </c>
-      <c r="B32" s="91">
+      <c r="B32" s="87">
         <v>28</v>
       </c>
-      <c r="C32" s="92" t="str">
-        <f>VLOOKUP(B32,Planificación!$B$13:$E$104,2,FALSE)</f>
+      <c r="C32" s="88" t="str">
+        <f>VLOOKUP(B32,Planificación!$B$13:$E$102,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D32" s="93" t="str">
-        <f>VLOOKUP(B32,Planificación!$B$13:$E$104,4,FALSE)</f>
+      <c r="D32" s="89" t="str">
+        <f>VLOOKUP(B32,Planificación!$B$13:$E$102,4,FALSE)</f>
         <v>Planes de Prueba</v>
       </c>
-      <c r="E32" s="92" t="str">
-        <f>VLOOKUP(B32,Planificación!$B$13:$G$104,5,FALSE)</f>
+      <c r="E32" s="88" t="str">
+        <f>VLOOKUP(B32,Planificación!$B$13:$G$102,5,FALSE)</f>
         <v>Michel Aguilar</v>
       </c>
-      <c r="F32" s="92" t="str">
-        <f>VLOOKUP(B32,Planificación!$B$13:$G$104,6,FALSE)</f>
+      <c r="F32" s="88" t="str">
+        <f>VLOOKUP(B32,Planificación!$B$13:$G$102,6,FALSE)</f>
         <v>Amira Lanao</v>
       </c>
-      <c r="G32" s="119"/>
-      <c r="H32" s="94"/>
-      <c r="I32" s="94"/>
-      <c r="J32" s="94"/>
-      <c r="K32" s="96"/>
-      <c r="L32" s="97"/>
-      <c r="M32" s="97"/>
-      <c r="N32" s="98"/>
-      <c r="O32" s="111"/>
+      <c r="G32" s="114"/>
+      <c r="H32" s="90"/>
+      <c r="I32" s="90"/>
+      <c r="J32" s="90" t="s">
+        <v>173</v>
+      </c>
+      <c r="K32" s="92"/>
+      <c r="L32" s="93"/>
+      <c r="M32" s="93"/>
+      <c r="N32" s="94"/>
+      <c r="O32" s="106"/>
     </row>
     <row r="33" spans="1:15" ht="24">
-      <c r="A33" s="90">
+      <c r="A33" s="86">
         <v>29</v>
       </c>
-      <c r="B33" s="91">
+      <c r="B33" s="87">
         <v>29</v>
       </c>
-      <c r="C33" s="92" t="str">
-        <f>VLOOKUP(B33,Planificación!$B$13:$E$104,2,FALSE)</f>
+      <c r="C33" s="88" t="str">
+        <f>VLOOKUP(B33,Planificación!$B$13:$E$102,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D33" s="93" t="str">
-        <f>VLOOKUP(B33,Planificación!$B$13:$E$104,4,FALSE)</f>
+      <c r="D33" s="89" t="str">
+        <f>VLOOKUP(B33,Planificación!$B$13:$E$102,4,FALSE)</f>
         <v>Desarrollo de logica de negocio Ajustado</v>
       </c>
-      <c r="E33" s="92" t="str">
-        <f>VLOOKUP(B33,Planificación!$B$13:$G$104,5,FALSE)</f>
+      <c r="E33" s="88" t="str">
+        <f>VLOOKUP(B33,Planificación!$B$13:$G$102,5,FALSE)</f>
         <v>Michel Aguilar</v>
       </c>
-      <c r="F33" s="92" t="str">
-        <f>VLOOKUP(B33,Planificación!$B$13:$G$104,6,FALSE)</f>
+      <c r="F33" s="88" t="str">
+        <f>VLOOKUP(B33,Planificación!$B$13:$G$102,6,FALSE)</f>
         <v>Amira Lanao</v>
       </c>
-      <c r="G33" s="119"/>
-      <c r="H33" s="94"/>
-      <c r="I33" s="94"/>
-      <c r="J33" s="94"/>
-      <c r="K33" s="96"/>
-      <c r="L33" s="97"/>
-      <c r="M33" s="97"/>
-      <c r="N33" s="98"/>
-      <c r="O33" s="111"/>
+      <c r="G33" s="114"/>
+      <c r="H33" s="90"/>
+      <c r="I33" s="90"/>
+      <c r="J33" s="90" t="s">
+        <v>173</v>
+      </c>
+      <c r="K33" s="92"/>
+      <c r="L33" s="93"/>
+      <c r="M33" s="93"/>
+      <c r="N33" s="94"/>
+      <c r="O33" s="106"/>
     </row>
     <row r="34" spans="1:15" ht="24">
-      <c r="A34" s="90">
+      <c r="A34" s="86">
         <v>30</v>
       </c>
-      <c r="B34" s="91">
+      <c r="B34" s="87">
         <v>30</v>
       </c>
-      <c r="C34" s="92" t="str">
-        <f>VLOOKUP(B34,Planificación!$B$13:$E$104,2,FALSE)</f>
+      <c r="C34" s="88" t="str">
+        <f>VLOOKUP(B34,Planificación!$B$13:$E$102,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D34" s="93" t="str">
-        <f>VLOOKUP(B34,Planificación!$B$13:$E$104,4,FALSE)</f>
+      <c r="D34" s="89" t="str">
+        <f>VLOOKUP(B34,Planificación!$B$13:$E$102,4,FALSE)</f>
         <v>Desarrollo de Persistencia de Datos</v>
       </c>
-      <c r="E34" s="92" t="str">
-        <f>VLOOKUP(B34,Planificación!$B$13:$G$104,5,FALSE)</f>
+      <c r="E34" s="88" t="str">
+        <f>VLOOKUP(B34,Planificación!$B$13:$G$102,5,FALSE)</f>
         <v>Michel Aguilar</v>
       </c>
-      <c r="F34" s="92" t="str">
-        <f>VLOOKUP(B34,Planificación!$B$13:$G$104,6,FALSE)</f>
+      <c r="F34" s="88" t="str">
+        <f>VLOOKUP(B34,Planificación!$B$13:$G$102,6,FALSE)</f>
         <v>Amira Lanao</v>
       </c>
-      <c r="G34" s="119"/>
-      <c r="H34" s="94"/>
-      <c r="I34" s="94"/>
-      <c r="J34" s="94"/>
-      <c r="K34" s="96"/>
-      <c r="L34" s="97"/>
-      <c r="M34" s="97"/>
-      <c r="N34" s="98"/>
-      <c r="O34" s="111"/>
+      <c r="G34" s="114"/>
+      <c r="H34" s="90"/>
+      <c r="I34" s="90"/>
+      <c r="J34" s="90" t="s">
+        <v>173</v>
+      </c>
+      <c r="K34" s="92"/>
+      <c r="L34" s="93"/>
+      <c r="M34" s="93"/>
+      <c r="N34" s="94"/>
+      <c r="O34" s="106"/>
     </row>
     <row r="35" spans="1:15" ht="24">
-      <c r="A35" s="90">
+      <c r="A35" s="86">
         <v>31</v>
       </c>
-      <c r="B35" s="91">
+      <c r="B35" s="87">
         <v>31</v>
       </c>
-      <c r="C35" s="92" t="str">
-        <f>VLOOKUP(B35,Planificación!$B$13:$E$104,2,FALSE)</f>
+      <c r="C35" s="88" t="str">
+        <f>VLOOKUP(B35,Planificación!$B$13:$E$102,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D35" s="93" t="str">
-        <f>VLOOKUP(B35,Planificación!$B$13:$E$104,4,FALSE)</f>
+      <c r="D35" s="89" t="str">
+        <f>VLOOKUP(B35,Planificación!$B$13:$E$102,4,FALSE)</f>
         <v>Acta de Aceptacion de Entregables</v>
       </c>
-      <c r="E35" s="92" t="str">
-        <f>VLOOKUP(B35,Planificación!$B$13:$G$104,5,FALSE)</f>
+      <c r="E35" s="88" t="str">
+        <f>VLOOKUP(B35,Planificación!$B$13:$G$102,5,FALSE)</f>
         <v>Michel Aguilar</v>
       </c>
-      <c r="F35" s="92" t="str">
-        <f>VLOOKUP(B35,Planificación!$B$13:$G$104,6,FALSE)</f>
+      <c r="F35" s="88" t="str">
+        <f>VLOOKUP(B35,Planificación!$B$13:$G$102,6,FALSE)</f>
         <v>Amira Lanao</v>
       </c>
-      <c r="G35" s="119"/>
-      <c r="H35" s="94"/>
-      <c r="I35" s="94"/>
-      <c r="J35" s="94"/>
-      <c r="K35" s="96"/>
-      <c r="L35" s="97"/>
-      <c r="M35" s="97"/>
-      <c r="N35" s="98"/>
-      <c r="O35" s="111"/>
+      <c r="G35" s="114"/>
+      <c r="H35" s="90"/>
+      <c r="I35" s="90"/>
+      <c r="J35" s="90" t="s">
+        <v>173</v>
+      </c>
+      <c r="K35" s="92"/>
+      <c r="L35" s="93"/>
+      <c r="M35" s="93"/>
+      <c r="N35" s="94"/>
+      <c r="O35" s="106"/>
     </row>
     <row r="36" spans="1:15" ht="12">
-      <c r="A36" s="90">
+      <c r="A36" s="86">
         <v>32</v>
       </c>
-      <c r="B36" s="91">
+      <c r="B36" s="87">
         <v>32</v>
       </c>
-      <c r="C36" s="92" t="str">
-        <f>VLOOKUP(B36,Planificación!$B$13:$E$104,2,FALSE)</f>
+      <c r="C36" s="88" t="str">
+        <f>VLOOKUP(B36,Planificación!$B$13:$E$102,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D36" s="93" t="str">
-        <f>VLOOKUP(B36,Planificación!$B$13:$E$104,4,FALSE)</f>
+      <c r="D36" s="89" t="str">
+        <f>VLOOKUP(B36,Planificación!$B$13:$E$102,4,FALSE)</f>
         <v>Pruebas Funcionales</v>
       </c>
-      <c r="E36" s="92" t="str">
-        <f>VLOOKUP(B36,Planificación!$B$13:$G$104,5,FALSE)</f>
+      <c r="E36" s="88" t="str">
+        <f>VLOOKUP(B36,Planificación!$B$13:$G$102,5,FALSE)</f>
         <v>Michel Aguilar</v>
       </c>
-      <c r="F36" s="92" t="str">
-        <f>VLOOKUP(B36,Planificación!$B$13:$G$104,6,FALSE)</f>
+      <c r="F36" s="88" t="str">
+        <f>VLOOKUP(B36,Planificación!$B$13:$G$102,6,FALSE)</f>
         <v>Amira Lanao</v>
       </c>
-      <c r="G36" s="119"/>
-      <c r="H36" s="94"/>
-      <c r="I36" s="94"/>
-      <c r="J36" s="94"/>
-      <c r="K36" s="96"/>
-      <c r="L36" s="97"/>
-      <c r="M36" s="97"/>
-      <c r="N36" s="98"/>
-      <c r="O36" s="111"/>
-    </row>
-    <row r="37" spans="1:15" s="172" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A37" s="162">
+      <c r="G36" s="114"/>
+      <c r="H36" s="90"/>
+      <c r="I36" s="90"/>
+      <c r="J36" s="90" t="s">
+        <v>173</v>
+      </c>
+      <c r="K36" s="92"/>
+      <c r="L36" s="93"/>
+      <c r="M36" s="93"/>
+      <c r="N36" s="94"/>
+      <c r="O36" s="106"/>
+    </row>
+    <row r="37" spans="1:15" s="241" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A37" s="231">
         <v>33</v>
       </c>
-      <c r="B37" s="163">
+      <c r="B37" s="232">
         <v>33</v>
       </c>
-      <c r="C37" s="164" t="str">
-        <f>VLOOKUP(B37,Planificación!$B$13:$E$104,2,FALSE)</f>
+      <c r="C37" s="233" t="str">
+        <f>VLOOKUP(B37,Planificación!$B$13:$E$102,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D37" s="165" t="str">
-        <f>VLOOKUP(B37,Planificación!$B$13:$E$104,4,FALSE)</f>
+      <c r="D37" s="234" t="str">
+        <f>VLOOKUP(B37,Planificación!$B$13:$E$102,4,FALSE)</f>
+        <v>Métricas de Calidad</v>
+      </c>
+      <c r="E37" s="233" t="str">
+        <f>VLOOKUP(B37,Planificación!$B$13:$G$102,5,FALSE)</f>
+        <v>Michel Aguilar</v>
+      </c>
+      <c r="F37" s="233" t="str">
+        <f>VLOOKUP(B37,Planificación!$B$13:$G$102,6,FALSE)</f>
+        <v>Amira Lanao</v>
+      </c>
+      <c r="G37" s="235"/>
+      <c r="H37" s="236"/>
+      <c r="I37" s="236"/>
+      <c r="J37" s="90" t="s">
+        <v>173</v>
+      </c>
+      <c r="K37" s="237"/>
+      <c r="L37" s="238"/>
+      <c r="M37" s="238"/>
+      <c r="N37" s="239"/>
+      <c r="O37" s="240"/>
+    </row>
+    <row r="38" spans="1:15" s="241" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A38" s="231">
+        <v>34</v>
+      </c>
+      <c r="B38" s="232">
+        <v>34</v>
+      </c>
+      <c r="C38" s="233" t="str">
+        <f>VLOOKUP(B38,Planificación!$B$13:$E$102,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D38" s="234" t="str">
+        <f>VLOOKUP(B38,Planificación!$B$13:$E$102,4,FALSE)</f>
+        <v>Manual de Usuario</v>
+      </c>
+      <c r="E38" s="233" t="str">
+        <f>VLOOKUP(B38,Planificación!$B$13:$G$102,5,FALSE)</f>
+        <v>Michel Aguilar</v>
+      </c>
+      <c r="F38" s="233" t="str">
+        <f>VLOOKUP(B38,Planificación!$B$13:$G$102,6,FALSE)</f>
+        <v>Amira Lanao</v>
+      </c>
+      <c r="G38" s="235"/>
+      <c r="H38" s="236"/>
+      <c r="I38" s="236"/>
+      <c r="J38" s="90" t="s">
+        <v>173</v>
+      </c>
+      <c r="K38" s="237"/>
+      <c r="L38" s="238"/>
+      <c r="M38" s="238"/>
+      <c r="N38" s="239"/>
+      <c r="O38" s="240"/>
+    </row>
+    <row r="39" spans="1:15" s="241" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A39" s="231">
+        <v>35</v>
+      </c>
+      <c r="B39" s="232">
+        <v>35</v>
+      </c>
+      <c r="C39" s="233" t="str">
+        <f>VLOOKUP(B39,Planificación!$B$13:$E$102,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D39" s="234" t="str">
+        <f>VLOOKUP(B39,Planificación!$B$13:$E$102,4,FALSE)</f>
         <v>Informe Quincenal</v>
       </c>
-      <c r="E37" s="164"/>
-      <c r="F37" s="164"/>
-      <c r="G37" s="166"/>
-      <c r="H37" s="167"/>
-      <c r="I37" s="167"/>
-      <c r="J37" s="167"/>
-      <c r="K37" s="168"/>
-      <c r="L37" s="169"/>
-      <c r="M37" s="169"/>
-      <c r="N37" s="170"/>
-      <c r="O37" s="171"/>
-    </row>
-    <row r="38" spans="1:15" s="172" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A38" s="162">
-        <v>34</v>
-      </c>
-      <c r="B38" s="163">
-        <v>34</v>
-      </c>
-      <c r="C38" s="164" t="str">
-        <f>VLOOKUP(B38,Planificación!$B$13:$E$104,2,FALSE)</f>
+      <c r="E39" s="233" t="str">
+        <f>VLOOKUP(B39,Planificación!$B$13:$G$102,5,FALSE)</f>
+        <v>Michel Aguilar</v>
+      </c>
+      <c r="F39" s="233" t="str">
+        <f>VLOOKUP(B39,Planificación!$B$13:$G$102,6,FALSE)</f>
+        <v>Amira Lanao</v>
+      </c>
+      <c r="G39" s="235"/>
+      <c r="H39" s="236"/>
+      <c r="I39" s="236"/>
+      <c r="J39" s="90" t="s">
+        <v>173</v>
+      </c>
+      <c r="K39" s="237"/>
+      <c r="L39" s="238"/>
+      <c r="M39" s="238"/>
+      <c r="N39" s="239"/>
+      <c r="O39" s="240"/>
+    </row>
+    <row r="40" spans="1:15" s="241" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A40" s="231">
+        <v>36</v>
+      </c>
+      <c r="B40" s="232">
+        <v>36</v>
+      </c>
+      <c r="C40" s="233" t="str">
+        <f>VLOOKUP(B40,Planificación!$B$13:$E$102,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D38" s="165" t="str">
-        <f>VLOOKUP(B38,Planificación!$B$13:$E$104,4,FALSE)</f>
-        <v>Pruebas Funcionales</v>
-      </c>
-      <c r="E38" s="164"/>
-      <c r="F38" s="164"/>
-      <c r="G38" s="166"/>
-      <c r="H38" s="167"/>
-      <c r="I38" s="167"/>
-      <c r="J38" s="167"/>
-      <c r="K38" s="168"/>
-      <c r="L38" s="169"/>
-      <c r="M38" s="169"/>
-      <c r="N38" s="170"/>
-      <c r="O38" s="171"/>
-    </row>
-    <row r="39" spans="1:15" s="172" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A39" s="162">
-        <v>35</v>
-      </c>
-      <c r="B39" s="163">
-        <v>35</v>
-      </c>
-      <c r="C39" s="164" t="e">
-        <f>VLOOKUP(B39,Planificación!$B$13:$E$104,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D39" s="165" t="e">
-        <f>VLOOKUP(B39,Planificación!$B$13:$E$104,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E39" s="164"/>
-      <c r="F39" s="164"/>
-      <c r="G39" s="166"/>
-      <c r="H39" s="167"/>
-      <c r="I39" s="167"/>
-      <c r="J39" s="167"/>
-      <c r="K39" s="168"/>
-      <c r="L39" s="169"/>
-      <c r="M39" s="169"/>
-      <c r="N39" s="170"/>
-      <c r="O39" s="171"/>
-    </row>
-    <row r="40" spans="1:15" s="172" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A40" s="162">
-        <v>36</v>
-      </c>
-      <c r="B40" s="163">
-        <v>36</v>
-      </c>
-      <c r="C40" s="164" t="e">
-        <f>VLOOKUP(B40,Planificación!$B$13:$E$104,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D40" s="165" t="e">
-        <f>VLOOKUP(B40,Planificación!$B$13:$E$104,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E40" s="164"/>
-      <c r="F40" s="164"/>
-      <c r="G40" s="166"/>
-      <c r="H40" s="167"/>
-      <c r="I40" s="167"/>
-      <c r="J40" s="167"/>
-      <c r="K40" s="168"/>
-      <c r="L40" s="173"/>
-      <c r="M40" s="173"/>
-      <c r="N40" s="170"/>
-      <c r="O40" s="171"/>
+      <c r="D40" s="234" t="str">
+        <f>VLOOKUP(B40,Planificación!$B$13:$E$102,4,FALSE)</f>
+        <v>Registro de Riesgos</v>
+      </c>
+      <c r="E40" s="233" t="str">
+        <f>VLOOKUP(B40,Planificación!$B$13:$G$102,5,FALSE)</f>
+        <v>Michel Aguilar</v>
+      </c>
+      <c r="F40" s="233" t="str">
+        <f>VLOOKUP(B40,Planificación!$B$13:$G$102,6,FALSE)</f>
+        <v>Amira Lanao</v>
+      </c>
+      <c r="G40" s="235"/>
+      <c r="H40" s="236"/>
+      <c r="I40" s="236"/>
+      <c r="J40" s="90" t="s">
+        <v>173</v>
+      </c>
+      <c r="K40" s="237"/>
+      <c r="L40" s="242"/>
+      <c r="M40" s="242"/>
+      <c r="N40" s="239"/>
+      <c r="O40" s="240"/>
+    </row>
+    <row r="41" spans="1:15" ht="12">
+      <c r="A41" s="86">
+        <v>37</v>
+      </c>
+      <c r="B41" s="87">
+        <v>37</v>
+      </c>
+      <c r="C41" s="88" t="str">
+        <f>VLOOKUP(B41,Planificación!$B$13:$E$102,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D41" s="89" t="str">
+        <f>VLOOKUP(B41,Planificación!$B$13:$E$102,4,FALSE)</f>
+        <v>Plan de Capacitación</v>
+      </c>
+      <c r="E41" s="88" t="str">
+        <f>VLOOKUP(B41,Planificación!$B$13:$G$102,5,FALSE)</f>
+        <v>Michel Aguilar</v>
+      </c>
+      <c r="F41" s="88" t="str">
+        <f>VLOOKUP(B41,Planificación!$B$13:$G$102,6,FALSE)</f>
+        <v>Amira Lanao</v>
+      </c>
+      <c r="G41" s="230"/>
+      <c r="H41" s="106"/>
+      <c r="I41" s="106"/>
+      <c r="J41" s="90" t="s">
+        <v>173</v>
+      </c>
+      <c r="K41" s="106"/>
+      <c r="L41" s="229"/>
+      <c r="M41" s="229"/>
+      <c r="N41" s="229"/>
+      <c r="O41" s="106"/>
+    </row>
+    <row r="42" spans="1:15" ht="12">
+      <c r="A42" s="86">
+        <v>38</v>
+      </c>
+      <c r="B42" s="87">
+        <v>38</v>
+      </c>
+      <c r="C42" s="88" t="str">
+        <f>VLOOKUP(B42,Planificación!$B$13:$E$102,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D42" s="89" t="str">
+        <f>VLOOKUP(B42,Planificación!$B$13:$E$102,4,FALSE)</f>
+        <v>Pruebas Unitarias</v>
+      </c>
+      <c r="E42" s="88" t="str">
+        <f>VLOOKUP(B42,Planificación!$B$13:$G$102,5,FALSE)</f>
+        <v>Michel Aguilar</v>
+      </c>
+      <c r="F42" s="88" t="str">
+        <f>VLOOKUP(B42,Planificación!$B$13:$G$102,6,FALSE)</f>
+        <v>Amira Lanao</v>
+      </c>
+      <c r="G42" s="230"/>
+      <c r="H42" s="106"/>
+      <c r="I42" s="106"/>
+      <c r="J42" s="90" t="s">
+        <v>173</v>
+      </c>
+      <c r="K42" s="106"/>
+      <c r="L42" s="229"/>
+      <c r="M42" s="229"/>
+      <c r="N42" s="229"/>
+      <c r="O42" s="106"/>
+    </row>
+    <row r="43" spans="1:15" ht="12">
+      <c r="A43" s="86">
+        <v>39</v>
+      </c>
+      <c r="B43" s="87">
+        <v>39</v>
+      </c>
+      <c r="C43" s="88" t="str">
+        <f>VLOOKUP(B43,Planificación!$B$13:$E$102,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D43" s="89" t="str">
+        <f>VLOOKUP(B43,Planificación!$B$13:$E$102,4,FALSE)</f>
+        <v>Pruebas Integrales</v>
+      </c>
+      <c r="E43" s="88" t="str">
+        <f>VLOOKUP(B43,Planificación!$B$13:$G$102,5,FALSE)</f>
+        <v>Michel Aguilar</v>
+      </c>
+      <c r="F43" s="88" t="str">
+        <f>VLOOKUP(B43,Planificación!$B$13:$G$102,6,FALSE)</f>
+        <v>Amira Lanao</v>
+      </c>
+      <c r="G43" s="230"/>
+      <c r="H43" s="106"/>
+      <c r="I43" s="106"/>
+      <c r="J43" s="90" t="s">
+        <v>173</v>
+      </c>
+      <c r="K43" s="106"/>
+      <c r="L43" s="229"/>
+      <c r="M43" s="229"/>
+      <c r="N43" s="229"/>
+      <c r="O43" s="106"/>
+    </row>
+    <row r="44" spans="1:15" ht="12">
+      <c r="A44" s="86">
+        <v>40</v>
+      </c>
+      <c r="B44" s="87">
+        <v>40</v>
+      </c>
+      <c r="C44" s="88" t="str">
+        <f>VLOOKUP(B44,Planificación!$B$13:$E$102,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D44" s="89" t="str">
+        <f>VLOOKUP(B44,Planificación!$B$13:$E$102,4,FALSE)</f>
+        <v>Pruebas en Producción</v>
+      </c>
+      <c r="E44" s="88" t="str">
+        <f>VLOOKUP(B44,Planificación!$B$13:$G$102,5,FALSE)</f>
+        <v>Michel Aguilar</v>
+      </c>
+      <c r="F44" s="88" t="str">
+        <f>VLOOKUP(B44,Planificación!$B$13:$G$102,6,FALSE)</f>
+        <v>Amira Lanao</v>
+      </c>
+      <c r="G44" s="230"/>
+      <c r="H44" s="106"/>
+      <c r="I44" s="106"/>
+      <c r="J44" s="90" t="s">
+        <v>173</v>
+      </c>
+      <c r="K44" s="106"/>
+      <c r="L44" s="229"/>
+      <c r="M44" s="229"/>
+      <c r="N44" s="229"/>
+      <c r="O44" s="106"/>
+    </row>
+    <row r="45" spans="1:15" ht="12">
+      <c r="A45" s="86">
+        <v>41</v>
+      </c>
+      <c r="B45" s="87">
+        <v>41</v>
+      </c>
+      <c r="C45" s="88" t="str">
+        <f>VLOOKUP(B45,Planificación!$B$13:$E$102,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D45" s="89" t="str">
+        <f>VLOOKUP(B45,Planificación!$B$13:$E$102,4,FALSE)</f>
+        <v>Implementación</v>
+      </c>
+      <c r="E45" s="88" t="str">
+        <f>VLOOKUP(B45,Planificación!$B$13:$G$102,5,FALSE)</f>
+        <v>Michel Aguilar</v>
+      </c>
+      <c r="F45" s="88" t="str">
+        <f>VLOOKUP(B45,Planificación!$B$13:$G$102,6,FALSE)</f>
+        <v>Amira Lanao</v>
+      </c>
+      <c r="G45" s="230"/>
+      <c r="H45" s="106"/>
+      <c r="I45" s="106"/>
+      <c r="J45" s="90" t="s">
+        <v>173</v>
+      </c>
+      <c r="K45" s="106"/>
+      <c r="L45" s="229"/>
+      <c r="M45" s="229"/>
+      <c r="N45" s="229"/>
+      <c r="O45" s="106"/>
+    </row>
+    <row r="46" spans="1:15" ht="24">
+      <c r="A46" s="86">
+        <v>42</v>
+      </c>
+      <c r="B46" s="87">
+        <v>42</v>
+      </c>
+      <c r="C46" s="88" t="str">
+        <f>VLOOKUP(B46,Planificación!$B$13:$E$102,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D46" s="89" t="str">
+        <f>VLOOKUP(B46,Planificación!$B$13:$E$102,4,FALSE)</f>
+        <v>Acta de Conformidad de Capacitacion</v>
+      </c>
+      <c r="E46" s="88" t="str">
+        <f>VLOOKUP(B46,Planificación!$B$13:$G$102,5,FALSE)</f>
+        <v>Michel Aguilar</v>
+      </c>
+      <c r="F46" s="88" t="str">
+        <f>VLOOKUP(B46,Planificación!$B$13:$G$102,6,FALSE)</f>
+        <v>Amira Lanao</v>
+      </c>
+      <c r="G46" s="230"/>
+      <c r="H46" s="106"/>
+      <c r="I46" s="106"/>
+      <c r="J46" s="90" t="s">
+        <v>173</v>
+      </c>
+      <c r="K46" s="106"/>
+      <c r="L46" s="229"/>
+      <c r="M46" s="229"/>
+      <c r="N46" s="229"/>
+      <c r="O46" s="106"/>
+    </row>
+    <row r="47" spans="1:15" ht="12">
+      <c r="A47" s="86">
+        <v>43</v>
+      </c>
+      <c r="B47" s="87">
+        <v>43</v>
+      </c>
+      <c r="C47" s="88" t="str">
+        <f>VLOOKUP(B47,Planificación!$B$13:$E$102,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D47" s="89" t="str">
+        <f>VLOOKUP(B47,Planificación!$B$13:$E$102,4,FALSE)</f>
+        <v>Acta de Finalización del Proyecto</v>
+      </c>
+      <c r="E47" s="88" t="str">
+        <f>VLOOKUP(B47,Planificación!$B$13:$G$102,5,FALSE)</f>
+        <v>Michel Aguilar</v>
+      </c>
+      <c r="F47" s="88" t="str">
+        <f>VLOOKUP(B47,Planificación!$B$13:$G$102,6,FALSE)</f>
+        <v>Amira Lanao</v>
+      </c>
+      <c r="G47" s="230"/>
+      <c r="H47" s="106"/>
+      <c r="I47" s="106"/>
+      <c r="J47" s="90" t="s">
+        <v>173</v>
+      </c>
+      <c r="K47" s="106"/>
+      <c r="L47" s="229"/>
+      <c r="M47" s="229"/>
+      <c r="N47" s="229"/>
+      <c r="O47" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9872,107 +10158,107 @@
   <sheetData>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A2" s="10"/>
-      <c r="C2" s="236" t="s">
+      <c r="C2" s="219" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="236"/>
-      <c r="E2" s="236"/>
-      <c r="F2" s="236"/>
-      <c r="G2" s="236"/>
-      <c r="H2" s="236"/>
-      <c r="I2" s="236"/>
-      <c r="J2" s="236"/>
-      <c r="K2" s="236"/>
+      <c r="D2" s="219"/>
+      <c r="E2" s="219"/>
+      <c r="F2" s="219"/>
+      <c r="G2" s="219"/>
+      <c r="H2" s="219"/>
+      <c r="I2" s="219"/>
+      <c r="J2" s="219"/>
+      <c r="K2" s="219"/>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="A3" s="11"/>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1">
       <c r="A4" s="11"/>
-      <c r="C4" s="237" t="s">
+      <c r="C4" s="220" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="237"/>
-      <c r="E4" s="226" t="str">
+      <c r="D4" s="220"/>
+      <c r="E4" s="209" t="str">
         <f>IF(Planificación!D6&lt;&gt;"",Planificación!D6,"")</f>
         <v>Amira Lanao</v>
       </c>
-      <c r="F4" s="227"/>
-      <c r="G4" s="227"/>
-      <c r="H4" s="227"/>
-      <c r="I4" s="228"/>
+      <c r="F4" s="210"/>
+      <c r="G4" s="210"/>
+      <c r="H4" s="210"/>
+      <c r="I4" s="211"/>
     </row>
     <row r="5" spans="1:11" s="2" customFormat="1">
       <c r="A5" s="11"/>
-      <c r="C5" s="238" t="str">
+      <c r="C5" s="221" t="str">
         <f>Planificación!B7</f>
         <v>Analista de Calidad</v>
       </c>
-      <c r="D5" s="239"/>
-      <c r="E5" s="226" t="str">
+      <c r="D5" s="222"/>
+      <c r="E5" s="209" t="str">
         <f>IF(Planificación!D7&lt;&gt;"",Planificación!D7,"")</f>
         <v>Michel Aguilar</v>
       </c>
-      <c r="F5" s="227"/>
-      <c r="G5" s="227"/>
-      <c r="H5" s="227"/>
-      <c r="I5" s="228"/>
+      <c r="F5" s="210"/>
+      <c r="G5" s="210"/>
+      <c r="H5" s="210"/>
+      <c r="I5" s="211"/>
     </row>
     <row r="6" spans="1:11" s="2" customFormat="1">
       <c r="A6" s="11"/>
-      <c r="C6" s="224" t="s">
+      <c r="C6" s="207" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="225"/>
-      <c r="E6" s="226" t="str">
+      <c r="D6" s="208"/>
+      <c r="E6" s="209" t="str">
         <f>IF(Planificación!D8&lt;&gt;"",Planificación!D8,"")</f>
         <v>Gino Guzman, Amira Lanao</v>
       </c>
-      <c r="F6" s="227"/>
-      <c r="G6" s="227"/>
-      <c r="H6" s="227"/>
-      <c r="I6" s="228"/>
+      <c r="F6" s="210"/>
+      <c r="G6" s="210"/>
+      <c r="H6" s="210"/>
+      <c r="I6" s="211"/>
     </row>
     <row r="7" spans="1:11" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A7" s="11"/>
-      <c r="C7" s="230" t="s">
+      <c r="C7" s="213" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="230"/>
-      <c r="E7" s="231">
+      <c r="D7" s="213"/>
+      <c r="E7" s="214">
         <f>IF(Planificación!D9&lt;&gt;"",Planificación!D9,"")</f>
         <v>41360</v>
       </c>
-      <c r="F7" s="232"/>
-      <c r="G7" s="233" t="s">
+      <c r="F7" s="215"/>
+      <c r="G7" s="216" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="234"/>
-      <c r="I7" s="99">
+      <c r="H7" s="217"/>
+      <c r="I7" s="95">
         <f>IF(Planificación!F9&lt;&gt;"",Planificación!F9,"")</f>
         <v>41383</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="2" customFormat="1">
       <c r="A8" s="11"/>
-      <c r="C8" s="230" t="s">
+      <c r="C8" s="213" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="235"/>
-      <c r="E8" s="226" t="str">
+      <c r="D8" s="218"/>
+      <c r="E8" s="209" t="str">
         <f>IF(Planificación!D10&lt;&gt;"",Planificación!D10,"")</f>
         <v/>
       </c>
-      <c r="F8" s="227"/>
-      <c r="G8" s="227"/>
-      <c r="H8" s="227"/>
-      <c r="I8" s="228"/>
+      <c r="F8" s="210"/>
+      <c r="G8" s="210"/>
+      <c r="H8" s="210"/>
+      <c r="I8" s="211"/>
     </row>
     <row r="13" spans="1:11" ht="15">
-      <c r="C13" s="229" t="s">
+      <c r="C13" s="212" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="229"/>
+      <c r="D13" s="212"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -9981,47 +10267,47 @@
       <c r="J13" s="9"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="C14" s="102" t="s">
+      <c r="C14" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="100">
+      <c r="D14" s="96">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1">
-      <c r="C15" s="102" t="s">
+      <c r="C15" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="100">
+      <c r="D15" s="96">
         <f>D14-D16</f>
-        <v>-4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="C16" s="102" t="s">
+      <c r="C16" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="100">
-        <f>COUNT(Planificación!L13:L57)</f>
+      <c r="D16" s="96">
+        <f>COUNT(Planificación!L13:L55)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5">
+      <c r="C17" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="97">
+        <f>(D16/(IF(D14=0,1,D14)))</f>
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5">
+      <c r="C18" s="98" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="3:5">
-      <c r="C17" s="102" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="101">
-        <f>(D16/(IF(D14=0,1,D14)))</f>
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5">
-      <c r="C18" s="102" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="101">
+      <c r="D18" s="97">
         <f>1-D17</f>
-        <v>-0.25</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="19" spans="3:5">
@@ -10030,55 +10316,55 @@
       <c r="E19" s="9"/>
     </row>
     <row r="20" spans="3:5">
-      <c r="C20" s="113"/>
+      <c r="C20" s="108"/>
       <c r="D20" s="23"/>
       <c r="E20" s="9"/>
     </row>
     <row r="21" spans="3:5">
-      <c r="C21" s="113"/>
+      <c r="C21" s="108"/>
       <c r="D21" s="23"/>
       <c r="E21" s="9"/>
     </row>
     <row r="22" spans="3:5">
-      <c r="C22" s="113"/>
+      <c r="C22" s="108"/>
       <c r="D22" s="23"/>
       <c r="E22" s="9"/>
     </row>
     <row r="23" spans="3:5">
-      <c r="C23" s="113"/>
+      <c r="C23" s="108"/>
       <c r="D23" s="23"/>
       <c r="E23" s="9"/>
     </row>
     <row r="24" spans="3:5">
-      <c r="C24" s="113"/>
+      <c r="C24" s="108"/>
       <c r="D24" s="23"/>
       <c r="E24" s="9"/>
     </row>
     <row r="25" spans="3:5">
-      <c r="C25" s="113"/>
+      <c r="C25" s="108"/>
       <c r="D25" s="23"/>
       <c r="E25" s="9"/>
     </row>
     <row r="26" spans="3:5">
-      <c r="C26" s="113"/>
+      <c r="C26" s="108"/>
       <c r="D26" s="23"/>
       <c r="E26" s="9"/>
     </row>
     <row r="27" spans="3:5">
-      <c r="C27" s="113"/>
+      <c r="C27" s="108"/>
       <c r="D27" s="23"/>
       <c r="E27" s="9"/>
     </row>
     <row r="28" spans="3:5">
-      <c r="C28" s="113"/>
+      <c r="C28" s="108"/>
       <c r="D28" s="23"/>
       <c r="E28" s="9"/>
     </row>
     <row r="30" spans="3:5" ht="15" customHeight="1">
-      <c r="C30" s="223" t="s">
+      <c r="C30" s="206" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="223"/>
+      <c r="D30" s="206"/>
     </row>
     <row r="31" spans="3:5">
       <c r="C31" s="31" t="s">
@@ -10089,97 +10375,97 @@
       </c>
     </row>
     <row r="32" spans="3:5">
-      <c r="C32" s="104" t="s">
+      <c r="C32" s="100" t="s">
         <v>147</v>
       </c>
-      <c r="D32" s="103">
+      <c r="D32" s="99">
         <f>COUNTIF('Seguimiento de NC'!$H$5:$H$168,C32)</f>
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="3:4">
-      <c r="C33" s="104" t="s">
+      <c r="C33" s="100" t="s">
         <v>148</v>
       </c>
-      <c r="D33" s="103">
+      <c r="D33" s="99">
         <f>COUNTIF('Seguimiento de NC'!$H$5:$H$168,C33)</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="3:4">
-      <c r="C34" s="104" t="s">
+      <c r="C34" s="100" t="s">
         <v>149</v>
       </c>
-      <c r="D34" s="103">
+      <c r="D34" s="99">
         <f>COUNTIF('Seguimiento de NC'!$H$5:$H$168,C34)</f>
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="3:4">
-      <c r="C35" s="104" t="s">
+      <c r="C35" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="103">
+      <c r="D35" s="99">
         <f>COUNTIF('Seguimiento de NC'!$H$5:$H$168,C35)</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="3:4">
-      <c r="C36" s="104" t="s">
+      <c r="C36" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="103">
+      <c r="D36" s="99">
         <f>COUNTIF('Seguimiento de NC'!$H$5:$H$168,C36)</f>
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="3:4">
-      <c r="C37" s="105" t="s">
+      <c r="C37" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="106">
+      <c r="D37" s="102">
         <f>SUM(D32:D36)</f>
         <v>4</v>
       </c>
     </row>
     <row r="52" spans="3:4" ht="15">
-      <c r="C52" s="223" t="s">
+      <c r="C52" s="206" t="s">
         <v>108</v>
       </c>
-      <c r="D52" s="223"/>
+      <c r="D52" s="206"/>
     </row>
     <row r="53" spans="3:4">
-      <c r="C53" s="105" t="s">
+      <c r="C53" s="101" t="s">
         <v>109</v>
       </c>
-      <c r="D53" s="103">
-        <f>Planificación!J58</f>
-        <v>138</v>
+      <c r="D53" s="99">
+        <f>Planificación!J56</f>
+        <v>136</v>
       </c>
     </row>
     <row r="54" spans="3:4">
-      <c r="C54" s="105" t="s">
+      <c r="C54" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="D54" s="103">
-        <f>Planificación!M58</f>
-        <v>137</v>
+      <c r="D54" s="99">
+        <f>Planificación!M56</f>
+        <v>135</v>
       </c>
     </row>
     <row r="55" spans="3:4">
-      <c r="C55" s="105" t="s">
+      <c r="C55" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="D55" s="103">
+      <c r="D55" s="99">
         <f>D53-D54</f>
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="3:4" ht="15">
-      <c r="C69" s="223" t="s">
+      <c r="C69" s="206" t="s">
         <v>146</v>
       </c>
-      <c r="D69" s="223"/>
+      <c r="D69" s="206"/>
     </row>
     <row r="70" spans="3:4">
       <c r="C70" s="31" t="s">
@@ -10190,37 +10476,37 @@
       </c>
     </row>
     <row r="71" spans="3:4">
-      <c r="C71" s="109" t="s">
+      <c r="C71" s="105" t="s">
         <v>95</v>
       </c>
-      <c r="D71" s="103">
+      <c r="D71" s="99">
         <f>COUNTIF('Seguimiento de NC'!$I$5:$I$168,C71)</f>
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="3:4">
-      <c r="C72" s="109" t="s">
+      <c r="C72" s="105" t="s">
         <v>97</v>
       </c>
-      <c r="D72" s="103">
+      <c r="D72" s="99">
         <f>COUNTIF('Seguimiento de NC'!$I$5:$I$168,C72)</f>
         <v>3</v>
       </c>
     </row>
     <row r="73" spans="3:4">
-      <c r="C73" s="109" t="s">
+      <c r="C73" s="105" t="s">
         <v>98</v>
       </c>
-      <c r="D73" s="103">
+      <c r="D73" s="99">
         <f>COUNTIF('Seguimiento de NC'!$I$5:$I$168,C73)</f>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="3:4">
-      <c r="C74" s="105" t="s">
+      <c r="C74" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="D74" s="106">
+      <c r="D74" s="102">
         <f>SUM(D71:D73)</f>
         <v>4</v>
       </c>
@@ -10282,388 +10568,388 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="103" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="103" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="107" t="s">
+      <c r="D2" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="107" t="s">
+      <c r="F2" s="103" t="s">
         <v>96</v>
       </c>
-      <c r="H2" s="107" t="s">
+      <c r="H2" s="103" t="s">
         <v>121</v>
       </c>
-      <c r="J2" s="107" t="s">
+      <c r="J2" s="103" t="s">
         <v>122</v>
       </c>
-      <c r="K2" s="107" t="s">
+      <c r="K2" s="103" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A3" s="115"/>
-      <c r="B3" s="115"/>
-      <c r="D3" s="109" t="s">
+      <c r="A3" s="110"/>
+      <c r="B3" s="110"/>
+      <c r="D3" s="105" t="s">
         <v>95</v>
       </c>
-      <c r="F3" s="109" t="s">
+      <c r="F3" s="105" t="s">
         <v>155</v>
       </c>
-      <c r="H3" s="109" t="s">
+      <c r="H3" s="105" t="s">
         <v>117</v>
       </c>
-      <c r="J3" s="243" t="s">
+      <c r="J3" s="226" t="s">
         <v>117</v>
       </c>
-      <c r="K3" s="117" t="s">
+      <c r="K3" s="112" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="240" t="s">
+      <c r="A4" s="223" t="s">
         <v>150</v>
       </c>
-      <c r="B4" s="134" t="s">
+      <c r="B4" s="129" t="s">
+        <v>207</v>
+      </c>
+      <c r="D4" s="105" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" s="105" t="s">
+        <v>147</v>
+      </c>
+      <c r="H4" s="105" t="s">
+        <v>118</v>
+      </c>
+      <c r="J4" s="226"/>
+      <c r="K4" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="224"/>
+      <c r="B5" s="111" t="s">
         <v>208</v>
       </c>
-      <c r="D4" s="109" t="s">
-        <v>97</v>
-      </c>
-      <c r="F4" s="109" t="s">
-        <v>147</v>
-      </c>
-      <c r="H4" s="109" t="s">
-        <v>118</v>
-      </c>
-      <c r="J4" s="243"/>
-      <c r="K4" s="117" t="s">
+      <c r="D5" s="105" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="105" t="s">
+        <v>148</v>
+      </c>
+      <c r="H5" s="105" t="s">
+        <v>150</v>
+      </c>
+      <c r="J5" s="226"/>
+      <c r="K5" s="112" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="224"/>
+      <c r="B6" s="111" t="s">
+        <v>209</v>
+      </c>
+      <c r="F6" s="105" t="s">
+        <v>149</v>
+      </c>
+      <c r="H6" s="105"/>
+      <c r="J6" s="226"/>
+      <c r="K6" s="112" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="224"/>
+      <c r="B7" s="111" t="s">
+        <v>210</v>
+      </c>
+      <c r="F7" s="105" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="105"/>
+      <c r="J7" s="226" t="s">
+        <v>124</v>
+      </c>
+      <c r="K7" s="112" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="224"/>
+      <c r="B8" s="111" t="s">
+        <v>211</v>
+      </c>
+      <c r="F8" s="105" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="105"/>
+      <c r="J8" s="226"/>
+      <c r="K8" s="112" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="224"/>
+      <c r="B9" s="111" t="s">
+        <v>212</v>
+      </c>
+      <c r="J9" s="226"/>
+      <c r="K9" s="112" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="241"/>
-      <c r="B5" s="116" t="s">
-        <v>209</v>
-      </c>
-      <c r="D5" s="109" t="s">
-        <v>98</v>
-      </c>
-      <c r="F5" s="109" t="s">
-        <v>148</v>
-      </c>
-      <c r="H5" s="109" t="s">
-        <v>150</v>
-      </c>
-      <c r="J5" s="243"/>
-      <c r="K5" s="117" t="s">
+    <row r="10" spans="1:11">
+      <c r="A10" s="224"/>
+      <c r="B10" s="111" t="s">
+        <v>213</v>
+      </c>
+      <c r="F10" s="107"/>
+      <c r="J10" s="226"/>
+      <c r="K10" s="112" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="224"/>
+      <c r="B11" s="111" t="s">
+        <v>214</v>
+      </c>
+      <c r="F11" s="107"/>
+      <c r="J11" s="226"/>
+      <c r="K11" s="112" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A12" s="224"/>
+      <c r="B12" s="111" t="s">
+        <v>215</v>
+      </c>
+      <c r="F12" s="107"/>
+      <c r="J12" s="226"/>
+      <c r="K12" s="112" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="241"/>
-      <c r="B6" s="116" t="s">
-        <v>210</v>
-      </c>
-      <c r="F6" s="109" t="s">
-        <v>149</v>
-      </c>
-      <c r="H6" s="109"/>
-      <c r="J6" s="243"/>
-      <c r="K6" s="117" t="s">
+    <row r="13" spans="1:11">
+      <c r="A13" s="224"/>
+      <c r="B13" s="111" t="s">
+        <v>216</v>
+      </c>
+      <c r="D13" s="113"/>
+      <c r="J13" s="226"/>
+      <c r="K13" s="112" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="241"/>
-      <c r="B7" s="116" t="s">
-        <v>211</v>
-      </c>
-      <c r="F7" s="109" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="109"/>
-      <c r="J7" s="243" t="s">
-        <v>124</v>
-      </c>
-      <c r="K7" s="117" t="s">
+    <row r="14" spans="1:11">
+      <c r="A14" s="224"/>
+      <c r="B14" s="111" t="s">
+        <v>217</v>
+      </c>
+      <c r="J14" s="226" t="s">
+        <v>119</v>
+      </c>
+      <c r="K14" s="112" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="224"/>
+      <c r="B15" s="111" t="s">
+        <v>218</v>
+      </c>
+      <c r="J15" s="226"/>
+      <c r="K15" s="112" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="224"/>
+      <c r="B16" s="111" t="s">
+        <v>219</v>
+      </c>
+      <c r="J16" s="226"/>
+      <c r="K16" s="112" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A17" s="224"/>
+      <c r="B17" s="111" t="s">
+        <v>220</v>
+      </c>
+      <c r="J17" s="226"/>
+      <c r="K17" s="112" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="224"/>
+      <c r="B18" s="111" t="s">
+        <v>221</v>
+      </c>
+      <c r="J18" s="226"/>
+      <c r="K18" s="112" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="13.5" thickBot="1">
+      <c r="A19" s="225"/>
+      <c r="B19" s="130" t="s">
+        <v>222</v>
+      </c>
+      <c r="J19" s="226"/>
+      <c r="K19" s="112" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="J20" s="226"/>
+      <c r="K20" s="112" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="J21" s="226"/>
+      <c r="K21" s="112" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="J22" s="226"/>
+      <c r="K22" s="112" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="J23" s="226"/>
+      <c r="K23" s="112" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="J24" s="226" t="s">
+        <v>169</v>
+      </c>
+      <c r="K24" s="112" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="J25" s="226"/>
+      <c r="K25" s="112" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="241"/>
-      <c r="B8" s="116" t="s">
-        <v>212</v>
-      </c>
-      <c r="F8" s="109" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="109"/>
-      <c r="J8" s="243"/>
-      <c r="K8" s="117" t="s">
+    <row r="26" spans="1:11">
+      <c r="J26" s="226"/>
+      <c r="K26" s="112" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="J27" s="226"/>
+      <c r="K27" s="112" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="J28" s="226"/>
+      <c r="K28" s="112" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="J29" s="226"/>
+      <c r="K29" s="112" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="J30" s="226"/>
+      <c r="K30" s="112" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="J31" s="226" t="s">
+        <v>170</v>
+      </c>
+      <c r="K31" s="112" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="J32" s="226"/>
+      <c r="K32" s="112" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="33" spans="10:11">
+      <c r="J33" s="226"/>
+      <c r="K33" s="112" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" spans="10:11">
+      <c r="J34" s="226"/>
+      <c r="K34" s="112" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="10:11">
+      <c r="J35" s="226"/>
+      <c r="K35" s="112" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="10:11">
+      <c r="J36" s="226" t="s">
+        <v>120</v>
+      </c>
+      <c r="K36" s="112" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="241"/>
-      <c r="B9" s="116" t="s">
-        <v>213</v>
-      </c>
-      <c r="J9" s="243"/>
-      <c r="K9" s="117" t="s">
+    <row r="37" spans="10:11">
+      <c r="J37" s="226"/>
+      <c r="K37" s="112" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="241"/>
-      <c r="B10" s="116" t="s">
-        <v>214</v>
-      </c>
-      <c r="F10" s="112"/>
-      <c r="J10" s="243"/>
-      <c r="K10" s="117" t="s">
+    <row r="38" spans="10:11">
+      <c r="J38" s="226"/>
+      <c r="K38" s="112" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="10:11">
+      <c r="J39" s="226"/>
+      <c r="K39" s="112" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="10:11">
+      <c r="J40" s="226"/>
+      <c r="K40" s="112" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="241"/>
-      <c r="B11" s="116" t="s">
-        <v>215</v>
-      </c>
-      <c r="F11" s="112"/>
-      <c r="J11" s="243"/>
-      <c r="K11" s="117" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A12" s="241"/>
-      <c r="B12" s="116" t="s">
-        <v>216</v>
-      </c>
-      <c r="F12" s="112"/>
-      <c r="J12" s="243"/>
-      <c r="K12" s="117" t="s">
+    <row r="41" spans="10:11">
+      <c r="J41" s="226"/>
+      <c r="K41" s="112" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="241"/>
-      <c r="B13" s="116" t="s">
-        <v>217</v>
-      </c>
-      <c r="D13" s="118"/>
-      <c r="J13" s="243"/>
-      <c r="K13" s="117" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="241"/>
-      <c r="B14" s="116" t="s">
-        <v>218</v>
-      </c>
-      <c r="J14" s="243" t="s">
-        <v>119</v>
-      </c>
-      <c r="K14" s="117" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="241"/>
-      <c r="B15" s="116" t="s">
-        <v>219</v>
-      </c>
-      <c r="J15" s="243"/>
-      <c r="K15" s="117" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="241"/>
-      <c r="B16" s="116" t="s">
-        <v>220</v>
-      </c>
-      <c r="J16" s="243"/>
-      <c r="K16" s="117" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A17" s="241"/>
-      <c r="B17" s="116" t="s">
-        <v>221</v>
-      </c>
-      <c r="J17" s="243"/>
-      <c r="K17" s="117" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="241"/>
-      <c r="B18" s="116" t="s">
-        <v>222</v>
-      </c>
-      <c r="J18" s="243"/>
-      <c r="K18" s="117" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A19" s="242"/>
-      <c r="B19" s="135" t="s">
-        <v>223</v>
-      </c>
-      <c r="J19" s="243"/>
-      <c r="K19" s="117" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="J20" s="243"/>
-      <c r="K20" s="117" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="J21" s="243"/>
-      <c r="K21" s="117" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="J22" s="243"/>
-      <c r="K22" s="117" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="J23" s="243"/>
-      <c r="K23" s="117" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="J24" s="243" t="s">
-        <v>169</v>
-      </c>
-      <c r="K24" s="117" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="J25" s="243"/>
-      <c r="K25" s="117" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="J26" s="243"/>
-      <c r="K26" s="117" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="J27" s="243"/>
-      <c r="K27" s="117" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="J28" s="243"/>
-      <c r="K28" s="117" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="J29" s="243"/>
-      <c r="K29" s="117" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="J30" s="243"/>
-      <c r="K30" s="117" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="J31" s="243" t="s">
-        <v>170</v>
-      </c>
-      <c r="K31" s="117" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="J32" s="243"/>
-      <c r="K32" s="117" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="33" spans="10:11">
-      <c r="J33" s="243"/>
-      <c r="K33" s="117" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="34" spans="10:11">
-      <c r="J34" s="243"/>
-      <c r="K34" s="117" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="35" spans="10:11">
-      <c r="J35" s="243"/>
-      <c r="K35" s="117" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="36" spans="10:11">
-      <c r="J36" s="243" t="s">
-        <v>120</v>
-      </c>
-      <c r="K36" s="117" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="37" spans="10:11">
-      <c r="J37" s="243"/>
-      <c r="K37" s="117" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="38" spans="10:11">
-      <c r="J38" s="243"/>
-      <c r="K38" s="117" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="39" spans="10:11">
-      <c r="J39" s="243"/>
-      <c r="K39" s="117" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="40" spans="10:11">
-      <c r="J40" s="243"/>
-      <c r="K40" s="117" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="41" spans="10:11">
-      <c r="J41" s="243"/>
-      <c r="K41" s="117" t="s">
-        <v>128</v>
-      </c>
-    </row>
     <row r="42" spans="10:11">
-      <c r="J42" s="243"/>
-      <c r="K42" s="117" t="s">
+      <c r="J42" s="226"/>
+      <c r="K42" s="112" t="s">
         <v>129</v>
       </c>
     </row>

--- a/IFTC.PPQA.RE01_Herramienta de Gestión QA_(v2.0).xlsx
+++ b/IFTC.PPQA.RE01_Herramienta de Gestión QA_(v2.0).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="12120" windowHeight="9120" tabRatio="598" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="12120" windowHeight="9120" tabRatio="598"/>
   </bookViews>
   <sheets>
     <sheet name="Historial de Revisiones" sheetId="14" r:id="rId1"/>
@@ -2871,102 +2871,118 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="40" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="47" fillId="0" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="46" fillId="24" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="20" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="18" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="20" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="18" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="11" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="18" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="32" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="32" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="20" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="18" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="20" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="18" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="11" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="18" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="32" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="32" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="18" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2988,14 +3004,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="18" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="46" fillId="24" borderId="21" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -3008,6 +3016,57 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="58" fillId="25" borderId="10" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="25" borderId="13" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="25" borderId="24" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="24" borderId="20" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="24" borderId="18" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="25" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="25" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="51" fillId="24" borderId="13" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="51" fillId="24" borderId="24" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="25" borderId="13" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="25" borderId="24" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="46" fillId="24" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -3016,18 +3075,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="24" borderId="20" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="24" borderId="18" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="47" fillId="25" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -3036,45 +3083,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="58" fillId="25" borderId="10" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="25" borderId="13" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="25" borderId="24" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="25" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="25" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="51" fillId="24" borderId="13" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="51" fillId="24" borderId="24" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="25" borderId="13" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="25" borderId="24" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="25" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3086,14 +3094,6 @@
     </xf>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="10" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="47" fillId="0" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -3473,6 +3473,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3684,12 +3685,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="81485312"/>
-        <c:axId val="58685632"/>
+        <c:axId val="42582016"/>
+        <c:axId val="66616064"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="81485312"/>
+        <c:axId val="42582016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3698,7 +3699,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58685632"/>
+        <c:crossAx val="66616064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3706,7 +3707,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58685632"/>
+        <c:axId val="66616064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3716,13 +3717,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81485312"/>
+        <c:crossAx val="42582016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -4015,11 +4017,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="83738624"/>
-        <c:axId val="83755008"/>
+        <c:axId val="42582528"/>
+        <c:axId val="66615488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="83738624"/>
+        <c:axId val="42582528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4054,7 +4056,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83755008"/>
+        <c:crossAx val="66615488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4064,7 +4066,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83755008"/>
+        <c:axId val="66615488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4109,7 +4111,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83738624"/>
+        <c:crossAx val="42582528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4549,12 +4551,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="83739136"/>
-        <c:axId val="83756736"/>
+        <c:axId val="42583040"/>
+        <c:axId val="42469056"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="83739136"/>
+        <c:axId val="42583040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4628,7 +4630,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83756736"/>
+        <c:crossAx val="42469056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4638,7 +4640,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83756736"/>
+        <c:axId val="42469056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4722,7 +4724,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83739136"/>
+        <c:crossAx val="42583040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5500,8 +5502,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -5530,15 +5532,15 @@
     </row>
     <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="62"/>
-      <c r="B2" s="165" t="s">
+      <c r="B2" s="167" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:9" ht="13.5" thickBot="1">
@@ -5684,22 +5686,22 @@
     <row r="2" spans="1:8" s="57" customFormat="1" ht="48.75" customHeight="1">
       <c r="A2" s="34"/>
       <c r="B2" s="58"/>
-      <c r="C2" s="186" t="s">
+      <c r="C2" s="180" t="s">
         <v>175</v>
       </c>
-      <c r="D2" s="187"/>
-      <c r="E2" s="188"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="182"/>
     </row>
     <row r="3" spans="1:8" s="57" customFormat="1">
       <c r="A3" s="34"/>
       <c r="B3" s="59" t="s">
         <v>229</v>
       </c>
-      <c r="C3" s="194" t="s">
+      <c r="C3" s="188" t="s">
         <v>197</v>
       </c>
-      <c r="D3" s="195"/>
-      <c r="E3" s="196"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="190"/>
     </row>
     <row r="4" spans="1:8" s="57" customFormat="1" ht="21.75" customHeight="1">
       <c r="A4" s="34"/>
@@ -5711,12 +5713,12 @@
     </row>
     <row r="5" spans="1:8" ht="24.75" customHeight="1">
       <c r="A5" s="34"/>
-      <c r="B5" s="189" t="s">
+      <c r="B5" s="183" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="190"/>
-      <c r="D5" s="190"/>
-      <c r="E5" s="191"/>
+      <c r="C5" s="184"/>
+      <c r="D5" s="184"/>
+      <c r="E5" s="185"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="34"/>
@@ -5739,10 +5741,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="70"/>
-      <c r="D8" s="192" t="s">
+      <c r="D8" s="186" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="193"/>
+      <c r="E8" s="187"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="34"/>
@@ -5828,62 +5830,62 @@
       <c r="A18" s="32"/>
     </row>
     <row r="19" spans="1:8" s="53" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B19" s="180" t="s">
+      <c r="B19" s="174" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="181"/>
-      <c r="D19" s="181"/>
-      <c r="E19" s="182"/>
+      <c r="C19" s="175"/>
+      <c r="D19" s="175"/>
+      <c r="E19" s="176"/>
     </row>
     <row r="20" spans="1:8" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="B20" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="183" t="s">
+      <c r="C20" s="177" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="184"/>
-      <c r="E20" s="185"/>
+      <c r="D20" s="178"/>
+      <c r="E20" s="179"/>
     </row>
     <row r="21" spans="1:8" s="53" customFormat="1" ht="12.75" customHeight="1">
       <c r="B21" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="171" t="s">
+      <c r="C21" s="191" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="172"/>
-      <c r="E21" s="173"/>
+      <c r="D21" s="192"/>
+      <c r="E21" s="193"/>
     </row>
     <row r="22" spans="1:8" s="53" customFormat="1" ht="12.75" customHeight="1">
       <c r="B22" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="171" t="s">
+      <c r="C22" s="191" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="172"/>
-      <c r="E22" s="173"/>
+      <c r="D22" s="192"/>
+      <c r="E22" s="193"/>
     </row>
     <row r="23" spans="1:8" s="53" customFormat="1" ht="12.75" customHeight="1">
       <c r="B23" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="171" t="s">
+      <c r="C23" s="191" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="172"/>
-      <c r="E23" s="173"/>
+      <c r="D23" s="192"/>
+      <c r="E23" s="193"/>
     </row>
     <row r="24" spans="1:8" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="B24" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="171" t="s">
+      <c r="C24" s="191" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="172"/>
-      <c r="E24" s="173"/>
+      <c r="D24" s="192"/>
+      <c r="E24" s="193"/>
     </row>
     <row r="25" spans="1:8" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="B25" s="55"/>
@@ -5896,31 +5898,31 @@
       <c r="B26" s="46"/>
     </row>
     <row r="27" spans="1:8" s="53" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B27" s="180" t="s">
+      <c r="B27" s="174" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="181"/>
-      <c r="D27" s="181"/>
-      <c r="E27" s="182"/>
+      <c r="C27" s="175"/>
+      <c r="D27" s="175"/>
+      <c r="E27" s="176"/>
     </row>
     <row r="28" spans="1:8" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="B28" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="183" t="s">
+      <c r="C28" s="177" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="184"/>
-      <c r="E28" s="185"/>
+      <c r="D28" s="178"/>
+      <c r="E28" s="179"/>
     </row>
     <row r="29" spans="1:8" ht="12.75" customHeight="1">
       <c r="A29" s="32"/>
-      <c r="B29" s="177" t="s">
+      <c r="B29" s="194" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="178"/>
-      <c r="D29" s="178"/>
-      <c r="E29" s="179"/>
+      <c r="C29" s="195"/>
+      <c r="D29" s="195"/>
+      <c r="E29" s="196"/>
       <c r="F29" s="53"/>
       <c r="G29" s="53"/>
     </row>
@@ -5929,11 +5931,11 @@
       <c r="B30" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="C30" s="167" t="s">
+      <c r="C30" s="168" t="s">
         <v>114</v>
       </c>
-      <c r="D30" s="168"/>
-      <c r="E30" s="169"/>
+      <c r="D30" s="169"/>
+      <c r="E30" s="170"/>
       <c r="F30" s="53"/>
       <c r="G30" s="53"/>
     </row>
@@ -5942,11 +5944,11 @@
       <c r="B31" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="C31" s="167" t="s">
+      <c r="C31" s="168" t="s">
         <v>116</v>
       </c>
-      <c r="D31" s="168"/>
-      <c r="E31" s="169"/>
+      <c r="D31" s="169"/>
+      <c r="E31" s="170"/>
       <c r="F31" s="53"/>
       <c r="G31" s="53"/>
     </row>
@@ -5955,11 +5957,11 @@
       <c r="B32" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="167" t="s">
+      <c r="C32" s="168" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="168"/>
-      <c r="E32" s="169"/>
+      <c r="D32" s="169"/>
+      <c r="E32" s="170"/>
       <c r="F32" s="53"/>
       <c r="G32" s="53"/>
     </row>
@@ -5968,11 +5970,11 @@
       <c r="B33" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="167" t="s">
+      <c r="C33" s="168" t="s">
         <v>73</v>
       </c>
-      <c r="D33" s="168"/>
-      <c r="E33" s="169"/>
+      <c r="D33" s="169"/>
+      <c r="E33" s="170"/>
       <c r="F33" s="53"/>
       <c r="G33" s="53"/>
     </row>
@@ -5981,174 +5983,174 @@
       <c r="B34" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="167" t="s">
+      <c r="C34" s="168" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="168"/>
-      <c r="E34" s="169"/>
+      <c r="D34" s="169"/>
+      <c r="E34" s="170"/>
     </row>
     <row r="35" spans="1:7" ht="16.5" customHeight="1">
       <c r="A35" s="32"/>
       <c r="B35" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="167" t="s">
+      <c r="C35" s="168" t="s">
         <v>75</v>
       </c>
-      <c r="D35" s="168"/>
-      <c r="E35" s="169"/>
+      <c r="D35" s="169"/>
+      <c r="E35" s="170"/>
     </row>
     <row r="36" spans="1:7" ht="16.5" customHeight="1">
       <c r="A36" s="32"/>
-      <c r="B36" s="177" t="s">
+      <c r="B36" s="194" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="178"/>
-      <c r="D36" s="178"/>
-      <c r="E36" s="179"/>
+      <c r="C36" s="195"/>
+      <c r="D36" s="195"/>
+      <c r="E36" s="196"/>
     </row>
     <row r="37" spans="1:7" ht="16.5" customHeight="1">
       <c r="A37" s="32"/>
       <c r="B37" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="167" t="s">
+      <c r="C37" s="168" t="s">
         <v>76</v>
       </c>
-      <c r="D37" s="168"/>
-      <c r="E37" s="169"/>
+      <c r="D37" s="169"/>
+      <c r="E37" s="170"/>
     </row>
     <row r="38" spans="1:7" ht="16.5" customHeight="1">
       <c r="A38" s="32"/>
       <c r="B38" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="167" t="s">
+      <c r="C38" s="168" t="s">
         <v>87</v>
       </c>
-      <c r="D38" s="168"/>
-      <c r="E38" s="169"/>
+      <c r="D38" s="169"/>
+      <c r="E38" s="170"/>
     </row>
     <row r="39" spans="1:7" ht="17.25" customHeight="1">
       <c r="A39" s="32"/>
       <c r="B39" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="C39" s="167" t="s">
+      <c r="C39" s="168" t="s">
         <v>103</v>
       </c>
-      <c r="D39" s="168"/>
-      <c r="E39" s="169"/>
+      <c r="D39" s="169"/>
+      <c r="E39" s="170"/>
     </row>
     <row r="40" spans="1:7" ht="16.5" customHeight="1">
       <c r="A40" s="32"/>
       <c r="B40" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="C40" s="167" t="s">
+      <c r="C40" s="168" t="s">
         <v>143</v>
       </c>
-      <c r="D40" s="168"/>
-      <c r="E40" s="169"/>
+      <c r="D40" s="169"/>
+      <c r="E40" s="170"/>
     </row>
     <row r="41" spans="1:7" ht="16.5" customHeight="1">
       <c r="A41" s="32"/>
       <c r="B41" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="167" t="s">
+      <c r="C41" s="168" t="s">
         <v>105</v>
       </c>
-      <c r="D41" s="168"/>
-      <c r="E41" s="169"/>
+      <c r="D41" s="169"/>
+      <c r="E41" s="170"/>
     </row>
     <row r="42" spans="1:7" ht="16.5" customHeight="1">
       <c r="A42" s="32"/>
       <c r="B42" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="167" t="s">
+      <c r="C42" s="168" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="168"/>
-      <c r="E42" s="169"/>
+      <c r="D42" s="169"/>
+      <c r="E42" s="170"/>
     </row>
     <row r="43" spans="1:7" ht="16.5" customHeight="1">
       <c r="A43" s="32"/>
       <c r="B43" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="167" t="s">
+      <c r="C43" s="168" t="s">
         <v>79</v>
       </c>
-      <c r="D43" s="168"/>
-      <c r="E43" s="169"/>
+      <c r="D43" s="169"/>
+      <c r="E43" s="170"/>
     </row>
     <row r="44" spans="1:7" ht="16.5" customHeight="1">
       <c r="A44" s="32"/>
       <c r="B44" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="C44" s="167" t="s">
+      <c r="C44" s="168" t="s">
         <v>80</v>
       </c>
-      <c r="D44" s="168"/>
-      <c r="E44" s="169"/>
+      <c r="D44" s="169"/>
+      <c r="E44" s="170"/>
     </row>
     <row r="45" spans="1:7" ht="16.5" customHeight="1">
       <c r="A45" s="32"/>
       <c r="B45" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="167" t="s">
+      <c r="C45" s="168" t="s">
         <v>77</v>
       </c>
-      <c r="D45" s="168"/>
-      <c r="E45" s="169"/>
+      <c r="D45" s="169"/>
+      <c r="E45" s="170"/>
     </row>
     <row r="46" spans="1:7" ht="16.5" customHeight="1">
       <c r="A46" s="32"/>
       <c r="B46" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="C46" s="167" t="s">
+      <c r="C46" s="168" t="s">
         <v>82</v>
       </c>
-      <c r="D46" s="168"/>
-      <c r="E46" s="169"/>
+      <c r="D46" s="169"/>
+      <c r="E46" s="170"/>
     </row>
     <row r="47" spans="1:7" ht="16.5" customHeight="1">
       <c r="A47" s="32"/>
       <c r="B47" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="C47" s="167" t="s">
+      <c r="C47" s="168" t="s">
         <v>83</v>
       </c>
-      <c r="D47" s="168"/>
-      <c r="E47" s="169"/>
+      <c r="D47" s="169"/>
+      <c r="E47" s="170"/>
     </row>
     <row r="48" spans="1:7" ht="16.5" customHeight="1">
       <c r="A48" s="32"/>
       <c r="B48" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="167" t="s">
+      <c r="C48" s="168" t="s">
         <v>81</v>
       </c>
-      <c r="D48" s="168"/>
-      <c r="E48" s="169"/>
+      <c r="D48" s="169"/>
+      <c r="E48" s="170"/>
     </row>
     <row r="49" spans="1:13" ht="16.5" customHeight="1">
       <c r="A49" s="32"/>
       <c r="B49" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="C49" s="167" t="s">
+      <c r="C49" s="168" t="s">
         <v>78</v>
       </c>
-      <c r="D49" s="168"/>
-      <c r="E49" s="169"/>
+      <c r="D49" s="169"/>
+      <c r="E49" s="170"/>
     </row>
     <row r="50" spans="1:13" ht="16.5" customHeight="1">
       <c r="A50" s="53"/>
@@ -6181,23 +6183,23 @@
       <c r="M51" s="33"/>
     </row>
     <row r="52" spans="1:13" s="53" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B52" s="180" t="s">
+      <c r="B52" s="174" t="s">
         <v>55</v>
       </c>
-      <c r="C52" s="181"/>
-      <c r="D52" s="181"/>
-      <c r="E52" s="182"/>
+      <c r="C52" s="175"/>
+      <c r="D52" s="175"/>
+      <c r="E52" s="176"/>
     </row>
     <row r="53" spans="1:13" ht="16.5" customHeight="1">
       <c r="A53" s="53"/>
       <c r="B53" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="C53" s="183" t="s">
+      <c r="C53" s="177" t="s">
         <v>6</v>
       </c>
-      <c r="D53" s="184"/>
-      <c r="E53" s="185"/>
+      <c r="D53" s="178"/>
+      <c r="E53" s="179"/>
       <c r="F53" s="53"/>
       <c r="G53" s="53"/>
       <c r="H53" s="53"/>
@@ -6212,132 +6214,132 @@
       <c r="B54" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="C54" s="167" t="s">
+      <c r="C54" s="168" t="s">
         <v>76</v>
       </c>
-      <c r="D54" s="168"/>
-      <c r="E54" s="169"/>
+      <c r="D54" s="169"/>
+      <c r="E54" s="170"/>
     </row>
     <row r="55" spans="1:13" ht="16.5" customHeight="1">
       <c r="A55" s="32"/>
       <c r="B55" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="C55" s="167" t="s">
+      <c r="C55" s="168" t="s">
         <v>88</v>
       </c>
-      <c r="D55" s="168"/>
-      <c r="E55" s="169"/>
+      <c r="D55" s="169"/>
+      <c r="E55" s="170"/>
     </row>
     <row r="56" spans="1:13" ht="16.5" customHeight="1">
       <c r="A56" s="32"/>
       <c r="B56" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="C56" s="167" t="s">
+      <c r="C56" s="168" t="s">
         <v>89</v>
       </c>
-      <c r="D56" s="168"/>
-      <c r="E56" s="169"/>
+      <c r="D56" s="169"/>
+      <c r="E56" s="170"/>
     </row>
     <row r="57" spans="1:13" ht="16.5" customHeight="1">
       <c r="A57" s="32"/>
       <c r="B57" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="C57" s="167" t="s">
+      <c r="C57" s="168" t="s">
         <v>106</v>
       </c>
-      <c r="D57" s="174"/>
-      <c r="E57" s="175"/>
+      <c r="D57" s="172"/>
+      <c r="E57" s="173"/>
     </row>
     <row r="58" spans="1:13" ht="16.5" customHeight="1">
       <c r="A58" s="32"/>
       <c r="B58" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="167" t="s">
+      <c r="C58" s="168" t="s">
         <v>93</v>
       </c>
-      <c r="D58" s="174"/>
-      <c r="E58" s="175"/>
+      <c r="D58" s="172"/>
+      <c r="E58" s="173"/>
     </row>
     <row r="59" spans="1:13" ht="16.5" customHeight="1">
       <c r="A59" s="32"/>
       <c r="B59" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="C59" s="167" t="s">
+      <c r="C59" s="168" t="s">
         <v>84</v>
       </c>
-      <c r="D59" s="174"/>
-      <c r="E59" s="175"/>
+      <c r="D59" s="172"/>
+      <c r="E59" s="173"/>
     </row>
     <row r="60" spans="1:13" ht="54" customHeight="1">
       <c r="A60" s="32"/>
       <c r="B60" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="C60" s="167" t="s">
+      <c r="C60" s="168" t="s">
         <v>107</v>
       </c>
-      <c r="D60" s="174"/>
-      <c r="E60" s="175"/>
+      <c r="D60" s="172"/>
+      <c r="E60" s="173"/>
     </row>
     <row r="61" spans="1:13" ht="16.5" customHeight="1">
       <c r="A61" s="32"/>
       <c r="B61" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="C61" s="176" t="s">
+      <c r="C61" s="171" t="s">
         <v>92</v>
       </c>
-      <c r="D61" s="174"/>
-      <c r="E61" s="175"/>
+      <c r="D61" s="172"/>
+      <c r="E61" s="173"/>
     </row>
     <row r="62" spans="1:13" ht="30" customHeight="1">
       <c r="A62" s="32"/>
       <c r="B62" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C62" s="167" t="s">
+      <c r="C62" s="168" t="s">
         <v>57</v>
       </c>
-      <c r="D62" s="174"/>
-      <c r="E62" s="175"/>
+      <c r="D62" s="172"/>
+      <c r="E62" s="173"/>
     </row>
     <row r="63" spans="1:13" ht="16.5" customHeight="1">
       <c r="A63" s="32"/>
       <c r="B63" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C63" s="176" t="s">
+      <c r="C63" s="171" t="s">
         <v>62</v>
       </c>
-      <c r="D63" s="174"/>
-      <c r="E63" s="175"/>
+      <c r="D63" s="172"/>
+      <c r="E63" s="173"/>
     </row>
     <row r="64" spans="1:13" ht="16.5" customHeight="1">
       <c r="A64" s="32"/>
       <c r="B64" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C64" s="176" t="s">
+      <c r="C64" s="171" t="s">
         <v>85</v>
       </c>
-      <c r="D64" s="174"/>
-      <c r="E64" s="175"/>
+      <c r="D64" s="172"/>
+      <c r="E64" s="173"/>
     </row>
     <row r="65" spans="1:8" ht="16.5" customHeight="1">
       <c r="A65" s="32"/>
       <c r="B65" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="C65" s="167" t="s">
+      <c r="C65" s="168" t="s">
         <v>78</v>
       </c>
-      <c r="D65" s="168"/>
-      <c r="E65" s="169"/>
+      <c r="D65" s="169"/>
+      <c r="E65" s="170"/>
     </row>
     <row r="66" spans="1:8" ht="16.5" customHeight="1">
       <c r="A66" s="32"/>
@@ -6348,200 +6350,200 @@
     </row>
     <row r="67" spans="1:8" ht="16.5" customHeight="1">
       <c r="A67" s="32"/>
-      <c r="B67" s="170"/>
-      <c r="C67" s="170"/>
-      <c r="D67" s="170"/>
-      <c r="E67" s="170"/>
+      <c r="B67" s="198"/>
+      <c r="C67" s="198"/>
+      <c r="D67" s="198"/>
+      <c r="E67" s="198"/>
       <c r="F67" s="52"/>
       <c r="G67" s="52"/>
       <c r="H67" s="52"/>
     </row>
     <row r="68" spans="1:8" ht="16.5" customHeight="1">
       <c r="A68" s="32"/>
-      <c r="B68" s="166"/>
-      <c r="C68" s="166"/>
-      <c r="D68" s="166"/>
-      <c r="E68" s="166"/>
+      <c r="B68" s="197"/>
+      <c r="C68" s="197"/>
+      <c r="D68" s="197"/>
+      <c r="E68" s="197"/>
       <c r="F68" s="52"/>
       <c r="G68" s="52"/>
       <c r="H68" s="52"/>
     </row>
     <row r="69" spans="1:8" ht="16.5" customHeight="1">
       <c r="A69" s="32"/>
-      <c r="B69" s="166"/>
-      <c r="C69" s="166"/>
-      <c r="D69" s="166"/>
-      <c r="E69" s="166"/>
+      <c r="B69" s="197"/>
+      <c r="C69" s="197"/>
+      <c r="D69" s="197"/>
+      <c r="E69" s="197"/>
       <c r="F69" s="52"/>
       <c r="G69" s="52"/>
       <c r="H69" s="52"/>
     </row>
     <row r="70" spans="1:8" ht="16.5" customHeight="1">
       <c r="A70" s="32"/>
-      <c r="B70" s="166"/>
-      <c r="C70" s="166"/>
-      <c r="D70" s="166"/>
-      <c r="E70" s="166"/>
+      <c r="B70" s="197"/>
+      <c r="C70" s="197"/>
+      <c r="D70" s="197"/>
+      <c r="E70" s="197"/>
       <c r="F70" s="52"/>
       <c r="G70" s="52"/>
       <c r="H70" s="52"/>
     </row>
     <row r="71" spans="1:8" ht="16.5" customHeight="1">
       <c r="A71" s="32"/>
-      <c r="B71" s="166"/>
-      <c r="C71" s="166"/>
-      <c r="D71" s="166"/>
-      <c r="E71" s="166"/>
+      <c r="B71" s="197"/>
+      <c r="C71" s="197"/>
+      <c r="D71" s="197"/>
+      <c r="E71" s="197"/>
       <c r="F71" s="52"/>
       <c r="G71" s="52"/>
       <c r="H71" s="52"/>
     </row>
     <row r="72" spans="1:8" ht="16.5" customHeight="1">
       <c r="A72" s="32"/>
-      <c r="B72" s="166"/>
-      <c r="C72" s="166"/>
-      <c r="D72" s="166"/>
-      <c r="E72" s="166"/>
+      <c r="B72" s="197"/>
+      <c r="C72" s="197"/>
+      <c r="D72" s="197"/>
+      <c r="E72" s="197"/>
       <c r="F72" s="52"/>
       <c r="G72" s="52"/>
       <c r="H72" s="52"/>
     </row>
     <row r="73" spans="1:8" ht="16.5" customHeight="1">
       <c r="A73" s="37"/>
-      <c r="B73" s="166"/>
-      <c r="C73" s="166"/>
-      <c r="D73" s="166"/>
-      <c r="E73" s="166"/>
+      <c r="B73" s="197"/>
+      <c r="C73" s="197"/>
+      <c r="D73" s="197"/>
+      <c r="E73" s="197"/>
       <c r="F73" s="52"/>
       <c r="G73" s="52"/>
       <c r="H73" s="52"/>
     </row>
     <row r="74" spans="1:8" ht="16.5" customHeight="1">
       <c r="A74" s="32"/>
-      <c r="B74" s="166"/>
-      <c r="C74" s="166"/>
-      <c r="D74" s="166"/>
-      <c r="E74" s="166"/>
+      <c r="B74" s="197"/>
+      <c r="C74" s="197"/>
+      <c r="D74" s="197"/>
+      <c r="E74" s="197"/>
       <c r="F74" s="52"/>
       <c r="G74" s="52"/>
       <c r="H74" s="52"/>
     </row>
     <row r="75" spans="1:8" ht="16.5" customHeight="1">
       <c r="A75" s="32"/>
-      <c r="B75" s="166"/>
-      <c r="C75" s="166"/>
-      <c r="D75" s="166"/>
-      <c r="E75" s="166"/>
+      <c r="B75" s="197"/>
+      <c r="C75" s="197"/>
+      <c r="D75" s="197"/>
+      <c r="E75" s="197"/>
       <c r="F75" s="52"/>
       <c r="G75" s="52"/>
       <c r="H75" s="52"/>
     </row>
     <row r="76" spans="1:8" ht="16.5" customHeight="1">
       <c r="A76" s="32"/>
-      <c r="B76" s="166"/>
-      <c r="C76" s="166"/>
-      <c r="D76" s="166"/>
-      <c r="E76" s="166"/>
+      <c r="B76" s="197"/>
+      <c r="C76" s="197"/>
+      <c r="D76" s="197"/>
+      <c r="E76" s="197"/>
       <c r="F76" s="52"/>
       <c r="G76" s="52"/>
       <c r="H76" s="52"/>
     </row>
     <row r="77" spans="1:8" ht="16.5" customHeight="1">
       <c r="A77" s="32"/>
-      <c r="B77" s="166"/>
-      <c r="C77" s="166"/>
-      <c r="D77" s="166"/>
-      <c r="E77" s="166"/>
+      <c r="B77" s="197"/>
+      <c r="C77" s="197"/>
+      <c r="D77" s="197"/>
+      <c r="E77" s="197"/>
       <c r="F77" s="52"/>
       <c r="G77" s="52"/>
       <c r="H77" s="52"/>
     </row>
     <row r="78" spans="1:8" ht="16.5" customHeight="1">
       <c r="A78" s="32"/>
-      <c r="B78" s="166"/>
-      <c r="C78" s="166"/>
-      <c r="D78" s="166"/>
-      <c r="E78" s="166"/>
+      <c r="B78" s="197"/>
+      <c r="C78" s="197"/>
+      <c r="D78" s="197"/>
+      <c r="E78" s="197"/>
       <c r="F78" s="52"/>
       <c r="G78" s="52"/>
       <c r="H78" s="52"/>
     </row>
     <row r="79" spans="1:8" ht="16.5" customHeight="1">
       <c r="A79" s="37"/>
-      <c r="B79" s="166"/>
-      <c r="C79" s="166"/>
-      <c r="D79" s="166"/>
-      <c r="E79" s="166"/>
+      <c r="B79" s="197"/>
+      <c r="C79" s="197"/>
+      <c r="D79" s="197"/>
+      <c r="E79" s="197"/>
       <c r="F79" s="52"/>
       <c r="G79" s="52"/>
       <c r="H79" s="52"/>
     </row>
     <row r="80" spans="1:8" ht="16.5" customHeight="1">
       <c r="A80" s="37"/>
-      <c r="B80" s="166"/>
-      <c r="C80" s="166"/>
-      <c r="D80" s="166"/>
-      <c r="E80" s="166"/>
+      <c r="B80" s="197"/>
+      <c r="C80" s="197"/>
+      <c r="D80" s="197"/>
+      <c r="E80" s="197"/>
       <c r="F80" s="52"/>
       <c r="G80" s="52"/>
       <c r="H80" s="52"/>
     </row>
     <row r="81" spans="1:8" ht="16.5" customHeight="1">
       <c r="A81" s="37"/>
-      <c r="B81" s="166"/>
-      <c r="C81" s="166"/>
-      <c r="D81" s="166"/>
-      <c r="E81" s="166"/>
+      <c r="B81" s="197"/>
+      <c r="C81" s="197"/>
+      <c r="D81" s="197"/>
+      <c r="E81" s="197"/>
       <c r="F81" s="52"/>
       <c r="G81" s="52"/>
       <c r="H81" s="52"/>
     </row>
     <row r="82" spans="1:8" ht="16.5" customHeight="1">
       <c r="A82" s="37"/>
-      <c r="B82" s="166"/>
-      <c r="C82" s="166"/>
-      <c r="D82" s="166"/>
-      <c r="E82" s="166"/>
+      <c r="B82" s="197"/>
+      <c r="C82" s="197"/>
+      <c r="D82" s="197"/>
+      <c r="E82" s="197"/>
       <c r="F82" s="52"/>
       <c r="G82" s="52"/>
       <c r="H82" s="52"/>
     </row>
     <row r="83" spans="1:8" ht="16.5" customHeight="1">
       <c r="A83" s="37"/>
-      <c r="B83" s="166"/>
-      <c r="C83" s="166"/>
-      <c r="D83" s="166"/>
-      <c r="E83" s="166"/>
+      <c r="B83" s="197"/>
+      <c r="C83" s="197"/>
+      <c r="D83" s="197"/>
+      <c r="E83" s="197"/>
       <c r="F83" s="52"/>
       <c r="G83" s="52"/>
       <c r="H83" s="52"/>
     </row>
     <row r="84" spans="1:8" ht="16.5" customHeight="1">
       <c r="A84" s="37"/>
-      <c r="B84" s="166"/>
-      <c r="C84" s="166"/>
-      <c r="D84" s="166"/>
-      <c r="E84" s="166"/>
+      <c r="B84" s="197"/>
+      <c r="C84" s="197"/>
+      <c r="D84" s="197"/>
+      <c r="E84" s="197"/>
       <c r="F84" s="52"/>
       <c r="G84" s="52"/>
       <c r="H84" s="52"/>
     </row>
     <row r="85" spans="1:8" ht="16.5" customHeight="1">
       <c r="A85" s="37"/>
-      <c r="B85" s="166"/>
-      <c r="C85" s="166"/>
-      <c r="D85" s="166"/>
-      <c r="E85" s="166"/>
+      <c r="B85" s="197"/>
+      <c r="C85" s="197"/>
+      <c r="D85" s="197"/>
+      <c r="E85" s="197"/>
       <c r="F85" s="52"/>
       <c r="G85" s="52"/>
       <c r="H85" s="52"/>
     </row>
     <row r="86" spans="1:8" ht="16.5" customHeight="1">
       <c r="A86" s="37"/>
-      <c r="B86" s="166"/>
-      <c r="C86" s="166"/>
-      <c r="D86" s="166"/>
-      <c r="E86" s="166"/>
+      <c r="B86" s="197"/>
+      <c r="C86" s="197"/>
+      <c r="D86" s="197"/>
+      <c r="E86" s="197"/>
       <c r="F86" s="52"/>
       <c r="G86" s="52"/>
       <c r="H86" s="52"/>
@@ -6554,36 +6556,27 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="B69:E69"/>
     <mergeCell ref="C31:E31"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="C60:E60"/>
@@ -6600,27 +6593,36 @@
     <mergeCell ref="C39:E39"/>
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="C48:E48"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6637,7 +6639,7 @@
   </sheetPr>
   <dimension ref="B3:Y50"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E14" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
@@ -6659,69 +6661,69 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:25" ht="18" customHeight="1">
-      <c r="B3" s="200" t="s">
+      <c r="B3" s="204" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="200"/>
-      <c r="D3" s="200"/>
-      <c r="E3" s="200"/>
-      <c r="F3" s="200"/>
-      <c r="G3" s="200"/>
-      <c r="H3" s="200"/>
-      <c r="I3" s="200"/>
-      <c r="J3" s="200"/>
-      <c r="K3" s="200"/>
-      <c r="L3" s="200"/>
-      <c r="M3" s="200"/>
-      <c r="N3" s="200"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="204"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="204"/>
+      <c r="J3" s="204"/>
+      <c r="K3" s="204"/>
+      <c r="L3" s="204"/>
+      <c r="M3" s="204"/>
+      <c r="N3" s="204"/>
     </row>
     <row r="4" spans="2:25" ht="11.25" customHeight="1">
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="2:25" ht="15" customHeight="1"/>
     <row r="6" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B6" s="202" t="s">
+      <c r="B6" s="199" t="s">
         <v>113</v>
       </c>
-      <c r="C6" s="203"/>
-      <c r="D6" s="197" t="s">
+      <c r="C6" s="200"/>
+      <c r="D6" s="201" t="s">
         <v>176</v>
       </c>
-      <c r="E6" s="198"/>
-      <c r="F6" s="199"/>
-      <c r="G6" s="201"/>
-      <c r="H6" s="201"/>
+      <c r="E6" s="202"/>
+      <c r="F6" s="203"/>
+      <c r="G6" s="205"/>
+      <c r="H6" s="205"/>
       <c r="Y6" s="3"/>
     </row>
     <row r="7" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B7" s="202" t="s">
+      <c r="B7" s="199" t="s">
         <v>177</v>
       </c>
-      <c r="C7" s="203"/>
-      <c r="D7" s="197" t="s">
+      <c r="C7" s="200"/>
+      <c r="D7" s="201" t="s">
         <v>174</v>
       </c>
-      <c r="E7" s="198"/>
-      <c r="F7" s="199"/>
+      <c r="E7" s="202"/>
+      <c r="F7" s="203"/>
       <c r="Y7" s="3"/>
     </row>
     <row r="8" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B8" s="202" t="s">
+      <c r="B8" s="199" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="203"/>
-      <c r="D8" s="197" t="s">
+      <c r="C8" s="200"/>
+      <c r="D8" s="201" t="s">
         <v>178</v>
       </c>
-      <c r="E8" s="198"/>
-      <c r="F8" s="199"/>
+      <c r="E8" s="202"/>
+      <c r="F8" s="203"/>
       <c r="Y8" s="3"/>
     </row>
     <row r="9" spans="2:25" s="5" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B9" s="202" t="s">
+      <c r="B9" s="199" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="203"/>
+      <c r="C9" s="200"/>
       <c r="D9" s="82">
         <v>41360</v>
       </c>
@@ -6734,13 +6736,13 @@
       <c r="Y9" s="3"/>
     </row>
     <row r="10" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B10" s="202" t="s">
+      <c r="B10" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="203"/>
-      <c r="D10" s="197"/>
-      <c r="E10" s="198"/>
-      <c r="F10" s="199"/>
+      <c r="C10" s="200"/>
+      <c r="D10" s="201"/>
+      <c r="E10" s="202"/>
+      <c r="F10" s="203"/>
       <c r="Y10" s="3"/>
     </row>
     <row r="11" spans="2:25" s="16" customFormat="1" ht="15" customHeight="1">
@@ -8223,17 +8225,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D10:F10"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="B3:N3"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D6:F6"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D10:F10"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
@@ -8259,11 +8261,11 @@
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="5" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25"/>
@@ -8284,22 +8286,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="25" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A1" s="204" t="s">
+      <c r="A1" s="206" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="205"/>
-      <c r="C1" s="205"/>
-      <c r="D1" s="205"/>
-      <c r="E1" s="205"/>
-      <c r="F1" s="205"/>
-      <c r="G1" s="205"/>
-      <c r="H1" s="205"/>
-      <c r="I1" s="205"/>
-      <c r="J1" s="205"/>
-      <c r="K1" s="205"/>
-      <c r="L1" s="205"/>
-      <c r="M1" s="205"/>
-      <c r="N1" s="206"/>
+      <c r="B1" s="207"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
+      <c r="H1" s="207"/>
+      <c r="I1" s="207"/>
+      <c r="J1" s="207"/>
+      <c r="K1" s="207"/>
+      <c r="L1" s="207"/>
+      <c r="M1" s="207"/>
+      <c r="N1" s="208"/>
     </row>
     <row r="2" spans="1:15" s="25" customFormat="1" ht="11.45" customHeight="1">
       <c r="A2" s="26"/>
@@ -8405,10 +8407,10 @@
         <v>173</v>
       </c>
       <c r="K5" s="89"/>
-      <c r="L5" s="228">
+      <c r="L5" s="165">
         <v>41313</v>
       </c>
-      <c r="M5" s="229">
+      <c r="M5" s="166">
         <v>41383</v>
       </c>
       <c r="N5" s="90">
@@ -8453,10 +8455,10 @@
         <v>173</v>
       </c>
       <c r="K6" s="89"/>
-      <c r="L6" s="228">
+      <c r="L6" s="165">
         <v>41314</v>
       </c>
-      <c r="M6" s="229">
+      <c r="M6" s="166">
         <v>41383</v>
       </c>
       <c r="N6" s="90">
@@ -8497,10 +8499,10 @@
         <v>173</v>
       </c>
       <c r="K7" s="89"/>
-      <c r="L7" s="228">
+      <c r="L7" s="165">
         <v>41310</v>
       </c>
-      <c r="M7" s="228">
+      <c r="M7" s="165">
         <v>41310</v>
       </c>
       <c r="N7" s="90">
@@ -8541,10 +8543,10 @@
         <v>173</v>
       </c>
       <c r="K8" s="89"/>
-      <c r="L8" s="228">
+      <c r="L8" s="165">
         <v>41314</v>
       </c>
-      <c r="M8" s="228">
+      <c r="M8" s="165">
         <v>41314</v>
       </c>
       <c r="N8" s="90">
@@ -8589,10 +8591,10 @@
         <v>173</v>
       </c>
       <c r="K9" s="89"/>
-      <c r="L9" s="228">
+      <c r="L9" s="165">
         <v>41321</v>
       </c>
-      <c r="M9" s="228">
+      <c r="M9" s="165">
         <v>41321</v>
       </c>
       <c r="N9" s="90">
@@ -8633,10 +8635,10 @@
         <v>173</v>
       </c>
       <c r="K10" s="89"/>
-      <c r="L10" s="228">
+      <c r="L10" s="165">
         <v>41328</v>
       </c>
-      <c r="M10" s="228">
+      <c r="M10" s="165">
         <v>41328</v>
       </c>
       <c r="N10" s="90">
@@ -8677,10 +8679,10 @@
         <v>173</v>
       </c>
       <c r="K11" s="89"/>
-      <c r="L11" s="228">
+      <c r="L11" s="165">
         <v>41338</v>
       </c>
-      <c r="M11" s="228">
+      <c r="M11" s="165">
         <v>41338</v>
       </c>
       <c r="N11" s="90">
@@ -8721,10 +8723,10 @@
         <v>173</v>
       </c>
       <c r="K12" s="89"/>
-      <c r="L12" s="228">
+      <c r="L12" s="165">
         <v>41342</v>
       </c>
-      <c r="M12" s="228">
+      <c r="M12" s="165">
         <v>41342</v>
       </c>
       <c r="N12" s="90">
@@ -8765,10 +8767,10 @@
         <v>173</v>
       </c>
       <c r="K13" s="89"/>
-      <c r="L13" s="228">
+      <c r="L13" s="165">
         <v>41344</v>
       </c>
-      <c r="M13" s="228">
+      <c r="M13" s="165">
         <v>41344</v>
       </c>
       <c r="N13" s="90">
@@ -8809,10 +8811,10 @@
         <v>173</v>
       </c>
       <c r="K14" s="89"/>
-      <c r="L14" s="228">
+      <c r="L14" s="165">
         <v>41345</v>
       </c>
-      <c r="M14" s="228">
+      <c r="M14" s="165">
         <v>41345</v>
       </c>
       <c r="N14" s="90">
@@ -8853,10 +8855,10 @@
         <v>173</v>
       </c>
       <c r="K15" s="89"/>
-      <c r="L15" s="228">
+      <c r="L15" s="165">
         <v>41318</v>
       </c>
-      <c r="M15" s="228">
+      <c r="M15" s="165">
         <v>41318</v>
       </c>
       <c r="N15" s="90">
@@ -8897,10 +8899,10 @@
         <v>173</v>
       </c>
       <c r="K16" s="89"/>
-      <c r="L16" s="228">
+      <c r="L16" s="165">
         <v>41319</v>
       </c>
-      <c r="M16" s="228">
+      <c r="M16" s="165">
         <v>41319</v>
       </c>
       <c r="N16" s="90">
@@ -8939,10 +8941,10 @@
         <v>173</v>
       </c>
       <c r="K17" s="89"/>
-      <c r="L17" s="228">
+      <c r="L17" s="165">
         <v>41347</v>
       </c>
-      <c r="M17" s="228">
+      <c r="M17" s="165">
         <v>41347</v>
       </c>
       <c r="N17" s="90">
@@ -8987,10 +8989,10 @@
         <v>173</v>
       </c>
       <c r="K18" s="89"/>
-      <c r="L18" s="228">
+      <c r="L18" s="165">
         <v>41382</v>
       </c>
-      <c r="M18" s="228">
+      <c r="M18" s="165">
         <v>41382</v>
       </c>
       <c r="N18" s="90">
@@ -9031,10 +9033,10 @@
         <v>173</v>
       </c>
       <c r="K19" s="89"/>
-      <c r="L19" s="228">
+      <c r="L19" s="165">
         <v>41359</v>
       </c>
-      <c r="M19" s="228">
+      <c r="M19" s="165">
         <v>41359</v>
       </c>
       <c r="N19" s="90">
@@ -9075,10 +9077,10 @@
         <v>173</v>
       </c>
       <c r="K20" s="89"/>
-      <c r="L20" s="228">
+      <c r="L20" s="165">
         <v>41362</v>
       </c>
-      <c r="M20" s="228">
+      <c r="M20" s="165">
         <v>41362</v>
       </c>
       <c r="N20" s="90">
@@ -9119,10 +9121,10 @@
         <v>173</v>
       </c>
       <c r="K21" s="89"/>
-      <c r="L21" s="228">
+      <c r="L21" s="165">
         <v>41363</v>
       </c>
-      <c r="M21" s="228">
+      <c r="M21" s="165">
         <v>41363</v>
       </c>
       <c r="N21" s="90">
@@ -9163,10 +9165,10 @@
         <v>173</v>
       </c>
       <c r="K22" s="89"/>
-      <c r="L22" s="228">
+      <c r="L22" s="165">
         <v>41365</v>
       </c>
-      <c r="M22" s="228">
+      <c r="M22" s="165">
         <v>41365</v>
       </c>
       <c r="N22" s="90">
@@ -9207,10 +9209,10 @@
         <v>173</v>
       </c>
       <c r="K23" s="89"/>
-      <c r="L23" s="228">
+      <c r="L23" s="165">
         <v>41366</v>
       </c>
-      <c r="M23" s="228">
+      <c r="M23" s="165">
         <v>41366</v>
       </c>
       <c r="N23" s="90">
@@ -9251,10 +9253,10 @@
         <v>173</v>
       </c>
       <c r="K24" s="89"/>
-      <c r="L24" s="228">
+      <c r="L24" s="165">
         <v>41361</v>
       </c>
-      <c r="M24" s="228">
+      <c r="M24" s="165">
         <v>41361</v>
       </c>
       <c r="N24" s="90">
@@ -9295,10 +9297,10 @@
         <v>173</v>
       </c>
       <c r="K25" s="89"/>
-      <c r="L25" s="228">
+      <c r="L25" s="165">
         <v>41367</v>
       </c>
-      <c r="M25" s="228">
+      <c r="M25" s="165">
         <v>41367</v>
       </c>
       <c r="N25" s="90">
@@ -9339,10 +9341,10 @@
         <v>173</v>
       </c>
       <c r="K26" s="89"/>
-      <c r="L26" s="228">
+      <c r="L26" s="165">
         <v>41369</v>
       </c>
-      <c r="M26" s="228">
+      <c r="M26" s="165">
         <v>41369</v>
       </c>
       <c r="N26" s="90">
@@ -9383,10 +9385,10 @@
         <v>173</v>
       </c>
       <c r="K27" s="89"/>
-      <c r="L27" s="228">
+      <c r="L27" s="165">
         <v>41417</v>
       </c>
-      <c r="M27" s="228">
+      <c r="M27" s="165">
         <v>41417</v>
       </c>
       <c r="N27" s="90">
@@ -9427,10 +9429,10 @@
         <v>173</v>
       </c>
       <c r="K28" s="89"/>
-      <c r="L28" s="228">
+      <c r="L28" s="165">
         <v>41373</v>
       </c>
-      <c r="M28" s="228">
+      <c r="M28" s="165">
         <v>41373</v>
       </c>
       <c r="N28" s="90">
@@ -9471,10 +9473,10 @@
         <v>173</v>
       </c>
       <c r="K29" s="89"/>
-      <c r="L29" s="228">
+      <c r="L29" s="165">
         <v>41375</v>
       </c>
-      <c r="M29" s="228">
+      <c r="M29" s="165">
         <v>41375</v>
       </c>
       <c r="N29" s="90">
@@ -9515,10 +9517,10 @@
         <v>173</v>
       </c>
       <c r="K30" s="89"/>
-      <c r="L30" s="228">
+      <c r="L30" s="165">
         <v>41375</v>
       </c>
-      <c r="M30" s="228">
+      <c r="M30" s="165">
         <v>41375</v>
       </c>
       <c r="N30" s="90">
@@ -9559,10 +9561,10 @@
         <v>173</v>
       </c>
       <c r="K31" s="89"/>
-      <c r="L31" s="228">
+      <c r="L31" s="165">
         <v>41418</v>
       </c>
-      <c r="M31" s="228">
+      <c r="M31" s="165">
         <v>41418</v>
       </c>
       <c r="N31" s="90">
@@ -9603,10 +9605,10 @@
         <v>173</v>
       </c>
       <c r="K32" s="89"/>
-      <c r="L32" s="228">
+      <c r="L32" s="165">
         <v>41421</v>
       </c>
-      <c r="M32" s="228">
+      <c r="M32" s="165">
         <v>41421</v>
       </c>
       <c r="N32" s="90">
@@ -9647,10 +9649,10 @@
         <v>173</v>
       </c>
       <c r="K33" s="89"/>
-      <c r="L33" s="228">
+      <c r="L33" s="165">
         <v>41419</v>
       </c>
-      <c r="M33" s="228">
+      <c r="M33" s="165">
         <v>41419</v>
       </c>
       <c r="N33" s="90">
@@ -9691,10 +9693,10 @@
         <v>173</v>
       </c>
       <c r="K34" s="89"/>
-      <c r="L34" s="228">
+      <c r="L34" s="165">
         <v>41422</v>
       </c>
-      <c r="M34" s="228">
+      <c r="M34" s="165">
         <v>41422</v>
       </c>
       <c r="N34" s="90">
@@ -9735,10 +9737,10 @@
         <v>173</v>
       </c>
       <c r="K35" s="89"/>
-      <c r="L35" s="228">
+      <c r="L35" s="165">
         <v>41424</v>
       </c>
-      <c r="M35" s="228">
+      <c r="M35" s="165">
         <v>41424</v>
       </c>
       <c r="N35" s="90">
@@ -9779,10 +9781,10 @@
         <v>173</v>
       </c>
       <c r="K36" s="89"/>
-      <c r="L36" s="228">
+      <c r="L36" s="165">
         <v>41425</v>
       </c>
-      <c r="M36" s="228">
+      <c r="M36" s="165">
         <v>41425</v>
       </c>
       <c r="N36" s="90">
@@ -9823,10 +9825,10 @@
         <v>173</v>
       </c>
       <c r="K37" s="162"/>
-      <c r="L37" s="228">
+      <c r="L37" s="165">
         <v>41428</v>
       </c>
-      <c r="M37" s="228">
+      <c r="M37" s="165">
         <v>41428</v>
       </c>
       <c r="N37" s="90">
@@ -9867,10 +9869,10 @@
         <v>173</v>
       </c>
       <c r="K38" s="162"/>
-      <c r="L38" s="228">
+      <c r="L38" s="165">
         <v>41430</v>
       </c>
-      <c r="M38" s="228">
+      <c r="M38" s="165">
         <v>41430</v>
       </c>
       <c r="N38" s="90">
@@ -9911,10 +9913,10 @@
         <v>173</v>
       </c>
       <c r="K39" s="162"/>
-      <c r="L39" s="228">
+      <c r="L39" s="165">
         <v>41431</v>
       </c>
-      <c r="M39" s="228">
+      <c r="M39" s="165">
         <v>41431</v>
       </c>
       <c r="N39" s="90">
@@ -9955,10 +9957,10 @@
         <v>173</v>
       </c>
       <c r="K40" s="162"/>
-      <c r="L40" s="228">
+      <c r="L40" s="165">
         <v>41431</v>
       </c>
-      <c r="M40" s="228">
+      <c r="M40" s="165">
         <v>41431</v>
       </c>
       <c r="N40" s="90">
@@ -10012,82 +10014,82 @@
   <sheetData>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A2" s="9"/>
-      <c r="C2" s="207" t="s">
+      <c r="C2" s="222" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="207"/>
-      <c r="E2" s="207"/>
-      <c r="F2" s="207"/>
-      <c r="G2" s="207"/>
-      <c r="H2" s="207"/>
-      <c r="I2" s="207"/>
-      <c r="J2" s="207"/>
-      <c r="K2" s="207"/>
+      <c r="D2" s="222"/>
+      <c r="E2" s="222"/>
+      <c r="F2" s="222"/>
+      <c r="G2" s="222"/>
+      <c r="H2" s="222"/>
+      <c r="I2" s="222"/>
+      <c r="J2" s="222"/>
+      <c r="K2" s="222"/>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="A3" s="10"/>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1">
       <c r="A4" s="10"/>
-      <c r="C4" s="208" t="s">
+      <c r="C4" s="223" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="208"/>
-      <c r="E4" s="209" t="str">
+      <c r="D4" s="223"/>
+      <c r="E4" s="212" t="str">
         <f>IF(Planificación!D6&lt;&gt;"",Planificación!D6,"")</f>
         <v>Amira Lanao</v>
       </c>
-      <c r="F4" s="210"/>
-      <c r="G4" s="210"/>
-      <c r="H4" s="210"/>
-      <c r="I4" s="211"/>
+      <c r="F4" s="213"/>
+      <c r="G4" s="213"/>
+      <c r="H4" s="213"/>
+      <c r="I4" s="214"/>
     </row>
     <row r="5" spans="1:11" s="2" customFormat="1">
       <c r="A5" s="10"/>
-      <c r="C5" s="212" t="str">
+      <c r="C5" s="224" t="str">
         <f>Planificación!B7</f>
         <v>Analista de Calidad</v>
       </c>
-      <c r="D5" s="213"/>
-      <c r="E5" s="209" t="str">
+      <c r="D5" s="225"/>
+      <c r="E5" s="212" t="str">
         <f>IF(Planificación!D7&lt;&gt;"",Planificación!D7,"")</f>
         <v>Michel Aguilar</v>
       </c>
-      <c r="F5" s="210"/>
-      <c r="G5" s="210"/>
-      <c r="H5" s="210"/>
-      <c r="I5" s="211"/>
+      <c r="F5" s="213"/>
+      <c r="G5" s="213"/>
+      <c r="H5" s="213"/>
+      <c r="I5" s="214"/>
     </row>
     <row r="6" spans="1:11" s="2" customFormat="1">
       <c r="A6" s="10"/>
-      <c r="C6" s="215" t="s">
+      <c r="C6" s="210" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="216"/>
-      <c r="E6" s="209" t="str">
+      <c r="D6" s="211"/>
+      <c r="E6" s="212" t="str">
         <f>IF(Planificación!D8&lt;&gt;"",Planificación!D8,"")</f>
         <v>Gino Guzman, Amira Lanao</v>
       </c>
-      <c r="F6" s="210"/>
-      <c r="G6" s="210"/>
-      <c r="H6" s="210"/>
-      <c r="I6" s="211"/>
+      <c r="F6" s="213"/>
+      <c r="G6" s="213"/>
+      <c r="H6" s="213"/>
+      <c r="I6" s="214"/>
     </row>
     <row r="7" spans="1:11" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A7" s="10"/>
-      <c r="C7" s="218" t="s">
+      <c r="C7" s="216" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="218"/>
-      <c r="E7" s="219">
+      <c r="D7" s="216"/>
+      <c r="E7" s="217">
         <f>IF(Planificación!D9&lt;&gt;"",Planificación!D9,"")</f>
         <v>41360</v>
       </c>
-      <c r="F7" s="220"/>
-      <c r="G7" s="221" t="s">
+      <c r="F7" s="218"/>
+      <c r="G7" s="219" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="222"/>
+      <c r="H7" s="220"/>
       <c r="I7" s="91">
         <f>IF(Planificación!F9&lt;&gt;"",Planificación!F9,"")</f>
         <v>41383</v>
@@ -10095,24 +10097,24 @@
     </row>
     <row r="8" spans="1:11" s="2" customFormat="1">
       <c r="A8" s="10"/>
-      <c r="C8" s="218" t="s">
+      <c r="C8" s="216" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="223"/>
-      <c r="E8" s="209" t="str">
+      <c r="D8" s="221"/>
+      <c r="E8" s="212" t="str">
         <f>IF(Planificación!D10&lt;&gt;"",Planificación!D10,"")</f>
         <v/>
       </c>
-      <c r="F8" s="210"/>
-      <c r="G8" s="210"/>
-      <c r="H8" s="210"/>
-      <c r="I8" s="211"/>
+      <c r="F8" s="213"/>
+      <c r="G8" s="213"/>
+      <c r="H8" s="213"/>
+      <c r="I8" s="214"/>
     </row>
     <row r="13" spans="1:11" ht="15">
-      <c r="C13" s="217" t="s">
+      <c r="C13" s="215" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="217"/>
+      <c r="D13" s="215"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -10215,10 +10217,10 @@
       <c r="E28" s="8"/>
     </row>
     <row r="30" spans="3:5" ht="15" customHeight="1">
-      <c r="C30" s="214" t="s">
+      <c r="C30" s="209" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="214"/>
+      <c r="D30" s="209"/>
     </row>
     <row r="31" spans="3:5">
       <c r="C31" s="30" t="s">
@@ -10283,10 +10285,10 @@
       </c>
     </row>
     <row r="52" spans="3:4" ht="15">
-      <c r="C52" s="214" t="s">
+      <c r="C52" s="209" t="s">
         <v>108</v>
       </c>
-      <c r="D52" s="214"/>
+      <c r="D52" s="209"/>
     </row>
     <row r="53" spans="3:4">
       <c r="C53" s="97" t="s">
@@ -10316,10 +10318,10 @@
       </c>
     </row>
     <row r="69" spans="3:4" ht="15">
-      <c r="C69" s="214" t="s">
+      <c r="C69" s="209" t="s">
         <v>146</v>
       </c>
-      <c r="D69" s="214"/>
+      <c r="D69" s="209"/>
     </row>
     <row r="70" spans="3:4">
       <c r="C70" s="30" t="s">
@@ -10367,6 +10369,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:I5"/>
     <mergeCell ref="C69:D69"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:I6"/>
@@ -10378,11 +10385,6 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:I5"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10456,7 +10458,7 @@
       <c r="H3" s="101" t="s">
         <v>117</v>
       </c>
-      <c r="J3" s="227" t="s">
+      <c r="J3" s="229" t="s">
         <v>117</v>
       </c>
       <c r="K3" s="108" t="s">
@@ -10464,7 +10466,7 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="224" t="s">
+      <c r="A4" s="226" t="s">
         <v>150</v>
       </c>
       <c r="B4" s="124" t="s">
@@ -10479,13 +10481,13 @@
       <c r="H4" s="101" t="s">
         <v>118</v>
       </c>
-      <c r="J4" s="227"/>
+      <c r="J4" s="229"/>
       <c r="K4" s="108" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="225"/>
+      <c r="A5" s="227"/>
       <c r="B5" s="107" t="s">
         <v>207</v>
       </c>
@@ -10498,13 +10500,13 @@
       <c r="H5" s="101" t="s">
         <v>150</v>
       </c>
-      <c r="J5" s="227"/>
+      <c r="J5" s="229"/>
       <c r="K5" s="108" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="225"/>
+      <c r="A6" s="227"/>
       <c r="B6" s="107" t="s">
         <v>208</v>
       </c>
@@ -10512,13 +10514,13 @@
         <v>149</v>
       </c>
       <c r="H6" s="101"/>
-      <c r="J6" s="227"/>
+      <c r="J6" s="229"/>
       <c r="K6" s="108" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="225"/>
+      <c r="A7" s="227"/>
       <c r="B7" s="107" t="s">
         <v>209</v>
       </c>
@@ -10526,7 +10528,7 @@
         <v>37</v>
       </c>
       <c r="H7" s="101"/>
-      <c r="J7" s="227" t="s">
+      <c r="J7" s="229" t="s">
         <v>124</v>
       </c>
       <c r="K7" s="108" t="s">
@@ -10534,7 +10536,7 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="225"/>
+      <c r="A8" s="227"/>
       <c r="B8" s="107" t="s">
         <v>210</v>
       </c>
@@ -10542,71 +10544,71 @@
         <v>36</v>
       </c>
       <c r="H8" s="101"/>
-      <c r="J8" s="227"/>
+      <c r="J8" s="229"/>
       <c r="K8" s="108" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="225"/>
+      <c r="A9" s="227"/>
       <c r="B9" s="107" t="s">
         <v>211</v>
       </c>
-      <c r="J9" s="227"/>
+      <c r="J9" s="229"/>
       <c r="K9" s="108" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="225"/>
+      <c r="A10" s="227"/>
       <c r="B10" s="107" t="s">
         <v>212</v>
       </c>
       <c r="F10" s="103"/>
-      <c r="J10" s="227"/>
+      <c r="J10" s="229"/>
       <c r="K10" s="108" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="225"/>
+      <c r="A11" s="227"/>
       <c r="B11" s="107" t="s">
         <v>213</v>
       </c>
       <c r="F11" s="103"/>
-      <c r="J11" s="227"/>
+      <c r="J11" s="229"/>
       <c r="K11" s="108" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A12" s="225"/>
+      <c r="A12" s="227"/>
       <c r="B12" s="107" t="s">
         <v>214</v>
       </c>
       <c r="F12" s="103"/>
-      <c r="J12" s="227"/>
+      <c r="J12" s="229"/>
       <c r="K12" s="108" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="225"/>
+      <c r="A13" s="227"/>
       <c r="B13" s="107" t="s">
         <v>215</v>
       </c>
       <c r="D13" s="109"/>
-      <c r="J13" s="227"/>
+      <c r="J13" s="229"/>
       <c r="K13" s="108" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="225"/>
+      <c r="A14" s="227"/>
       <c r="B14" s="107" t="s">
         <v>216</v>
       </c>
-      <c r="J14" s="227" t="s">
+      <c r="J14" s="229" t="s">
         <v>119</v>
       </c>
       <c r="K14" s="108" t="s">
@@ -10614,81 +10616,81 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="225"/>
+      <c r="A15" s="227"/>
       <c r="B15" s="107" t="s">
         <v>217</v>
       </c>
-      <c r="J15" s="227"/>
+      <c r="J15" s="229"/>
       <c r="K15" s="108" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="225"/>
+      <c r="A16" s="227"/>
       <c r="B16" s="107" t="s">
         <v>218</v>
       </c>
-      <c r="J16" s="227"/>
+      <c r="J16" s="229"/>
       <c r="K16" s="108" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A17" s="225"/>
+      <c r="A17" s="227"/>
       <c r="B17" s="107" t="s">
         <v>219</v>
       </c>
-      <c r="J17" s="227"/>
+      <c r="J17" s="229"/>
       <c r="K17" s="108" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="225"/>
+      <c r="A18" s="227"/>
       <c r="B18" s="107" t="s">
         <v>220</v>
       </c>
-      <c r="J18" s="227"/>
+      <c r="J18" s="229"/>
       <c r="K18" s="108" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A19" s="226"/>
+      <c r="A19" s="228"/>
       <c r="B19" s="125" t="s">
         <v>221</v>
       </c>
-      <c r="J19" s="227"/>
+      <c r="J19" s="229"/>
       <c r="K19" s="108" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="J20" s="227"/>
+      <c r="J20" s="229"/>
       <c r="K20" s="108" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="J21" s="227"/>
+      <c r="J21" s="229"/>
       <c r="K21" s="108" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="J22" s="227"/>
+      <c r="J22" s="229"/>
       <c r="K22" s="108" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="J23" s="227"/>
+      <c r="J23" s="229"/>
       <c r="K23" s="108" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="J24" s="227" t="s">
+      <c r="J24" s="229" t="s">
         <v>169</v>
       </c>
       <c r="K24" s="108" t="s">
@@ -10696,43 +10698,43 @@
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="J25" s="227"/>
+      <c r="J25" s="229"/>
       <c r="K25" s="108" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="J26" s="227"/>
+      <c r="J26" s="229"/>
       <c r="K26" s="108" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="J27" s="227"/>
+      <c r="J27" s="229"/>
       <c r="K27" s="108" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="J28" s="227"/>
+      <c r="J28" s="229"/>
       <c r="K28" s="108" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="J29" s="227"/>
+      <c r="J29" s="229"/>
       <c r="K29" s="108" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="J30" s="227"/>
+      <c r="J30" s="229"/>
       <c r="K30" s="108" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="J31" s="227" t="s">
+      <c r="J31" s="229" t="s">
         <v>170</v>
       </c>
       <c r="K31" s="108" t="s">
@@ -10740,31 +10742,31 @@
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="J32" s="227"/>
+      <c r="J32" s="229"/>
       <c r="K32" s="108" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="33" spans="10:11">
-      <c r="J33" s="227"/>
+      <c r="J33" s="229"/>
       <c r="K33" s="108" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="34" spans="10:11">
-      <c r="J34" s="227"/>
+      <c r="J34" s="229"/>
       <c r="K34" s="108" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="35" spans="10:11">
-      <c r="J35" s="227"/>
+      <c r="J35" s="229"/>
       <c r="K35" s="108" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="36" spans="10:11">
-      <c r="J36" s="227" t="s">
+      <c r="J36" s="229" t="s">
         <v>120</v>
       </c>
       <c r="K36" s="108" t="s">
@@ -10772,37 +10774,37 @@
       </c>
     </row>
     <row r="37" spans="10:11">
-      <c r="J37" s="227"/>
+      <c r="J37" s="229"/>
       <c r="K37" s="108" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="38" spans="10:11">
-      <c r="J38" s="227"/>
+      <c r="J38" s="229"/>
       <c r="K38" s="108" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="39" spans="10:11">
-      <c r="J39" s="227"/>
+      <c r="J39" s="229"/>
       <c r="K39" s="108" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="40" spans="10:11">
-      <c r="J40" s="227"/>
+      <c r="J40" s="229"/>
       <c r="K40" s="108" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="41" spans="10:11">
-      <c r="J41" s="227"/>
+      <c r="J41" s="229"/>
       <c r="K41" s="108" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="42" spans="10:11">
-      <c r="J42" s="227"/>
+      <c r="J42" s="229"/>
       <c r="K42" s="108" t="s">
         <v>129</v>
       </c>
